--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1079E82-ADB6-E644-8098-1A4C6310C3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9F34F7-9269-5147-A33D-BED90132DFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lci" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="525">
   <si>
     <t>Database</t>
   </si>
@@ -310,9 +310,6 @@
   </si>
   <si>
     <t>electrolyzer production, 1MWe, PEM, Balance of Plant</t>
-  </si>
-  <si>
-    <t>1 MW PEM electrolyzer based on Niklas Gerloff, Comparative Life-Cycle-Assessment analysis of three major water electrolysis technologies while applying various energy scenarios for a greener hydrogen production, Journal of Energy Storage, Volume 43, 2021, https://doi.org/10.1016/j.est.2021.102759. Lifetime of 7-8 years per single stack, @ 8000 hours/year. Iridium mining process is NOT from ecoinvent. Produced amount of H2 over 20 years: 2964315.35 kg. According to a study called IndWEDe, it is assumed that the stacks are replaced 3 times during the 20 years lifespan, based on the 2030’s scenario for 1 MW systems which predicts a lifetime of 50,000 h or more for the stacks of the different water electrolysis technologies. In comparison to AEC electrolyzers, PEMEC electrolyzers are less mature. Furthermore, the PEMEC technology is commercially available and operates with a similar system efficiency as the AEC technology. However, the current density and the gas purity are higher with values in between 0.6-2.0 A/cm2 and &gt; 99.99%, respectively. Besides this, the operating pressure (below 200 bar) is significantly higher in comparison to AEC systems, while the operating temperature (50 °C to 80 °C) and the system energy (4.2-6.6 kWh/m3H2) are similar to AEC systems. The PEMEC BoP and stack components data stem from Bareiß et al. and correspond to a 1 MW system. Moreover, some further BoP components like water purifier &amp; feed tank, buffer tank, and heat exchanger have been added, derived from a 300 kW AEC system, under the assumption that the components are also suitable for a PEMEC system. The values have been scaled up from 300 kW to 1 MW.</t>
   </si>
   <si>
     <t>power electronics (rectifier, voltage adaption)</t>
@@ -557,9 +554,6 @@
     <t>electrolyzer production, 1MWe, AEC, Stack</t>
   </si>
   <si>
-    <t>1 MWe Alkaline electrolyzer based on Niklas Gerloff, Comparative Life-Cycle-Assessment analysis of three major water electrolysis technologies while applying various energy scenarios for a greener hydrogen production, Journal of Energy Storage, Volume 43, 2021, https://doi.org/10.1016/j.est.2021.102759. Single stack lifetime of 7-8 years @ 8000 hours/year, hence 3 replacements over 20 years. Produced amount of H2 over 20 years: 3085961.12 kg. The technology is available for large plant sizes and operates with a stack efficiency of up to 67 % (based on the lower heating value (LHV) of the generated H2). The operating temperature is in between 60–80 °C, and the current density is around 0.2–0.4 A/cm2. Moreover, the system energy –including the stack and periphery energy– is in the range of 4.4–6.6 kWh/m3H2, while the gas purity is higher than 99.5%, and the operating pressure is below 30 bar. While the LCI data of the BoP components either originate from Zhang et al., based on a 300-kW system and, therefore, scaled-up to 1 MW by a factor of 0.7, the LCI data of the other BoP components originate from manufacturer offers or have been estimated by own calculations using additional information by the producers.  Values have already been multiplied by 3 to reflect 2 stack replacements over 20 years of use.</t>
-  </si>
-  <si>
     <t>anode and cathode with frame</t>
   </si>
   <si>
@@ -587,9 +581,6 @@
     <t>electrolyzer production, 1MWe, AEC, Balance of Plant</t>
   </si>
   <si>
-    <t>1 MWe Alkaline electrolyzer based on Niklas Gerloff, Comparative Life-Cycle-Assessment analysis of three major water electrolysis technologies while applying various energy scenarios for a greener hydrogen production, Journal of Energy Storage, Volume 43, 2021, https://doi.org/10.1016/j.est.2021.102759. Single stack lifetime of 7-8 years @ 8000 hours/year, hence 3 replacements over 20 years. Produced amount of H2 over 20 years: 3085961.12 kg. The technology is available for large plant sizes and operates with a stack efficiency of up to 67 % (based on the lower heating value (LHV) of the generated H2). The operating temperature is in between 60–80 °C, and the current density is around 0.2–0.4 A/cm2. Moreover, the system energy –including the stack and periphery energy– is in the range of 4.4–6.6 kWh/m3H2, while the gas purity is higher than 99.5%, and the operating pressure is below 30 bar. While the LCI data of the BoP components either originate from Zhang et al., based on a 300-kW system and, therefore, scaled-up to 1 MW by a factor of 0.7, the LCI data of the other BoP components originate from manufacturer offers or have been estimated by own calculations using additional information by the producers.</t>
-  </si>
-  <si>
     <t>market for glass fibre</t>
   </si>
   <si>
@@ -708,9 +699,6 @@
   </si>
   <si>
     <t>electrolyzer production, 1MWe, SOEC, Balance of Plant</t>
-  </si>
-  <si>
-    <t>1 MWe Solid Oxide electrolyzer based on Niklas Gerloff, Comparative Life-Cycle-Assessment analysis of three major water electrolysis technologies while applying various energy scenarios for a greener hydrogen production, Journal of Energy Storage, Volume 43, 2021, https://doi.org/10.1016/j.est.2021.102759. Lifetime of 7-8 years. Produced amount of H2 over 20 years: 3779894.18 kg.</t>
   </si>
   <si>
     <t>heat exchangers</t>
@@ -1768,9 +1756,6 @@
     <t>natural resource::land</t>
   </si>
   <si>
-    <t xml:space="preserve">1 MWe Solid Oxide electrolyzer based on Niklas Gerloff, Comparative Life-Cycle-Assessment analysis of three major water electrolysis technologies while applying various energy scenarios for a greener hydrogen production, Journal of Energy Storage, Volume 43, 2021, https://doi.org/10.1016/j.est.2021.102759. Lifetime of 7-8 years. Produced amount of H2 over 20 years: 3779894.18 kg. Amounts of lanthanum oxide and strontium carbonate are unsure. </t>
-  </si>
-  <si>
     <t>Occupation, industrial area</t>
   </si>
   <si>
@@ -1799,6 +1784,24 @@
   </si>
   <si>
     <t>Electrolyser land transformation: (0.02 [m2/kW]*1000 [kW/MW])/3776000 [kg H2]</t>
+  </si>
+  <si>
+    <t>1 MW PEM electrolyzer based on Niklas Gerloff, Comparative Life-Cycle-Assessment analysis of three major water electrolysis technologies while applying various energy scenarios for a greener hydrogen production, Journal of Energy Storage, Volume 43, 2021, https://doi.org/10.1016/j.est.2021.102759. Lifetime of 5.5 years per single stack, @ 8000 hours/year (see second tab). Iridium mining process is NOT from ecoinvent. Produced amount of H2 over 20 years: 2964315.35 kg. According to a study called IndWEDe, it is assumed that the stacks are replaced 3 times during the 20 years lifespan, based on the 2030’s scenario for 1 MW systems which predicts a lifetime of 50,000 h or more for the stacks of the different water electrolysis technologies. In comparison to AEC electrolyzers, PEMEC electrolyzers are less mature. Furthermore, the PEMEC technology is commercially available and operates with a similar system efficiency as the AEC technology. However, the current density and the gas purity are higher with values in between 0.6–2.0 A/cm2 and &gt; 99.99%, respectively. Besides this, the operating pressure (below 200 bar) is significantly higher in comparison to AEC systems, while the operating temperature (50 °C to 80 °C) and the system energy (4.2–6.6 kWh/m3H2) are similar to AEC systems. The PEMEC BoP and stack components data stem from Bareiß et al. and correspond to a 1 MW system. Moreover, some further BoP components like water purifier &amp; feed tank, buffer tank, and heat exchanger have been added, derived from a 300 kW AEC system, under the assumption that the components are also suitable for a PEMEC system. The values have been scaled up from 300 kW to 1 MW.</t>
+  </si>
+  <si>
+    <t>1 MW PEM electrolyzer based on Niklas Gerloff, Comparative Life-Cycle-Assessment analysis of three major water electrolysis technologies while applying various energy scenarios for a greener hydrogen production, Journal of Energy Storage, Volume 43, 2021, https://doi.org/10.1016/j.est.2021.102759. BoP with a lifetime of 20 years (no replacement). Iridium mining process is NOT from ecoinvent. Produced amount of H2 over 20 years: 2964315.35 kg. According to a study called IndWEDe, it is assumed that the stacks are replaced 3 times during the 20 years lifespan but not the BoP, based on the 2030’s scenario for 1 MW systems which predicts a lifetime of 50,000 h or more for the stacks of the different water electrolysis technologies. In comparison to AEC electrolyzers, PEMEC electrolyzers are less mature. Furthermore, the PEMEC technology is commercially available and operates with a similar system efficiency as the AEC technology. However, the current density and the gas purity are higher with values in between 0.6-2.0 A/cm2 and &gt; 99.99%, respectively. Besides this, the operating pressure (below 200 bar) is significantly higher in comparison to AEC systems, while the operating temperature (50 °C to 80 °C) and the system energy (4.2-6.6 kWh/m3H2) are similar to AEC systems. The PEMEC BoP and stack components data stem from Bareiß et al. and correspond to a 1 MW system. Moreover, some further BoP components like water purifier &amp; feed tank, buffer tank, and heat exchanger have been added, derived from a 300 kW AEC system, under the assumption that the components are also suitable for a PEMEC system. The values have been scaled up from 300 kW to 1 MW.</t>
+  </si>
+  <si>
+    <t>1 MWe Alkaline electrolyzer based on Niklas Gerloff, Comparative Life-Cycle-Assessment analysis of three major water electrolysis technologies while applying various energy scenarios for a greener hydrogen production, Journal of Energy Storage, Volume 43, 2021, https://doi.org/10.1016/j.est.2021.102759. Single stack lifetime of 7 years @ 8000 hours/year, hence 3 replacements over 20 years (see seoncd tab for more info). Produced amount of H2 over 20 years: 3085961.12 kg. The technology is available for large plant sizes and operates with a stack efficiency of up to 67 % (based on the lower heating value (LHV) of the generated H2). The operating temperature is in between 60–80 °C, and the current density is around 0.2–0.4 A/cm2. Moreover, the system energy –including the stack and periphery energy– is in the range of 4.4–6.6 kWh/m3H2, while the gas purity is higher than 99.5%, and the operating pressure is below 30 bar. While the LCI data of the BoP components either originate from Zhang et al., based on a 300-kW system and, therefore, scaled-up to 1 MW by a factor of 0.7, the LCI data of the other BoP components originate from manufacturer offers or have been estimated by own calculations using additional information by the producers.</t>
+  </si>
+  <si>
+    <t>1 MWe Alkaline electrolyzer based on Niklas Gerloff, Comparative Life-Cycle-Assessment analysis of three major water electrolysis technologies while applying various energy scenarios for a greener hydrogen production, Journal of Energy Storage, Volume 43, 2021, https://doi.org/10.1016/j.est.2021.102759. BoP with a lifetime of 20 years (hence no replacement). Produced amount of H2 over 20 years: 3085961.12 kg. The technology is available for large plant sizes and operates with a stack efficiency of up to 67 % (based on the lower heating value (LHV) of the generated H2). The operating temperature is in between 60–80 °C, and the current density is around 0.2–0.4 A/cm2. Moreover, the system energy –including the stack and periphery energy– is in the range of 4.4–6.6 kWh/m3H2, while the gas purity is higher than 99.5%, and the operating pressure is below 30 bar. While the LCI data of the BoP components either originate from Zhang et al., based on a 300-kW system and, therefore, scaled-up to 1 MW by a factor of 0.7, the LCI data of the other BoP components originate from manufacturer offers or have been estimated by own calculations using additional information by the producers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 MWe Solid Oxide electrolyzer based on Niklas Gerloff, Comparative Life-Cycle-Assessment analysis of three major water electrolysis technologies while applying various energy scenarios for a greener hydrogen production, Journal of Energy Storage, Volume 43, 2021, https://doi.org/10.1016/j.est.2021.102759. Lifetime of 2.5 years (see second tab for more info). Produced amount of H2 over 20 years: 3779894.18 kg. Amounts of lanthanum oxide and strontium carbonate are unsure. </t>
+  </si>
+  <si>
+    <t>1 MWe Solid Oxide electrolyzer BoP based on Niklas Gerloff, Comparative Life-Cycle-Assessment analysis of three major water electrolysis technologies while applying various energy scenarios for a greener hydrogen production, Journal of Energy Storage, Volume 43, 2021, https://doi.org/10.1016/j.est.2021.102759. Lifetime of 20 years (hence, no replacement). Produced amount of H2 over 20 years: 3779894.18 kg.</t>
   </si>
 </sst>
 </file>
@@ -2152,10 +2155,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2169,18 +2184,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2469,8 +2472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T499"/>
   <sheetViews>
-    <sheetView topLeftCell="A192" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B217" sqref="B217"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B512" sqref="B512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2528,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C4" s="11"/>
       <c r="K4" s="13"/>
@@ -2557,7 +2560,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -2571,7 +2574,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -2671,7 +2674,7 @@
     </row>
     <row r="12" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B12" s="17">
         <v>1</v>
@@ -2689,7 +2692,7 @@
         <v>17</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -2723,7 +2726,7 @@
         <v>52</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="J13"/>
       <c r="K13" s="20"/>
@@ -2771,7 +2774,7 @@
     </row>
     <row r="15" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B15" s="12">
         <f>B13*-1</f>
@@ -2787,10 +2790,10 @@
         <v>12</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J15"/>
       <c r="K15" s="20"/>
@@ -2804,7 +2807,7 @@
     </row>
     <row r="16" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B16" s="12">
         <f>-1*B14</f>
@@ -2820,10 +2823,10 @@
         <v>12</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J16"/>
       <c r="K16" s="20"/>
@@ -2856,7 +2859,7 @@
         <v>38</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="J17"/>
       <c r="K17" s="20"/>
@@ -2931,7 +2934,7 @@
     </row>
     <row r="20" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="48" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B20" s="49">
         <f>(0.09*1000)/(2963200/20)</f>
@@ -2939,16 +2942,16 @@
       </c>
       <c r="C20" s="48"/>
       <c r="D20" s="48" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F20" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="I20" s="12">
         <v>2</v>
@@ -2995,7 +2998,7 @@
     </row>
     <row r="21" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="48" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B21" s="49">
         <f>(0.09*1000)/2963200</f>
@@ -3003,16 +3006,16 @@
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="48" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E21" s="48" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F21" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="48" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="I21" s="12">
         <v>2</v>
@@ -3049,7 +3052,7 @@
     </row>
     <row r="22" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="48" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B22" s="49">
         <f>(0.09*1000)/2963200</f>
@@ -3057,16 +3060,16 @@
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E22" s="48" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F22" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="48" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="I22" s="12">
         <v>2</v>
@@ -3142,7 +3145,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>62</v>
+        <v>519</v>
       </c>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
@@ -3771,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
@@ -3813,7 +3816,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
@@ -3939,7 +3942,7 @@
     </row>
     <row r="58" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B58" s="12">
         <f>-1*B43</f>
@@ -3955,7 +3958,7 @@
         <v>12</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J58"/>
       <c r="K58" s="20"/>
@@ -3969,7 +3972,7 @@
     </row>
     <row r="59" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B59" s="12">
         <f>-1*B33</f>
@@ -3985,7 +3988,7 @@
         <v>12</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J59"/>
       <c r="K59" s="20"/>
@@ -3999,7 +4002,7 @@
     </row>
     <row r="60" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B60" s="12">
         <f>-1*B41</f>
@@ -4015,7 +4018,7 @@
         <v>12</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J60"/>
       <c r="K60" s="20"/>
@@ -4029,14 +4032,14 @@
     </row>
     <row r="61" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B61" s="12">
         <f>-1*B36</f>
         <v>-16</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>13</v>
@@ -4045,7 +4048,7 @@
         <v>12</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J61"/>
       <c r="K61" s="20"/>
@@ -4059,7 +4062,7 @@
     </row>
     <row r="62" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B62" s="12">
         <f>-1*B45</f>
@@ -4075,7 +4078,7 @@
         <v>12</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J62"/>
       <c r="K62" s="20"/>
@@ -4129,7 +4132,7 @@
         <v>11</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>90</v>
+        <v>520</v>
       </c>
       <c r="K66" s="13"/>
       <c r="L66" s="26"/>
@@ -4296,7 +4299,7 @@
         <v>20</v>
       </c>
       <c r="H73" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J73"/>
       <c r="K73" s="20"/>
@@ -4328,7 +4331,7 @@
         <v>77</v>
       </c>
       <c r="H74" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J74"/>
       <c r="K74" s="20"/>
@@ -4342,7 +4345,7 @@
     </row>
     <row r="75" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B75" s="17">
         <v>600</v>
@@ -4360,7 +4363,7 @@
         <v>44</v>
       </c>
       <c r="H75" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75"/>
       <c r="K75" s="20"/>
@@ -4392,7 +4395,7 @@
         <v>45</v>
       </c>
       <c r="H76" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J76"/>
       <c r="K76" s="20"/>
@@ -4406,7 +4409,7 @@
     </row>
     <row r="77" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B77" s="17">
         <v>600</v>
@@ -4424,7 +4427,7 @@
         <v>46</v>
       </c>
       <c r="H77" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J77"/>
       <c r="K77" s="20"/>
@@ -4438,7 +4441,7 @@
     </row>
     <row r="78" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B78" s="17">
         <v>100</v>
@@ -4456,7 +4459,7 @@
         <v>47</v>
       </c>
       <c r="H78" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J78"/>
       <c r="K78" s="20"/>
@@ -4470,7 +4473,7 @@
     </row>
     <row r="79" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B79" s="17">
         <v>200</v>
@@ -4488,7 +4491,7 @@
         <v>48</v>
       </c>
       <c r="H79" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J79"/>
       <c r="K79" s="20"/>
@@ -4520,7 +4523,7 @@
         <v>31</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J80"/>
       <c r="K80" s="20"/>
@@ -4552,7 +4555,7 @@
         <v>28</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J81"/>
       <c r="K81" s="20"/>
@@ -4566,7 +4569,7 @@
     </row>
     <row r="82" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B82" s="17">
         <v>900</v>
@@ -4584,7 +4587,7 @@
         <v>46</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J82"/>
       <c r="K82" s="20"/>
@@ -4616,7 +4619,7 @@
         <v>82</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J83"/>
       <c r="K83" s="20"/>
@@ -4648,7 +4651,7 @@
         <v>16</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J84"/>
       <c r="K84" s="20"/>
@@ -4680,7 +4683,7 @@
         <v>20</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J85"/>
       <c r="K85" s="20"/>
@@ -4712,7 +4715,7 @@
         <v>45</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J86"/>
       <c r="K86" s="20"/>
@@ -4744,7 +4747,7 @@
         <v>77</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J87"/>
       <c r="K87" s="20"/>
@@ -4776,7 +4779,7 @@
         <v>80</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J88"/>
       <c r="K88" s="20"/>
@@ -4808,7 +4811,7 @@
         <v>30</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J89"/>
       <c r="K89" s="20"/>
@@ -4822,7 +4825,7 @@
     </row>
     <row r="90" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B90" s="17">
         <v>300</v>
@@ -4837,10 +4840,10 @@
         <v>12</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J90"/>
       <c r="K90" s="20"/>
@@ -4854,7 +4857,7 @@
     </row>
     <row r="91" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B91" s="17">
         <v>100</v>
@@ -4869,10 +4872,10 @@
         <v>12</v>
       </c>
       <c r="G91" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H91" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="H91" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="J91"/>
       <c r="K91" s="20"/>
@@ -4886,7 +4889,7 @@
     </row>
     <row r="92" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B92" s="17">
         <v>100</v>
@@ -4901,10 +4904,10 @@
         <v>12</v>
       </c>
       <c r="G92" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H92" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="H92" s="11" t="s">
-        <v>109</v>
       </c>
       <c r="J92"/>
       <c r="K92" s="20"/>
@@ -4936,7 +4939,7 @@
         <v>82</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J93"/>
       <c r="K93" s="20"/>
@@ -4968,7 +4971,7 @@
         <v>16</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J94"/>
       <c r="K94" s="20"/>
@@ -4982,7 +4985,7 @@
     </row>
     <row r="95" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B95" s="17">
         <v>464.6</v>
@@ -4997,10 +5000,10 @@
         <v>12</v>
       </c>
       <c r="G95" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H95" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="H95" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="J95"/>
       <c r="K95" s="20"/>
@@ -5014,7 +5017,7 @@
     </row>
     <row r="96" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B96" s="17">
         <v>464.6</v>
@@ -5029,10 +5032,10 @@
         <v>12</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J96"/>
       <c r="K96" s="20"/>
@@ -5046,7 +5049,7 @@
     </row>
     <row r="97" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B97" s="17">
         <v>232.3</v>
@@ -5064,7 +5067,7 @@
         <v>44</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J97"/>
       <c r="K97" s="20"/>
@@ -5078,7 +5081,7 @@
     </row>
     <row r="98" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B98" s="17">
         <v>232.3</v>
@@ -5096,7 +5099,7 @@
         <v>46</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J98"/>
       <c r="K98" s="20"/>
@@ -5128,7 +5131,7 @@
         <v>20</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J99"/>
       <c r="K99" s="20"/>
@@ -5160,7 +5163,7 @@
         <v>77</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J100"/>
       <c r="K100" s="20"/>
@@ -5174,7 +5177,7 @@
     </row>
     <row r="101" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B101" s="17">
         <v>180</v>
@@ -5192,7 +5195,7 @@
         <v>44</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J101"/>
       <c r="K101" s="20"/>
@@ -5206,7 +5209,7 @@
     </row>
     <row r="102" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B102" s="17">
         <v>15</v>
@@ -5224,7 +5227,7 @@
         <v>47</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J102"/>
       <c r="K102" s="20"/>
@@ -5238,7 +5241,7 @@
     </row>
     <row r="103" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B103" s="17">
         <v>45</v>
@@ -5256,7 +5259,7 @@
         <v>48</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J103"/>
       <c r="K103" s="20"/>
@@ -5270,7 +5273,7 @@
     </row>
     <row r="104" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B104" s="17">
         <v>600</v>
@@ -5285,10 +5288,10 @@
         <v>12</v>
       </c>
       <c r="G104" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H104" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="H104" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="J104"/>
       <c r="K104" s="20"/>
@@ -5302,7 +5305,7 @@
     </row>
     <row r="105" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B105" s="17">
         <v>7</v>
@@ -5317,10 +5320,10 @@
         <v>12</v>
       </c>
       <c r="G105" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J105"/>
       <c r="K105" s="20"/>
@@ -5334,7 +5337,7 @@
     </row>
     <row r="106" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B106" s="17">
         <v>1300</v>
@@ -5352,7 +5355,7 @@
         <v>44</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J106"/>
       <c r="K106" s="20"/>
@@ -5384,7 +5387,7 @@
         <v>82</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J107"/>
       <c r="K107" s="20"/>
@@ -5398,7 +5401,7 @@
     </row>
     <row r="108" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B108" s="17">
         <v>400</v>
@@ -5416,7 +5419,7 @@
         <v>46</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J108"/>
       <c r="K108" s="20"/>
@@ -5448,7 +5451,7 @@
         <v>16</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J109"/>
       <c r="K109" s="20"/>
@@ -5462,7 +5465,7 @@
     </row>
     <row r="110" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B110" s="17">
         <v>1000</v>
@@ -5480,7 +5483,7 @@
         <v>44</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J110"/>
       <c r="K110" s="20"/>
@@ -5512,7 +5515,7 @@
         <v>82</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J111"/>
       <c r="K111" s="20"/>
@@ -5526,7 +5529,7 @@
     </row>
     <row r="112" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B112" s="17">
         <v>1000</v>
@@ -5544,7 +5547,7 @@
         <v>46</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J112"/>
       <c r="K112" s="20"/>
@@ -5576,7 +5579,7 @@
         <v>16</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J113"/>
       <c r="K113" s="20"/>
@@ -5608,7 +5611,7 @@
         <v>82</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J114"/>
       <c r="K114" s="20"/>
@@ -5640,7 +5643,7 @@
         <v>16</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J115"/>
       <c r="K115" s="20"/>
@@ -5654,7 +5657,7 @@
     </row>
     <row r="116" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B116" s="17">
         <v>29</v>
@@ -5663,16 +5666,16 @@
         <v>18</v>
       </c>
       <c r="D116" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F116" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" s="12" t="s">
-        <v>126</v>
-      </c>
       <c r="H116" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J116"/>
       <c r="K116" s="20"/>
@@ -5686,7 +5689,7 @@
     </row>
     <row r="117" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B117" s="17">
         <v>2250</v>
@@ -5704,7 +5707,7 @@
         <v>46</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J117"/>
       <c r="K117" s="20"/>
@@ -5736,7 +5739,7 @@
         <v>28</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J118"/>
       <c r="K118" s="20"/>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="119" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B119" s="30">
         <v>2.2999999999999998</v>
@@ -5765,10 +5768,10 @@
         <v>12</v>
       </c>
       <c r="G119" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H119" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="H119" s="11" t="s">
-        <v>130</v>
       </c>
       <c r="J119"/>
       <c r="K119" s="20"/>
@@ -5826,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K122" s="13"/>
       <c r="L122" s="13"/>
@@ -5854,7 +5857,7 @@
         <v>11</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>62</v>
+        <v>520</v>
       </c>
       <c r="K124" s="13"/>
       <c r="L124" s="13"/>
@@ -5868,7 +5871,7 @@
         <v>4</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K125" s="13"/>
       <c r="L125" s="13"/>
@@ -5994,7 +5997,7 @@
     </row>
     <row r="131" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B131" s="12">
         <f>7523*-1</f>
@@ -6010,7 +6013,7 @@
         <v>12</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J131"/>
       <c r="K131" s="20"/>
@@ -6024,13 +6027,13 @@
     </row>
     <row r="132" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B132" s="12">
         <v>-3312</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D132" s="12" t="s">
         <v>13</v>
@@ -6039,7 +6042,7 @@
         <v>12</v>
       </c>
       <c r="G132" s="17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J132"/>
       <c r="K132" s="20"/>
@@ -6053,7 +6056,7 @@
     </row>
     <row r="133" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B133" s="12">
         <v>-260</v>
@@ -6068,7 +6071,7 @@
         <v>12</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J133"/>
       <c r="K133" s="20"/>
@@ -6082,13 +6085,13 @@
     </row>
     <row r="134" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B134" s="12">
         <v>-32</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D134" s="12" t="s">
         <v>13</v>
@@ -6097,7 +6100,7 @@
         <v>12</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J134"/>
       <c r="K134" s="20"/>
@@ -6111,13 +6114,13 @@
     </row>
     <row r="135" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B135" s="12">
         <v>-14</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D135" s="12" t="s">
         <v>13</v>
@@ -6126,7 +6129,7 @@
         <v>12</v>
       </c>
       <c r="G135" s="12" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="J135"/>
       <c r="K135" s="20"/>
@@ -6140,7 +6143,7 @@
     </row>
     <row r="136" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B136" s="12">
         <v>-8</v>
@@ -6155,7 +6158,7 @@
         <v>12</v>
       </c>
       <c r="G136" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J136"/>
       <c r="K136" s="20"/>
@@ -6169,7 +6172,7 @@
     </row>
     <row r="137" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B137" s="12">
         <v>-764.6</v>
@@ -6184,7 +6187,7 @@
         <v>12</v>
       </c>
       <c r="G137" s="12" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="J137"/>
       <c r="K137" s="20"/>
@@ -6198,7 +6201,7 @@
     </row>
     <row r="138" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B138" s="12">
         <v>-600</v>
@@ -6213,7 +6216,7 @@
         <v>12</v>
       </c>
       <c r="G138" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J138"/>
       <c r="K138" s="20"/>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="139" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B139" s="12">
         <v>-345</v>
@@ -6242,7 +6245,7 @@
         <v>12</v>
       </c>
       <c r="G139" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J139"/>
       <c r="K139" s="20"/>
@@ -6256,13 +6259,13 @@
     </row>
     <row r="140" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B140" s="12">
         <v>-147</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>13</v>
@@ -6271,7 +6274,7 @@
         <v>12</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J140"/>
       <c r="K140" s="20"/>
@@ -6285,7 +6288,7 @@
     </row>
     <row r="141" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B141" s="12">
         <v>-5600</v>
@@ -6300,7 +6303,7 @@
         <v>12</v>
       </c>
       <c r="G141" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J141"/>
       <c r="K141" s="20"/>
@@ -6314,13 +6317,13 @@
     </row>
     <row r="142" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B142" s="12">
         <v>-100</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>13</v>
@@ -6329,7 +6332,7 @@
         <v>12</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="J142"/>
       <c r="K142" s="20"/>
@@ -6383,7 +6386,7 @@
         <v>11</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K146" s="13"/>
       <c r="L146" s="26"/>
@@ -6527,7 +6530,7 @@
     </row>
     <row r="153" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B153" s="17">
         <v>7.8099999999999989E-2</v>
@@ -6553,7 +6556,7 @@
     </row>
     <row r="154" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B154" s="17">
         <v>19.13</v>
@@ -6579,7 +6582,7 @@
     </row>
     <row r="155" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B155" s="17">
         <v>8.1000000000000006E-4</v>
@@ -6605,7 +6608,7 @@
     </row>
     <row r="156" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B156" s="17">
         <v>6.9299999999999995E-3</v>
@@ -6631,7 +6634,7 @@
     </row>
     <row r="157" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B157" s="17">
         <v>7.1589999999999998</v>
@@ -6657,7 +6660,7 @@
     </row>
     <row r="158" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B158" s="17">
         <v>11146.616</v>
@@ -6683,7 +6686,7 @@
     </row>
     <row r="159" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B159" s="17">
         <v>412.19600000000003</v>
@@ -6709,7 +6712,7 @@
     </row>
     <row r="160" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B160" s="17">
         <v>8.7600000000000004E-8</v>
@@ -6735,7 +6738,7 @@
     </row>
     <row r="161" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B161" s="17">
         <v>5.7299999999999999E-9</v>
@@ -6761,7 +6764,7 @@
     </row>
     <row r="162" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B162" s="17">
         <v>5.5599999999999998E-3</v>
@@ -6787,7 +6790,7 @@
     </row>
     <row r="163" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B163" s="17">
         <v>36.700000000000003</v>
@@ -6813,7 +6816,7 @@
     </row>
     <row r="164" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B164" s="17">
         <v>4.8600000000000004E-2</v>
@@ -6839,7 +6842,7 @@
     </row>
     <row r="165" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B165" s="17">
         <v>1.9100000000000002E-2</v>
@@ -6865,7 +6868,7 @@
     </row>
     <row r="166" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B166" s="17">
         <v>0.499</v>
@@ -6891,7 +6894,7 @@
     </row>
     <row r="167" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B167" s="17">
         <v>4.6999999999999999E-9</v>
@@ -6917,7 +6920,7 @@
     </row>
     <row r="168" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B168" s="17">
         <v>4.87E-2</v>
@@ -6943,7 +6946,7 @@
     </row>
     <row r="169" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B169" s="17">
         <v>2.1E-7</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="170" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B170" s="17">
         <v>2.5600000000000001E-2</v>
@@ -6995,7 +6998,7 @@
     </row>
     <row r="171" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B171" s="17">
         <v>1.06</v>
@@ -7021,7 +7024,7 @@
     </row>
     <row r="172" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B172" s="17">
         <v>0.35199999999999998</v>
@@ -7047,7 +7050,7 @@
     </row>
     <row r="173" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B173" s="17">
         <v>2.69E-2</v>
@@ -7073,7 +7076,7 @@
     </row>
     <row r="174" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B174" s="17">
         <v>26.859000000000002</v>
@@ -7099,7 +7102,7 @@
     </row>
     <row r="175" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B175" s="17">
         <v>30.635000000000002</v>
@@ -7125,7 +7128,7 @@
     </row>
     <row r="176" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B176" s="17">
         <v>9.5200000000000002E-10</v>
@@ -7151,7 +7154,7 @@
     </row>
     <row r="177" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B177" s="17">
         <v>2.4599999999999997E-6</v>
@@ -7177,7 +7180,7 @@
     </row>
     <row r="178" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B178" s="17">
         <v>3.4299999999999998E-6</v>
@@ -7203,7 +7206,7 @@
     </row>
     <row r="179" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B179" s="17">
         <v>1.5E-3</v>
@@ -7229,7 +7232,7 @@
     </row>
     <row r="180" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B180" s="17">
         <v>2.6200000000000003E-4</v>
@@ -7255,7 +7258,7 @@
     </row>
     <row r="181" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B181" s="17">
         <v>4.4299999999999999E-5</v>
@@ -7281,7 +7284,7 @@
     </row>
     <row r="182" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B182" s="17">
         <v>2172.2550000000001</v>
@@ -7307,7 +7310,7 @@
     </row>
     <row r="183" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B183" s="17">
         <v>1.02E-4</v>
@@ -7333,7 +7336,7 @@
     </row>
     <row r="184" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B184" s="17">
         <v>6.7900000000000002E-2</v>
@@ -7371,7 +7374,7 @@
         <v>1</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C186" s="11"/>
       <c r="K186" s="13"/>
@@ -7400,7 +7403,7 @@
         <v>11</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="K188" s="13"/>
       <c r="L188" s="13"/>
@@ -7414,7 +7417,7 @@
         <v>4</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K189" s="13"/>
       <c r="L189" s="13"/>
@@ -7514,7 +7517,7 @@
     </row>
     <row r="194" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="17" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B194" s="17">
         <v>1</v>
@@ -7532,7 +7535,7 @@
         <v>17</v>
       </c>
       <c r="G194" s="12" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H194" s="11"/>
       <c r="I194" s="11"/>
@@ -7563,7 +7566,7 @@
         <v>12</v>
       </c>
       <c r="G195" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H195" s="12" t="s">
         <v>53</v>
@@ -7597,10 +7600,10 @@
         <v>12</v>
       </c>
       <c r="G196" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H196" s="12" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="J196"/>
       <c r="K196" s="20"/>
@@ -7614,7 +7617,7 @@
     </row>
     <row r="197" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B197" s="17">
         <f>-1*B195</f>
@@ -7630,10 +7633,10 @@
         <v>12</v>
       </c>
       <c r="G197" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H197" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J197"/>
       <c r="K197" s="20"/>
@@ -7647,7 +7650,7 @@
     </row>
     <row r="198" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="17" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B198" s="17">
         <f>-1*B196</f>
@@ -7663,10 +7666,10 @@
         <v>12</v>
       </c>
       <c r="G198" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H198" s="12" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J198"/>
       <c r="K198" s="20"/>
@@ -7699,7 +7702,7 @@
         <v>38</v>
       </c>
       <c r="H199" s="11" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="J199"/>
       <c r="K199" s="20"/>
@@ -7713,7 +7716,7 @@
     </row>
     <row r="200" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B200" s="17">
         <v>3.7000000000000002E-3</v>
@@ -7729,10 +7732,10 @@
         <v>12</v>
       </c>
       <c r="G200" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="H200" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="H200" s="11" t="s">
-        <v>169</v>
       </c>
       <c r="J200"/>
       <c r="K200" s="20"/>
@@ -7807,7 +7810,7 @@
     </row>
     <row r="203" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="48" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B203" s="49">
         <f>(0.12*1000)/(4259200/27.5)</f>
@@ -7815,16 +7818,16 @@
       </c>
       <c r="C203" s="48"/>
       <c r="D203" s="48" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E203" s="48" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F203" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H203" s="48" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="I203" s="12">
         <v>2</v>
@@ -7871,7 +7874,7 @@
     </row>
     <row r="204" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="48" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B204" s="49">
         <f>(0.12*1000)/4259200</f>
@@ -7879,16 +7882,16 @@
       </c>
       <c r="C204" s="48"/>
       <c r="D204" s="48" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E204" s="48" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F204" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H204" s="48" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="I204" s="12">
         <v>2</v>
@@ -7925,7 +7928,7 @@
     </row>
     <row r="205" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="48" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B205" s="49">
         <f>(0.12*1000)/4259200</f>
@@ -7933,16 +7936,16 @@
       </c>
       <c r="C205" s="48"/>
       <c r="D205" s="48" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E205" s="48" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F205" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H205" s="48" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="I205" s="12">
         <v>2</v>
@@ -7991,7 +7994,7 @@
         <v>1</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K207" s="13"/>
       <c r="L207" s="13"/>
@@ -8019,7 +8022,7 @@
         <v>11</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>171</v>
+        <v>521</v>
       </c>
       <c r="K209" s="13"/>
       <c r="L209" s="13"/>
@@ -8033,7 +8036,7 @@
         <v>4</v>
       </c>
       <c r="B210" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K210" s="13"/>
       <c r="L210" s="13"/>
@@ -8209,7 +8212,7 @@
         <v>82</v>
       </c>
       <c r="H217" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J217"/>
       <c r="K217" s="20"/>
@@ -8241,7 +8244,7 @@
         <v>16</v>
       </c>
       <c r="H218" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J218"/>
       <c r="K218" s="20"/>
@@ -8255,7 +8258,7 @@
     </row>
     <row r="219" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B219" s="13">
         <v>2884.9</v>
@@ -8270,10 +8273,10 @@
         <v>12</v>
       </c>
       <c r="G219" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H219" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J219"/>
       <c r="K219" s="20"/>
@@ -8287,7 +8290,7 @@
     </row>
     <row r="220" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B220" s="13">
         <v>48.8</v>
@@ -8303,10 +8306,10 @@
         <v>12</v>
       </c>
       <c r="G220" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H220" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J220"/>
       <c r="K220" s="20"/>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="221" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B221" s="13">
         <v>73</v>
@@ -8336,10 +8339,10 @@
         <v>12</v>
       </c>
       <c r="G221" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H221" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J221"/>
       <c r="K221" s="20"/>
@@ -8400,7 +8403,7 @@
         <v>1</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K224" s="13"/>
       <c r="L224" s="13"/>
@@ -8428,7 +8431,7 @@
         <v>11</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>62</v>
+        <v>521</v>
       </c>
       <c r="K226" s="13"/>
       <c r="L226" s="13"/>
@@ -8442,7 +8445,7 @@
         <v>4</v>
       </c>
       <c r="B227" s="17" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K227" s="13"/>
       <c r="L227" s="13"/>
@@ -8568,7 +8571,7 @@
     </row>
     <row r="233" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="17" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B233" s="12">
         <v>-60583</v>
@@ -8583,7 +8586,7 @@
         <v>12</v>
       </c>
       <c r="G233" s="12" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J233"/>
       <c r="K233" s="20"/>
@@ -8597,13 +8600,13 @@
     </row>
     <row r="234" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B234" s="12">
         <v>-579</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D234" s="12" t="s">
         <v>13</v>
@@ -8612,7 +8615,7 @@
         <v>12</v>
       </c>
       <c r="G234" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J234"/>
       <c r="K234" s="20"/>
@@ -8638,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K236" s="25"/>
       <c r="L236" s="26"/>
@@ -8666,7 +8669,7 @@
         <v>11</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>181</v>
+        <v>522</v>
       </c>
       <c r="K238" s="13"/>
       <c r="L238" s="26"/>
@@ -8680,7 +8683,7 @@
         <v>4</v>
       </c>
       <c r="B239" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K239" s="13"/>
       <c r="L239" s="13"/>
@@ -8827,7 +8830,7 @@
         <v>20</v>
       </c>
       <c r="H245" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J245"/>
       <c r="K245" s="20"/>
@@ -8859,7 +8862,7 @@
         <v>77</v>
       </c>
       <c r="H246" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J246"/>
       <c r="K246" s="20"/>
@@ -8873,7 +8876,7 @@
     </row>
     <row r="247" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B247" s="17">
         <v>600</v>
@@ -8891,7 +8894,7 @@
         <v>44</v>
       </c>
       <c r="H247" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J247"/>
       <c r="K247" s="20"/>
@@ -8923,7 +8926,7 @@
         <v>45</v>
       </c>
       <c r="H248" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J248"/>
       <c r="K248" s="20"/>
@@ -8937,7 +8940,7 @@
     </row>
     <row r="249" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B249" s="17">
         <v>600</v>
@@ -8955,7 +8958,7 @@
         <v>46</v>
       </c>
       <c r="H249" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J249"/>
       <c r="K249" s="20"/>
@@ -8969,7 +8972,7 @@
     </row>
     <row r="250" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B250" s="17">
         <v>100</v>
@@ -8987,7 +8990,7 @@
         <v>47</v>
       </c>
       <c r="H250" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J250"/>
       <c r="K250" s="20"/>
@@ -9001,7 +9004,7 @@
     </row>
     <row r="251" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B251" s="17">
         <v>200</v>
@@ -9019,7 +9022,7 @@
         <v>48</v>
       </c>
       <c r="H251" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J251"/>
       <c r="K251" s="20"/>
@@ -9051,7 +9054,7 @@
         <v>31</v>
       </c>
       <c r="H252" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J252"/>
       <c r="K252" s="20"/>
@@ -9065,7 +9068,7 @@
     </row>
     <row r="253" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B253" s="17">
         <v>464.6</v>
@@ -9080,10 +9083,10 @@
         <v>12</v>
       </c>
       <c r="G253" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H253" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J253"/>
       <c r="K253" s="20"/>
@@ -9097,7 +9100,7 @@
     </row>
     <row r="254" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B254" s="17">
         <v>696.8</v>
@@ -9115,7 +9118,7 @@
         <v>44</v>
       </c>
       <c r="H254" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J254"/>
       <c r="K254" s="20"/>
@@ -9129,7 +9132,7 @@
     </row>
     <row r="255" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B255" s="17">
         <v>696.8</v>
@@ -9147,7 +9150,7 @@
         <v>46</v>
       </c>
       <c r="H255" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J255"/>
       <c r="K255" s="20"/>
@@ -9179,7 +9182,7 @@
         <v>82</v>
       </c>
       <c r="H256" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J256"/>
       <c r="K256" s="20"/>
@@ -9211,7 +9214,7 @@
         <v>16</v>
       </c>
       <c r="H257" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J257"/>
       <c r="K257" s="20"/>
@@ -9225,7 +9228,7 @@
     </row>
     <row r="258" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B258" s="17">
         <v>464.6</v>
@@ -9240,10 +9243,10 @@
         <v>12</v>
       </c>
       <c r="G258" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H258" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="H258" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="J258"/>
       <c r="K258" s="20"/>
@@ -9257,7 +9260,7 @@
     </row>
     <row r="259" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B259" s="17">
         <v>464.6</v>
@@ -9272,10 +9275,10 @@
         <v>12</v>
       </c>
       <c r="G259" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H259" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J259"/>
       <c r="K259" s="20"/>
@@ -9289,7 +9292,7 @@
     </row>
     <row r="260" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B260" s="17">
         <v>232.3</v>
@@ -9307,7 +9310,7 @@
         <v>44</v>
       </c>
       <c r="H260" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J260"/>
       <c r="K260" s="20"/>
@@ -9321,7 +9324,7 @@
     </row>
     <row r="261" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B261" s="17">
         <v>232.3</v>
@@ -9339,7 +9342,7 @@
         <v>46</v>
       </c>
       <c r="H261" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J261"/>
       <c r="K261" s="20"/>
@@ -9371,7 +9374,7 @@
         <v>20</v>
       </c>
       <c r="H262" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J262"/>
       <c r="K262" s="20"/>
@@ -9403,7 +9406,7 @@
         <v>77</v>
       </c>
       <c r="H263" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J263"/>
       <c r="K263" s="20"/>
@@ -9417,7 +9420,7 @@
     </row>
     <row r="264" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B264" s="17">
         <v>180</v>
@@ -9435,7 +9438,7 @@
         <v>44</v>
       </c>
       <c r="H264" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J264"/>
       <c r="K264" s="20"/>
@@ -9449,7 +9452,7 @@
     </row>
     <row r="265" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B265" s="17">
         <v>15</v>
@@ -9467,7 +9470,7 @@
         <v>47</v>
       </c>
       <c r="H265" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J265"/>
       <c r="K265" s="20"/>
@@ -9481,7 +9484,7 @@
     </row>
     <row r="266" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B266" s="17">
         <v>45</v>
@@ -9499,7 +9502,7 @@
         <v>48</v>
       </c>
       <c r="H266" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J266"/>
       <c r="K266" s="20"/>
@@ -9513,7 +9516,7 @@
     </row>
     <row r="267" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B267" s="17">
         <v>600</v>
@@ -9528,10 +9531,10 @@
         <v>12</v>
       </c>
       <c r="G267" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H267" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="H267" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="J267"/>
       <c r="K267" s="20"/>
@@ -9545,7 +9548,7 @@
     </row>
     <row r="268" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B268" s="17">
         <v>7</v>
@@ -9560,10 +9563,10 @@
         <v>12</v>
       </c>
       <c r="G268" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H268" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J268"/>
       <c r="K268" s="20"/>
@@ -9577,7 +9580,7 @@
     </row>
     <row r="269" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B269" s="17">
         <v>1300</v>
@@ -9595,7 +9598,7 @@
         <v>44</v>
       </c>
       <c r="H269" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J269"/>
       <c r="K269" s="20"/>
@@ -9627,7 +9630,7 @@
         <v>82</v>
       </c>
       <c r="H270" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J270"/>
       <c r="K270" s="20"/>
@@ -9641,7 +9644,7 @@
     </row>
     <row r="271" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B271" s="17">
         <v>400</v>
@@ -9659,7 +9662,7 @@
         <v>46</v>
       </c>
       <c r="H271" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J271"/>
       <c r="K271" s="20"/>
@@ -9691,7 +9694,7 @@
         <v>16</v>
       </c>
       <c r="H272" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J272"/>
       <c r="K272" s="20"/>
@@ -9705,7 +9708,7 @@
     </row>
     <row r="273" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B273" s="17">
         <v>1000</v>
@@ -9723,7 +9726,7 @@
         <v>44</v>
       </c>
       <c r="H273" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J273"/>
       <c r="K273" s="20"/>
@@ -9755,7 +9758,7 @@
         <v>82</v>
       </c>
       <c r="H274" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J274"/>
       <c r="K274" s="20"/>
@@ -9769,7 +9772,7 @@
     </row>
     <row r="275" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B275" s="17">
         <v>1000</v>
@@ -9787,7 +9790,7 @@
         <v>46</v>
       </c>
       <c r="H275" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J275"/>
       <c r="K275" s="20"/>
@@ -9819,7 +9822,7 @@
         <v>16</v>
       </c>
       <c r="H276" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J276"/>
       <c r="K276" s="20"/>
@@ -9851,7 +9854,7 @@
         <v>82</v>
       </c>
       <c r="H277" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J277"/>
       <c r="K277" s="20"/>
@@ -9883,7 +9886,7 @@
         <v>16</v>
       </c>
       <c r="H278" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J278"/>
       <c r="K278" s="20"/>
@@ -9915,7 +9918,7 @@
         <v>77</v>
       </c>
       <c r="H279" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J279"/>
       <c r="K279" s="20"/>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="280" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B280" s="17">
         <v>371.7</v>
@@ -9947,7 +9950,7 @@
         <v>48</v>
       </c>
       <c r="H280" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J280"/>
       <c r="K280" s="20"/>
@@ -9979,7 +9982,7 @@
         <v>82</v>
       </c>
       <c r="H281" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J281"/>
       <c r="K281" s="20"/>
@@ -10011,7 +10014,7 @@
         <v>16</v>
       </c>
       <c r="H282" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J282"/>
       <c r="K282" s="20"/>
@@ -10025,7 +10028,7 @@
     </row>
     <row r="283" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B283" s="17">
         <v>92.9</v>
@@ -10043,7 +10046,7 @@
         <v>47</v>
       </c>
       <c r="H283" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J283"/>
       <c r="K283" s="20"/>
@@ -10057,7 +10060,7 @@
     </row>
     <row r="284" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B284" s="17">
         <v>836.2</v>
@@ -10075,7 +10078,7 @@
         <v>44</v>
       </c>
       <c r="H284" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J284"/>
       <c r="K284" s="20"/>
@@ -10089,7 +10092,7 @@
     </row>
     <row r="285" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B285" s="17">
         <v>836.2</v>
@@ -10107,7 +10110,7 @@
         <v>46</v>
       </c>
       <c r="H285" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J285"/>
       <c r="K285" s="20"/>
@@ -10121,7 +10124,7 @@
     </row>
     <row r="286" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B286" s="17">
         <v>116.1</v>
@@ -10136,10 +10139,10 @@
         <v>12</v>
       </c>
       <c r="G286" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H286" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J286"/>
       <c r="K286" s="20"/>
@@ -10153,7 +10156,7 @@
     </row>
     <row r="287" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B287" s="17">
         <v>209.1</v>
@@ -10171,7 +10174,7 @@
         <v>44</v>
       </c>
       <c r="H287" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J287"/>
       <c r="K287" s="20"/>
@@ -10185,7 +10188,7 @@
     </row>
     <row r="288" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B288" s="17">
         <v>209.1</v>
@@ -10203,7 +10206,7 @@
         <v>46</v>
       </c>
       <c r="H288" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J288"/>
       <c r="K288" s="20"/>
@@ -10235,7 +10238,7 @@
         <v>82</v>
       </c>
       <c r="H289" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J289"/>
       <c r="K289" s="20"/>
@@ -10267,7 +10270,7 @@
         <v>16</v>
       </c>
       <c r="H290" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J290"/>
       <c r="K290" s="20"/>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="291" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B291" s="17">
         <v>80</v>
@@ -10299,7 +10302,7 @@
         <v>44</v>
       </c>
       <c r="H291" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J291"/>
       <c r="K291" s="20"/>
@@ -10313,7 +10316,7 @@
     </row>
     <row r="292" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B292" s="17">
         <v>80</v>
@@ -10331,7 +10334,7 @@
         <v>46</v>
       </c>
       <c r="H292" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J292"/>
       <c r="K292" s="20"/>
@@ -10363,7 +10366,7 @@
         <v>82</v>
       </c>
       <c r="H293" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J293"/>
       <c r="K293" s="20"/>
@@ -10395,7 +10398,7 @@
         <v>16</v>
       </c>
       <c r="H294" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J294"/>
       <c r="K294" s="20"/>
@@ -10427,7 +10430,7 @@
         <v>30</v>
       </c>
       <c r="H295" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J295"/>
       <c r="K295" s="20"/>
@@ -10441,7 +10444,7 @@
     </row>
     <row r="296" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B296" s="17">
         <v>3</v>
@@ -10456,10 +10459,10 @@
         <v>12</v>
       </c>
       <c r="G296" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H296" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J296"/>
       <c r="K296" s="20"/>
@@ -10491,7 +10494,7 @@
         <v>82</v>
       </c>
       <c r="H297" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J297"/>
       <c r="K297" s="20"/>
@@ -10523,7 +10526,7 @@
         <v>16</v>
       </c>
       <c r="H298" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J298"/>
       <c r="K298" s="20"/>
@@ -10537,7 +10540,7 @@
     </row>
     <row r="299" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B299" s="17">
         <v>29</v>
@@ -10546,16 +10549,16 @@
         <v>18</v>
       </c>
       <c r="D299" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F299" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G299" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F299" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G299" s="12" t="s">
-        <v>126</v>
-      </c>
       <c r="H299" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J299"/>
       <c r="K299" s="20"/>
@@ -10569,7 +10572,7 @@
     </row>
     <row r="300" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B300" s="17">
         <v>6075.6</v>
@@ -10587,7 +10590,7 @@
         <v>46</v>
       </c>
       <c r="H300" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J300"/>
       <c r="K300" s="20"/>
@@ -10619,7 +10622,7 @@
         <v>28</v>
       </c>
       <c r="H301" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J301"/>
       <c r="K301" s="20"/>
@@ -10633,7 +10636,7 @@
     </row>
     <row r="302" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B302" s="30">
         <v>7.7</v>
@@ -10648,10 +10651,10 @@
         <v>12</v>
       </c>
       <c r="G302" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H302" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="H302" s="11" t="s">
-        <v>130</v>
       </c>
       <c r="J302"/>
       <c r="K302" s="20"/>
@@ -10714,7 +10717,7 @@
         <v>1</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K305" s="13"/>
       <c r="L305" s="13"/>
@@ -10742,7 +10745,7 @@
         <v>11</v>
       </c>
       <c r="B307" s="15" t="s">
-        <v>62</v>
+        <v>522</v>
       </c>
       <c r="K307" s="13"/>
       <c r="L307" s="13"/>
@@ -10756,7 +10759,7 @@
         <v>4</v>
       </c>
       <c r="B308" s="17" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K308" s="13"/>
       <c r="L308" s="13"/>
@@ -10882,7 +10885,7 @@
     </row>
     <row r="314" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="17" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B314" s="12">
         <v>-12819.5</v>
@@ -10897,7 +10900,7 @@
         <v>12</v>
       </c>
       <c r="G314" s="12" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J314"/>
       <c r="K314" s="20"/>
@@ -10911,13 +10914,13 @@
     </row>
     <row r="315" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="17" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B315" s="12">
         <v>-5134.3999999999996</v>
       </c>
       <c r="C315" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D315" s="12" t="s">
         <v>13</v>
@@ -10926,7 +10929,7 @@
         <v>12</v>
       </c>
       <c r="G315" s="17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J315"/>
       <c r="K315" s="20"/>
@@ -10940,7 +10943,7 @@
     </row>
     <row r="316" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B316" s="12">
         <v>-160</v>
@@ -10955,7 +10958,7 @@
         <v>12</v>
       </c>
       <c r="G316" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J316"/>
       <c r="K316" s="20"/>
@@ -10969,13 +10972,13 @@
     </row>
     <row r="317" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B317" s="12">
         <v>-32</v>
       </c>
       <c r="C317" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D317" s="12" t="s">
         <v>13</v>
@@ -10984,7 +10987,7 @@
         <v>12</v>
       </c>
       <c r="G317" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J317"/>
       <c r="K317" s="20"/>
@@ -10998,13 +11001,13 @@
     </row>
     <row r="318" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B318" s="12">
         <v>-14</v>
       </c>
       <c r="C318" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D318" s="12" t="s">
         <v>13</v>
@@ -11013,7 +11016,7 @@
         <v>12</v>
       </c>
       <c r="G318" s="12" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="J318"/>
       <c r="K318" s="20"/>
@@ -11027,7 +11030,7 @@
     </row>
     <row r="319" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B319" s="12">
         <v>-800</v>
@@ -11042,7 +11045,7 @@
         <v>12</v>
       </c>
       <c r="G319" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J319"/>
       <c r="K319" s="20"/>
@@ -11056,7 +11059,7 @@
     </row>
     <row r="320" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B320" s="12">
         <v>-468</v>
@@ -11071,7 +11074,7 @@
         <v>12</v>
       </c>
       <c r="G320" s="12" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="J320"/>
       <c r="K320" s="20"/>
@@ -11085,7 +11088,7 @@
     </row>
     <row r="321" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="12" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B321" s="12">
         <v>-716</v>
@@ -11100,7 +11103,7 @@
         <v>12</v>
       </c>
       <c r="G321" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J321"/>
       <c r="K321" s="20"/>
@@ -11114,7 +11117,7 @@
     </row>
     <row r="322" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B322" s="12">
         <v>-617</v>
@@ -11129,7 +11132,7 @@
         <v>12</v>
       </c>
       <c r="G322" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J322"/>
       <c r="K322" s="20"/>
@@ -11143,13 +11146,13 @@
     </row>
     <row r="323" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B323" s="12">
         <v>-208</v>
       </c>
       <c r="C323" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D323" s="12" t="s">
         <v>13</v>
@@ -11158,7 +11161,7 @@
         <v>12</v>
       </c>
       <c r="G323" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J323"/>
       <c r="K323" s="20"/>
@@ -11172,7 +11175,7 @@
     </row>
     <row r="324" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="12" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B324" s="12">
         <v>-18519</v>
@@ -11187,7 +11190,7 @@
         <v>12</v>
       </c>
       <c r="G324" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J324"/>
       <c r="K324" s="20"/>
@@ -11213,7 +11216,7 @@
         <v>1</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C326" s="11"/>
       <c r="K326" s="13"/>
@@ -11242,7 +11245,7 @@
         <v>11</v>
       </c>
       <c r="B328" s="15" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="K328" s="13"/>
       <c r="L328" s="13"/>
@@ -11256,7 +11259,7 @@
         <v>4</v>
       </c>
       <c r="B329" s="16" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K329" s="13"/>
       <c r="L329" s="13"/>
@@ -11356,7 +11359,7 @@
     </row>
     <row r="334" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="17" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B334" s="17">
         <v>1</v>
@@ -11374,7 +11377,7 @@
         <v>17</v>
       </c>
       <c r="G334" s="12" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H334" s="11"/>
       <c r="I334" s="11"/>
@@ -11405,10 +11408,10 @@
         <v>12</v>
       </c>
       <c r="G335" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H335" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="J335"/>
       <c r="K335" s="20"/>
@@ -11439,7 +11442,7 @@
         <v>12</v>
       </c>
       <c r="G336" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H336" s="12" t="s">
         <v>55</v>
@@ -11456,7 +11459,7 @@
     </row>
     <row r="337" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="17" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B337" s="12">
         <f>-1*B335</f>
@@ -11472,10 +11475,10 @@
         <v>12</v>
       </c>
       <c r="G337" s="12" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H337" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J337"/>
       <c r="K337" s="20"/>
@@ -11489,7 +11492,7 @@
     </row>
     <row r="338" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="17" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B338" s="12">
         <f>-1*B336</f>
@@ -11505,10 +11508,10 @@
         <v>12</v>
       </c>
       <c r="G338" s="12" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H338" s="12" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J338"/>
       <c r="K338" s="20"/>
@@ -11541,7 +11544,7 @@
         <v>38</v>
       </c>
       <c r="H339" s="11" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="J339"/>
       <c r="K339" s="20"/>
@@ -11574,7 +11577,7 @@
         <v>59</v>
       </c>
       <c r="H340" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J340"/>
       <c r="K340" s="20"/>
@@ -11649,7 +11652,7 @@
     </row>
     <row r="343" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="48" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B343" s="49">
         <f>(0.02*1000)/(3776000/20)</f>
@@ -11657,16 +11660,16 @@
       </c>
       <c r="C343" s="48"/>
       <c r="D343" s="48" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E343" s="48" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F343" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H343" s="48" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="I343" s="12">
         <v>2</v>
@@ -11713,7 +11716,7 @@
     </row>
     <row r="344" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="48" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B344" s="49">
         <f>(0.02*1000)/3776000</f>
@@ -11721,16 +11724,16 @@
       </c>
       <c r="C344" s="48"/>
       <c r="D344" s="48" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E344" s="48" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F344" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H344" s="48" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="I344" s="12">
         <v>2</v>
@@ -11767,7 +11770,7 @@
     </row>
     <row r="345" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="48" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B345" s="49">
         <f>(0.02*1000)/3776000</f>
@@ -11775,16 +11778,16 @@
       </c>
       <c r="C345" s="48"/>
       <c r="D345" s="48" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E345" s="48" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F345" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H345" s="48" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="I345" s="12">
         <v>2</v>
@@ -11833,7 +11836,7 @@
         <v>1</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C347" s="11"/>
       <c r="K347" s="13"/>
@@ -11862,7 +11865,7 @@
         <v>11</v>
       </c>
       <c r="B349" s="15" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="K349" s="13"/>
       <c r="L349" s="13"/>
@@ -11876,7 +11879,7 @@
         <v>4</v>
       </c>
       <c r="B350" s="16" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K350" s="13"/>
       <c r="L350" s="13"/>
@@ -11976,7 +11979,7 @@
     </row>
     <row r="355" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="17" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B355" s="17">
         <v>1</v>
@@ -11994,7 +11997,7 @@
         <v>17</v>
       </c>
       <c r="G355" s="12" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H355" s="11"/>
       <c r="I355" s="11"/>
@@ -12008,7 +12011,7 @@
     </row>
     <row r="356" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="17" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B356" s="12">
         <f>(1/3776000)*8</f>
@@ -12024,10 +12027,10 @@
         <v>12</v>
       </c>
       <c r="G356" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H356" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="J356"/>
       <c r="K356" s="20"/>
@@ -12041,7 +12044,7 @@
     </row>
     <row r="357" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="17" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B357" s="12">
         <f>1/3776000</f>
@@ -12057,7 +12060,7 @@
         <v>12</v>
       </c>
       <c r="G357" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H357" s="12" t="s">
         <v>55</v>
@@ -12074,7 +12077,7 @@
     </row>
     <row r="358" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="17" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B358" s="12">
         <f>-1*B356</f>
@@ -12090,10 +12093,10 @@
         <v>12</v>
       </c>
       <c r="G358" s="12" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H358" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J358"/>
       <c r="K358" s="20"/>
@@ -12107,7 +12110,7 @@
     </row>
     <row r="359" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="17" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B359" s="12">
         <f>-1*B357</f>
@@ -12123,10 +12126,10 @@
         <v>12</v>
       </c>
       <c r="G359" s="12" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H359" s="12" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J359"/>
       <c r="K359" s="20"/>
@@ -12159,7 +12162,7 @@
         <v>38</v>
       </c>
       <c r="H360" s="11" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="J360"/>
       <c r="K360" s="20"/>
@@ -12192,7 +12195,7 @@
         <v>59</v>
       </c>
       <c r="H361" s="11" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J361"/>
       <c r="K361" s="20"/>
@@ -12267,7 +12270,7 @@
     </row>
     <row r="364" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="48" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B364" s="49">
         <f>(0.05*1000)/(3776000/20)</f>
@@ -12275,16 +12278,16 @@
       </c>
       <c r="C364" s="48"/>
       <c r="D364" s="48" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E364" s="48" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F364" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H364" s="48" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="I364" s="12">
         <v>2</v>
@@ -12331,7 +12334,7 @@
     </row>
     <row r="365" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="48" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B365" s="49">
         <f>(0.05*1000)/3776000</f>
@@ -12339,16 +12342,16 @@
       </c>
       <c r="C365" s="48"/>
       <c r="D365" s="48" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E365" s="48" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F365" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H365" s="48" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="I365" s="12">
         <v>2</v>
@@ -12385,7 +12388,7 @@
     </row>
     <row r="366" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="48" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B366" s="49">
         <f>(0.05*1000)/3776000</f>
@@ -12393,16 +12396,16 @@
       </c>
       <c r="C366" s="48"/>
       <c r="D366" s="48" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E366" s="48" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F366" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H366" s="48" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="I366" s="12">
         <v>2</v>
@@ -12451,7 +12454,7 @@
         <v>1</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K368" s="13"/>
       <c r="L368" s="13"/>
@@ -12479,7 +12482,7 @@
         <v>11</v>
       </c>
       <c r="B370" s="15" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="K370" s="13"/>
       <c r="L370" s="13"/>
@@ -12493,7 +12496,7 @@
         <v>4</v>
       </c>
       <c r="B371" s="17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K371" s="13"/>
       <c r="L371" s="13"/>
@@ -12637,7 +12640,7 @@
         <v>82</v>
       </c>
       <c r="H377" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J377"/>
       <c r="K377" s="20"/>
@@ -12669,7 +12672,7 @@
         <v>16</v>
       </c>
       <c r="H378" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J378"/>
       <c r="K378" s="20"/>
@@ -12683,7 +12686,7 @@
     </row>
     <row r="379" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B379" s="13">
         <v>9</v>
@@ -12698,10 +12701,10 @@
         <v>12</v>
       </c>
       <c r="G379" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H379" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J379"/>
       <c r="K379" s="20"/>
@@ -12715,7 +12718,7 @@
     </row>
     <row r="380" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B380" s="13">
         <v>7.5</v>
@@ -12730,10 +12733,10 @@
         <v>12</v>
       </c>
       <c r="G380" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H380" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J380"/>
       <c r="K380" s="20"/>
@@ -12747,7 +12750,7 @@
     </row>
     <row r="381" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B381" s="13">
         <v>170.7</v>
@@ -12762,10 +12765,10 @@
         <v>12</v>
       </c>
       <c r="G381" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H381" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J381"/>
       <c r="K381" s="20"/>
@@ -12779,7 +12782,7 @@
     </row>
     <row r="382" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B382" s="13">
         <v>14.8</v>
@@ -12794,10 +12797,10 @@
         <v>12</v>
       </c>
       <c r="G382" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H382" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J382"/>
       <c r="K382" s="20"/>
@@ -12811,7 +12814,7 @@
     </row>
     <row r="383" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B383" s="13">
         <v>91.5</v>
@@ -12826,10 +12829,10 @@
         <v>12</v>
       </c>
       <c r="G383" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H383" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J383"/>
       <c r="K383" s="20"/>
@@ -12843,7 +12846,7 @@
     </row>
     <row r="384" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B384" s="13">
         <v>22.9</v>
@@ -12858,10 +12861,10 @@
         <v>12</v>
       </c>
       <c r="G384" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H384" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J384"/>
       <c r="K384" s="20"/>
@@ -12875,7 +12878,7 @@
     </row>
     <row r="385" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B385" s="13">
         <f>42/2</f>
@@ -12891,10 +12894,10 @@
         <v>12</v>
       </c>
       <c r="G385" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H385" s="12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J385"/>
       <c r="K385" s="20"/>
@@ -12908,7 +12911,7 @@
     </row>
     <row r="386" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B386" s="13">
         <f>42/2</f>
@@ -12924,10 +12927,10 @@
         <v>12</v>
       </c>
       <c r="G386" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H386" s="12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J386"/>
       <c r="K386" s="20"/>
@@ -12941,13 +12944,13 @@
     </row>
     <row r="387" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B387" s="13">
         <v>6.4</v>
       </c>
       <c r="C387" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D387" s="12" t="s">
         <v>13</v>
@@ -12956,10 +12959,10 @@
         <v>12</v>
       </c>
       <c r="G387" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H387" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J387"/>
       <c r="K387" s="20"/>
@@ -12973,7 +12976,7 @@
     </row>
     <row r="388" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B388" s="13">
         <v>6.4</v>
@@ -12988,10 +12991,10 @@
         <v>12</v>
       </c>
       <c r="G388" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H388" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J388"/>
       <c r="K388" s="20"/>
@@ -13005,7 +13008,7 @@
     </row>
     <row r="389" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B389" s="13">
         <v>6.4</v>
@@ -13020,10 +13023,10 @@
         <v>12</v>
       </c>
       <c r="G389" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H389" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J389"/>
       <c r="K389" s="20"/>
@@ -13037,7 +13040,7 @@
     </row>
     <row r="390" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B390" s="13">
         <v>6.4</v>
@@ -13052,10 +13055,10 @@
         <v>12</v>
       </c>
       <c r="G390" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H390" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J390"/>
       <c r="K390" s="20"/>
@@ -13069,7 +13072,7 @@
     </row>
     <row r="391" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B391" s="13">
         <v>136.6</v>
@@ -13084,10 +13087,10 @@
         <v>12</v>
       </c>
       <c r="G391" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H391" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J391"/>
       <c r="K391" s="20"/>
@@ -13147,7 +13150,7 @@
         <v>1</v>
       </c>
       <c r="B394" s="10" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K394" s="13"/>
       <c r="L394" s="13"/>
@@ -13175,7 +13178,7 @@
         <v>11</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>62</v>
+        <v>523</v>
       </c>
       <c r="K396" s="13"/>
       <c r="L396" s="13"/>
@@ -13189,7 +13192,7 @@
         <v>4</v>
       </c>
       <c r="B397" s="17" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K397" s="13"/>
       <c r="L397" s="13"/>
@@ -13315,7 +13318,7 @@
     </row>
     <row r="403" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" s="17" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B403" s="12">
         <v>-26928</v>
@@ -13330,7 +13333,7 @@
         <v>12</v>
       </c>
       <c r="G403" s="12" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J403"/>
       <c r="K403" s="20"/>
@@ -13356,7 +13359,7 @@
         <v>1</v>
       </c>
       <c r="B405" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K405" s="25"/>
       <c r="L405" s="26"/>
@@ -13384,7 +13387,7 @@
         <v>11</v>
       </c>
       <c r="B407" s="15" t="s">
-        <v>222</v>
+        <v>524</v>
       </c>
       <c r="K407" s="13"/>
       <c r="L407" s="26"/>
@@ -13398,7 +13401,7 @@
         <v>4</v>
       </c>
       <c r="B408" s="17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K408" s="13"/>
       <c r="L408" s="13"/>
@@ -13545,7 +13548,7 @@
         <v>82</v>
       </c>
       <c r="H414" s="11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J414"/>
       <c r="K414" s="20"/>
@@ -13577,7 +13580,7 @@
         <v>16</v>
       </c>
       <c r="H415" s="11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J415"/>
       <c r="K415" s="20"/>
@@ -13609,7 +13612,7 @@
         <v>20</v>
       </c>
       <c r="H416" s="11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J416"/>
       <c r="K416" s="20"/>
@@ -13641,7 +13644,7 @@
         <v>77</v>
       </c>
       <c r="H417" s="11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J417"/>
       <c r="K417" s="20"/>
@@ -13655,7 +13658,7 @@
     </row>
     <row r="418" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B418" s="17">
         <f>180*5</f>
@@ -13674,7 +13677,7 @@
         <v>44</v>
       </c>
       <c r="H418" s="11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J418"/>
       <c r="K418" s="20"/>
@@ -13688,7 +13691,7 @@
     </row>
     <row r="419" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B419" s="17">
         <f>15*5</f>
@@ -13707,7 +13710,7 @@
         <v>47</v>
       </c>
       <c r="H419" s="11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J419"/>
       <c r="K419" s="20"/>
@@ -13721,7 +13724,7 @@
     </row>
     <row r="420" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A420" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B420" s="17">
         <f>45*5</f>
@@ -13740,7 +13743,7 @@
         <v>48</v>
       </c>
       <c r="H420" s="11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J420"/>
       <c r="K420" s="20"/>
@@ -13754,7 +13757,7 @@
     </row>
     <row r="421" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B421" s="17">
         <f>600*5</f>
@@ -13770,10 +13773,10 @@
         <v>12</v>
       </c>
       <c r="G421" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H421" s="11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J421"/>
       <c r="K421" s="20"/>
@@ -13787,7 +13790,7 @@
     </row>
     <row r="422" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B422" s="17">
         <f>7*5</f>
@@ -13803,10 +13806,10 @@
         <v>12</v>
       </c>
       <c r="G422" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H422" s="11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J422"/>
       <c r="K422" s="20"/>
@@ -13820,7 +13823,7 @@
     </row>
     <row r="423" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A423" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B423" s="17">
         <f>1300*5</f>
@@ -13839,7 +13842,7 @@
         <v>44</v>
       </c>
       <c r="H423" s="11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J423"/>
       <c r="K423" s="20"/>
@@ -13872,7 +13875,7 @@
         <v>82</v>
       </c>
       <c r="H424" s="11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J424"/>
       <c r="K424" s="20"/>
@@ -13886,7 +13889,7 @@
     </row>
     <row r="425" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B425" s="17">
         <f>400*5</f>
@@ -13905,7 +13908,7 @@
         <v>46</v>
       </c>
       <c r="H425" s="11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J425"/>
       <c r="K425" s="20"/>
@@ -13938,7 +13941,7 @@
         <v>16</v>
       </c>
       <c r="H426" s="11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J426"/>
       <c r="K426" s="20"/>
@@ -13952,7 +13955,7 @@
     </row>
     <row r="427" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B427" s="17">
         <f>1000*5</f>
@@ -13971,7 +13974,7 @@
         <v>44</v>
       </c>
       <c r="H427" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J427"/>
       <c r="K427" s="20"/>
@@ -14004,7 +14007,7 @@
         <v>82</v>
       </c>
       <c r="H428" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J428"/>
       <c r="K428" s="20"/>
@@ -14018,7 +14021,7 @@
     </row>
     <row r="429" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A429" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B429" s="17">
         <f>1000*5</f>
@@ -14037,7 +14040,7 @@
         <v>46</v>
       </c>
       <c r="H429" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J429"/>
       <c r="K429" s="20"/>
@@ -14070,7 +14073,7 @@
         <v>16</v>
       </c>
       <c r="H430" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J430"/>
       <c r="K430" s="20"/>
@@ -14102,7 +14105,7 @@
         <v>20</v>
       </c>
       <c r="H431" s="11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J431"/>
       <c r="K431" s="20"/>
@@ -14134,7 +14137,7 @@
         <v>77</v>
       </c>
       <c r="H432" s="11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J432"/>
       <c r="K432" s="20"/>
@@ -14148,7 +14151,7 @@
     </row>
     <row r="433" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B433" s="17">
         <v>600</v>
@@ -14166,7 +14169,7 @@
         <v>44</v>
       </c>
       <c r="H433" s="11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J433"/>
       <c r="K433" s="20"/>
@@ -14198,7 +14201,7 @@
         <v>45</v>
       </c>
       <c r="H434" s="11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J434"/>
       <c r="K434" s="20"/>
@@ -14212,7 +14215,7 @@
     </row>
     <row r="435" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A435" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B435" s="17">
         <v>600</v>
@@ -14230,7 +14233,7 @@
         <v>46</v>
       </c>
       <c r="H435" s="11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J435"/>
       <c r="K435" s="20"/>
@@ -14244,7 +14247,7 @@
     </row>
     <row r="436" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B436" s="17">
         <v>100</v>
@@ -14262,7 +14265,7 @@
         <v>47</v>
       </c>
       <c r="H436" s="11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J436"/>
       <c r="K436" s="20"/>
@@ -14276,7 +14279,7 @@
     </row>
     <row r="437" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B437" s="17">
         <v>200</v>
@@ -14294,7 +14297,7 @@
         <v>48</v>
       </c>
       <c r="H437" s="11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J437"/>
       <c r="K437" s="20"/>
@@ -14326,7 +14329,7 @@
         <v>31</v>
       </c>
       <c r="H438" s="11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J438"/>
       <c r="K438" s="20"/>
@@ -14359,7 +14362,7 @@
         <v>82</v>
       </c>
       <c r="H439" s="11" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J439"/>
       <c r="K439" s="20"/>
@@ -14392,7 +14395,7 @@
         <v>16</v>
       </c>
       <c r="H440" s="11" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J440"/>
       <c r="K440" s="20"/>
@@ -14424,7 +14427,7 @@
         <v>82</v>
       </c>
       <c r="H441" s="11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J441"/>
       <c r="K441" s="20"/>
@@ -14456,7 +14459,7 @@
         <v>16</v>
       </c>
       <c r="H442" s="11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J442"/>
       <c r="K442" s="20"/>
@@ -14489,7 +14492,7 @@
         <v>82</v>
       </c>
       <c r="H443" s="11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J443"/>
       <c r="K443" s="20"/>
@@ -14522,7 +14525,7 @@
         <v>16</v>
       </c>
       <c r="H444" s="11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J444"/>
       <c r="K444" s="20"/>
@@ -14555,7 +14558,7 @@
         <v>82</v>
       </c>
       <c r="H445" s="11" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J445"/>
       <c r="K445" s="20"/>
@@ -14588,7 +14591,7 @@
         <v>16</v>
       </c>
       <c r="H446" s="11" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J446"/>
       <c r="K446" s="20"/>
@@ -14602,7 +14605,7 @@
     </row>
     <row r="447" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A447" s="17" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B447" s="17">
         <f>0.4+1</f>
@@ -14618,10 +14621,10 @@
         <v>12</v>
       </c>
       <c r="G447" s="17" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H447" s="11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J447"/>
       <c r="K447" s="20"/>
@@ -14635,7 +14638,7 @@
     </row>
     <row r="448" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B448" s="17">
         <f>0.4+1</f>
@@ -14651,10 +14654,10 @@
         <v>12</v>
       </c>
       <c r="G448" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H448" s="11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J448"/>
       <c r="K448" s="20"/>
@@ -14668,7 +14671,7 @@
     </row>
     <row r="449" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A449" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B449" s="17">
         <f>0.4+1</f>
@@ -14687,7 +14690,7 @@
         <v>47</v>
       </c>
       <c r="H449" s="11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J449"/>
       <c r="K449" s="20"/>
@@ -14720,7 +14723,7 @@
         <v>77</v>
       </c>
       <c r="H450" s="11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J450"/>
       <c r="K450" s="20"/>
@@ -14734,7 +14737,7 @@
     </row>
     <row r="451" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A451" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B451" s="17">
         <f>0.9+1.9</f>
@@ -14753,7 +14756,7 @@
         <v>48</v>
       </c>
       <c r="H451" s="11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J451"/>
       <c r="K451" s="20"/>
@@ -14767,7 +14770,7 @@
     </row>
     <row r="452" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A452" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B452" s="17">
         <f>2.7+5.8</f>
@@ -14786,7 +14789,7 @@
         <v>44</v>
       </c>
       <c r="H452" s="11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J452"/>
       <c r="K452" s="20"/>
@@ -14800,7 +14803,7 @@
     </row>
     <row r="453" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A453" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B453" s="17">
         <f>2.7+5.8</f>
@@ -14819,7 +14822,7 @@
         <v>46</v>
       </c>
       <c r="H453" s="11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J453"/>
       <c r="K453" s="20"/>
@@ -14833,7 +14836,7 @@
     </row>
     <row r="454" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A454" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B454" s="17">
         <f>92.3+359.8</f>
@@ -14852,7 +14855,7 @@
         <v>44</v>
       </c>
       <c r="H454" s="11" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J454"/>
       <c r="K454" s="20"/>
@@ -14866,7 +14869,7 @@
     </row>
     <row r="455" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A455" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B455" s="17">
         <f>92.3+359.8</f>
@@ -14885,7 +14888,7 @@
         <v>46</v>
       </c>
       <c r="H455" s="11" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J455"/>
       <c r="K455" s="20"/>
@@ -14899,7 +14902,7 @@
     </row>
     <row r="456" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A456" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B456" s="17">
         <v>399</v>
@@ -14917,7 +14920,7 @@
         <v>44</v>
       </c>
       <c r="H456" s="11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J456"/>
       <c r="K456" s="20"/>
@@ -14931,7 +14934,7 @@
     </row>
     <row r="457" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B457" s="17">
         <v>399</v>
@@ -14949,7 +14952,7 @@
         <v>46</v>
       </c>
       <c r="H457" s="11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J457"/>
       <c r="K457" s="20"/>
@@ -14963,7 +14966,7 @@
     </row>
     <row r="458" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A458" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B458" s="17">
         <v>7</v>
@@ -14981,7 +14984,7 @@
         <v>44</v>
       </c>
       <c r="H458" s="11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J458"/>
       <c r="K458" s="20"/>
@@ -14995,7 +14998,7 @@
     </row>
     <row r="459" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A459" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B459" s="17">
         <v>7</v>
@@ -15013,7 +15016,7 @@
         <v>46</v>
       </c>
       <c r="H459" s="11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J459"/>
       <c r="K459" s="20"/>
@@ -15045,7 +15048,7 @@
         <v>20</v>
       </c>
       <c r="H460" s="11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J460"/>
       <c r="K460" s="20"/>
@@ -15077,7 +15080,7 @@
         <v>77</v>
       </c>
       <c r="H461" s="11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J461"/>
       <c r="K461" s="20"/>
@@ -15091,7 +15094,7 @@
     </row>
     <row r="462" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A462" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B462" s="17">
         <v>3</v>
@@ -15106,10 +15109,10 @@
         <v>12</v>
       </c>
       <c r="G462" s="17" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H462" s="11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J462"/>
       <c r="K462" s="20"/>
@@ -15123,7 +15126,7 @@
     </row>
     <row r="463" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A463" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B463" s="17">
         <v>0.2</v>
@@ -15141,7 +15144,7 @@
         <v>47</v>
       </c>
       <c r="H463" s="11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J463"/>
       <c r="K463" s="20"/>
@@ -15155,7 +15158,7 @@
     </row>
     <row r="464" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A464" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B464" s="17">
         <v>0.7</v>
@@ -15173,7 +15176,7 @@
         <v>48</v>
       </c>
       <c r="H464" s="11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J464"/>
       <c r="K464" s="20"/>
@@ -15205,7 +15208,7 @@
         <v>28</v>
       </c>
       <c r="H465" s="11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J465"/>
       <c r="K465" s="20"/>
@@ -15219,7 +15222,7 @@
     </row>
     <row r="466" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A466" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B466" s="17">
         <v>1503.6</v>
@@ -15237,7 +15240,7 @@
         <v>46</v>
       </c>
       <c r="H466" s="11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J466"/>
       <c r="K466" s="20"/>
@@ -15251,7 +15254,7 @@
     </row>
     <row r="467" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A467" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B467" s="17">
         <v>534</v>
@@ -15266,10 +15269,10 @@
         <v>12</v>
       </c>
       <c r="G467" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H467" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J467"/>
       <c r="K467" s="20"/>
@@ -15283,7 +15286,7 @@
     </row>
     <row r="468" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A468" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B468" s="17">
         <v>534</v>
@@ -15298,10 +15301,10 @@
         <v>12</v>
       </c>
       <c r="G468" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H468" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J468"/>
       <c r="K468" s="20"/>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="469" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A469" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B469" s="17">
         <v>267</v>
@@ -15333,7 +15336,7 @@
         <v>44</v>
       </c>
       <c r="H469" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J469"/>
       <c r="K469" s="20"/>
@@ -15347,7 +15350,7 @@
     </row>
     <row r="470" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A470" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B470" s="17">
         <v>267</v>
@@ -15365,7 +15368,7 @@
         <v>46</v>
       </c>
       <c r="H470" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J470"/>
       <c r="K470" s="20"/>
@@ -15397,7 +15400,7 @@
         <v>82</v>
       </c>
       <c r="H471" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J471"/>
       <c r="K471" s="20"/>
@@ -15429,7 +15432,7 @@
         <v>16</v>
       </c>
       <c r="H472" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J472"/>
       <c r="K472" s="20"/>
@@ -15443,7 +15446,7 @@
     </row>
     <row r="473" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A473" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B473" s="17">
         <v>33.299999999999997</v>
@@ -15452,16 +15455,16 @@
         <v>18</v>
       </c>
       <c r="D473" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F473" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G473" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="F473" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G473" s="17" t="s">
-        <v>126</v>
-      </c>
       <c r="H473" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J473"/>
       <c r="K473" s="20"/>
@@ -15475,7 +15478,7 @@
     </row>
     <row r="474" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A474" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B474" s="17">
         <v>2250</v>
@@ -15493,7 +15496,7 @@
         <v>46</v>
       </c>
       <c r="H474" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J474"/>
       <c r="K474" s="20"/>
@@ -15507,7 +15510,7 @@
     </row>
     <row r="475" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A475" s="17" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B475" s="17">
         <v>2250</v>
@@ -15522,10 +15525,10 @@
         <v>12</v>
       </c>
       <c r="G475" s="17" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H475" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J475"/>
       <c r="K475" s="20"/>
@@ -15539,7 +15542,7 @@
     </row>
     <row r="476" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A476" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B476" s="17">
         <v>2.2999999999999998</v>
@@ -15554,10 +15557,10 @@
         <v>12</v>
       </c>
       <c r="G476" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H476" s="11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J476"/>
       <c r="K476" s="20"/>
@@ -15617,7 +15620,7 @@
         <v>1</v>
       </c>
       <c r="B479" s="10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K479" s="13"/>
       <c r="L479" s="13"/>
@@ -15645,7 +15648,7 @@
         <v>11</v>
       </c>
       <c r="B481" s="15" t="s">
-        <v>62</v>
+        <v>524</v>
       </c>
       <c r="K481" s="13"/>
       <c r="L481" s="13"/>
@@ -15659,7 +15662,7 @@
         <v>4</v>
       </c>
       <c r="B482" s="17" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K482" s="13"/>
       <c r="L482" s="13"/>
@@ -15785,7 +15788,7 @@
     </row>
     <row r="488" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A488" s="17" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B488" s="12">
         <v>-20421</v>
@@ -15800,7 +15803,7 @@
         <v>12</v>
       </c>
       <c r="G488" s="12" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J488"/>
       <c r="K488" s="20"/>
@@ -15814,13 +15817,13 @@
     </row>
     <row r="489" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A489" s="17" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B489" s="12">
         <v>-13730</v>
       </c>
       <c r="C489" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D489" s="12" t="s">
         <v>13</v>
@@ -15829,7 +15832,7 @@
         <v>12</v>
       </c>
       <c r="G489" s="17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J489"/>
       <c r="K489" s="20"/>
@@ -15843,7 +15846,7 @@
     </row>
     <row r="490" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A490" s="12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B490" s="12">
         <v>-401</v>
@@ -15858,7 +15861,7 @@
         <v>12</v>
       </c>
       <c r="G490" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J490"/>
       <c r="K490" s="20"/>
@@ -15872,13 +15875,13 @@
     </row>
     <row r="491" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A491" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B491" s="12">
         <v>-32</v>
       </c>
       <c r="C491" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D491" s="12" t="s">
         <v>13</v>
@@ -15887,7 +15890,7 @@
         <v>12</v>
       </c>
       <c r="G491" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J491"/>
       <c r="K491" s="20"/>
@@ -15901,13 +15904,13 @@
     </row>
     <row r="492" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A492" s="12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B492" s="12">
         <v>-14</v>
       </c>
       <c r="C492" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D492" s="12" t="s">
         <v>13</v>
@@ -15916,7 +15919,7 @@
         <v>12</v>
       </c>
       <c r="G492" s="12" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="J492"/>
       <c r="K492" s="20"/>
@@ -15930,7 +15933,7 @@
     </row>
     <row r="493" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B493" s="12">
         <v>-8</v>
@@ -15945,7 +15948,7 @@
         <v>12</v>
       </c>
       <c r="G493" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J493"/>
       <c r="K493" s="20"/>
@@ -15959,7 +15962,7 @@
     </row>
     <row r="494" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A494" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B494" s="12">
         <v>-534</v>
@@ -15974,7 +15977,7 @@
         <v>12</v>
       </c>
       <c r="G494" s="12" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="J494"/>
       <c r="K494" s="20"/>
@@ -15988,7 +15991,7 @@
     </row>
     <row r="495" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A495" s="12" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B495" s="12">
         <v>-3000</v>
@@ -16003,7 +16006,7 @@
         <v>12</v>
       </c>
       <c r="G495" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J495"/>
       <c r="K495" s="20"/>
@@ -16017,7 +16020,7 @@
     </row>
     <row r="496" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B496" s="12">
         <v>-429</v>
@@ -16032,7 +16035,7 @@
         <v>12</v>
       </c>
       <c r="G496" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J496"/>
       <c r="K496" s="20"/>
@@ -16046,13 +16049,13 @@
     </row>
     <row r="497" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A497" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B497" s="12">
         <v>-210</v>
       </c>
       <c r="C497" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D497" s="12" t="s">
         <v>13</v>
@@ -16061,7 +16064,7 @@
         <v>12</v>
       </c>
       <c r="G497" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J497"/>
       <c r="K497" s="20"/>
@@ -16075,7 +16078,7 @@
     </row>
     <row r="498" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A498" s="12" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B498" s="12">
         <v>-5600</v>
@@ -16090,7 +16093,7 @@
         <v>12</v>
       </c>
       <c r="G498" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J498"/>
       <c r="K498" s="20"/>
@@ -16122,8 +16125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D607540C-5A98-C943-82C9-9BA357D77C9A}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16137,49 +16140,49 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="37" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>484</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>449</v>
-      </c>
-      <c r="E4" s="54"/>
+        <v>480</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>445</v>
+      </c>
+      <c r="E4" s="58"/>
       <c r="F4" s="40" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B5" s="40">
         <v>7</v>
@@ -16187,31 +16190,31 @@
       <c r="C5" s="39">
         <v>5.5</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="59">
         <v>2.5</v>
       </c>
-      <c r="E5" s="56"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="39" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>453</v>
-      </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
+        <v>449</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="41" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B7" s="40">
         <v>27.5</v>
@@ -16219,17 +16222,17 @@
       <c r="C7" s="39">
         <v>20</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="59">
         <v>20</v>
       </c>
-      <c r="E7" s="56"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="39" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B8" s="40">
         <v>3</v>
@@ -16237,31 +16240,31 @@
       <c r="C8" s="39">
         <v>3</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="59">
         <v>7</v>
       </c>
-      <c r="E8" s="56"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="39" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>485</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
+        <v>481</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="41" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B10" s="40">
         <v>51.8</v>
@@ -16276,12 +16279,12 @@
         <v>39</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B11" s="43">
         <v>0.64500000000000002</v>
@@ -16296,12 +16299,12 @@
         <v>0.85</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B12" s="40"/>
       <c r="C12" s="45"/>
@@ -16310,12 +16313,12 @@
         <v>16</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B13" s="40">
         <v>19.36</v>
@@ -16326,92 +16329,92 @@
       <c r="D13" s="50">
         <v>23.6</v>
       </c>
-      <c r="E13" s="52"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="39" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B14" s="40">
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="C14" s="46"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="41" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>471</v>
-      </c>
-      <c r="E15" s="52"/>
+        <v>467</v>
+      </c>
+      <c r="E15" s="51"/>
       <c r="F15" s="39" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>475</v>
-      </c>
-      <c r="E16" s="52"/>
+        <v>471</v>
+      </c>
+      <c r="E16" s="51"/>
       <c r="F16" s="39" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="113" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
+        <v>472</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>474</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>475</v>
+      </c>
+      <c r="E17" s="55"/>
+      <c r="F17" s="41" t="s">
         <v>476</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>477</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>478</v>
-      </c>
-      <c r="D17" s="59" t="s">
-        <v>479</v>
-      </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="41" t="s">
-        <v>480</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16456,119 +16459,119 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="F3" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="G3" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="H3" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="I3" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="J3" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="K3" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="L3" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="M3" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="N3" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="O3" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="P3" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="Q3" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="R3" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="S3" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="P3" s="31" t="s">
+      <c r="T3" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="Q3" s="31" t="s">
+      <c r="U3" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="V3" s="31" t="s">
         <v>299</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="W3" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="T3" s="31" t="s">
+      <c r="X3" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="U3" s="31" t="s">
+      <c r="Y3" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="V3" s="31" t="s">
+      <c r="Z3" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="W3" s="31" t="s">
+      <c r="AA3" s="31" t="s">
         <v>304</v>
       </c>
-      <c r="X3" s="31" t="s">
+      <c r="AB3" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="Y3" s="31" t="s">
+      <c r="AC3" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="Z3" s="31" t="s">
+      <c r="AD3" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="AA3" s="31" t="s">
+      <c r="AE3" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="AB3" s="31" t="s">
+      <c r="AF3" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="AC3" s="31" t="s">
+      <c r="AG3" s="31" t="s">
         <v>310</v>
-      </c>
-      <c r="AD3" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="AE3" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="AF3" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="AG3" s="31" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D4">
         <v>300</v>
@@ -16583,14 +16586,14 @@
         <v>616</v>
       </c>
       <c r="H4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I4" s="32"/>
       <c r="J4">
         <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O4">
         <v>4.8499999999999996</v>
@@ -16629,18 +16632,18 @@
         <v>308.89999999999998</v>
       </c>
       <c r="AE4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -16682,13 +16685,13 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B6" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F6">
         <v>2.4</v>
@@ -16697,7 +16700,7 @@
         <v>230</v>
       </c>
       <c r="H6" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I6" s="32">
         <v>0.125</v>
@@ -16706,7 +16709,7 @@
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M6">
         <v>5</v>
@@ -16751,18 +16754,18 @@
         <v>5</v>
       </c>
       <c r="AE6" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -16779,18 +16782,18 @@
         <v>0.4</v>
       </c>
       <c r="AE7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -16805,7 +16808,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I8" s="32">
         <v>0.42857142857142855</v>
@@ -16814,7 +16817,7 @@
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L8">
         <v>8500</v>
@@ -16851,18 +16854,18 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AE8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" t="s">
         <v>327</v>
       </c>
-      <c r="B9" t="s">
-        <v>331</v>
-      </c>
       <c r="C9" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -16882,18 +16885,18 @@
         <v>1.6</v>
       </c>
       <c r="AE9" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C10" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -16908,7 +16911,7 @@
         <v>400</v>
       </c>
       <c r="H10" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I10" s="32">
         <v>0.1</v>
@@ -16917,7 +16920,7 @@
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L10">
         <v>8700</v>
@@ -16973,7 +16976,7 @@
         <v>2</v>
       </c>
       <c r="AE10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF10">
         <v>5</v>
@@ -16984,13 +16987,13 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B11" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -17005,7 +17008,7 @@
         <v>400</v>
       </c>
       <c r="H11" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I11" s="32">
         <v>0.1</v>
@@ -17014,7 +17017,7 @@
         <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L11">
         <v>8700</v>
@@ -17070,7 +17073,7 @@
         <v>2</v>
       </c>
       <c r="AE11" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF11">
         <v>5</v>
@@ -17081,13 +17084,13 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B12" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F12">
         <v>13</v>
@@ -17129,13 +17132,13 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B13" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C13" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -17150,7 +17153,7 @@
         <v>400</v>
       </c>
       <c r="H13" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I13" s="32">
         <v>0.21428571428571427</v>
@@ -17159,7 +17162,7 @@
         <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L13">
         <v>8500</v>
@@ -17196,18 +17199,18 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AE13" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B14" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C14" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -17222,7 +17225,7 @@
         <v>400</v>
       </c>
       <c r="H14" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I14" s="32">
         <v>0.15</v>
@@ -17231,7 +17234,7 @@
         <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L14">
         <v>8500</v>
@@ -17268,18 +17271,18 @@
         <v>3.3</v>
       </c>
       <c r="AE14" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B15" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C15" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -17294,7 +17297,7 @@
         <v>400</v>
       </c>
       <c r="H15" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I15" s="32">
         <v>9.0909090909090912E-2</v>
@@ -17303,7 +17306,7 @@
         <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L15">
         <v>8700</v>
@@ -17359,7 +17362,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AE15" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF15">
         <v>5</v>
@@ -17370,13 +17373,13 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B16" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C16" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -17391,7 +17394,7 @@
         <v>400</v>
       </c>
       <c r="H16" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I16" s="32">
         <v>9.0909090909090912E-2</v>
@@ -17400,7 +17403,7 @@
         <v>3</v>
       </c>
       <c r="K16" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L16">
         <v>8700</v>
@@ -17456,7 +17459,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AE16" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF16">
         <v>5</v>
@@ -17467,13 +17470,13 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C17" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D17">
         <v>14</v>
@@ -17493,18 +17496,18 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AE17" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B18" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C18" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -17519,7 +17522,7 @@
         <v>400</v>
       </c>
       <c r="H18" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I18" s="32">
         <v>0.1111111111111111</v>
@@ -17528,7 +17531,7 @@
         <v>40</v>
       </c>
       <c r="K18" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L18">
         <v>8500</v>
@@ -17565,18 +17568,18 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AE18" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B19" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C19" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -17591,7 +17594,7 @@
         <v>400</v>
       </c>
       <c r="H19" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I19" s="32">
         <v>0.5357142857142857</v>
@@ -17600,7 +17603,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L19">
         <v>8410</v>
@@ -17648,18 +17651,18 @@
         <v>5</v>
       </c>
       <c r="AE19" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B20" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C20" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -17674,7 +17677,7 @@
         <v>400</v>
       </c>
       <c r="H20" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I20" s="32">
         <v>9.0909090909090912E-2</v>
@@ -17683,7 +17686,7 @@
         <v>40</v>
       </c>
       <c r="K20" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L20">
         <v>8500</v>
@@ -17720,18 +17723,18 @@
         <v>5.6</v>
       </c>
       <c r="AE20" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B21" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C21" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F21">
         <v>35</v>
@@ -17773,13 +17776,13 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B22" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C22" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -17794,7 +17797,7 @@
         <v>400</v>
       </c>
       <c r="H22" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I22" s="32">
         <v>9.3023255813953487E-2</v>
@@ -17803,7 +17806,7 @@
         <v>3</v>
       </c>
       <c r="K22" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L22">
         <v>8700</v>
@@ -17859,7 +17862,7 @@
         <v>8.9</v>
       </c>
       <c r="AE22" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF22">
         <v>5</v>
@@ -17870,13 +17873,13 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B23" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C23" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -17891,7 +17894,7 @@
         <v>400</v>
       </c>
       <c r="H23" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I23" s="32">
         <v>9.3023255813953487E-2</v>
@@ -17900,7 +17903,7 @@
         <v>3</v>
       </c>
       <c r="K23" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L23">
         <v>8700</v>
@@ -17956,7 +17959,7 @@
         <v>8.9</v>
       </c>
       <c r="AE23" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF23">
         <v>5</v>
@@ -17967,19 +17970,19 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B24" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C24" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F24">
         <v>50</v>
       </c>
       <c r="H24" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I24" s="32"/>
       <c r="O24">
@@ -18006,13 +18009,13 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B25" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C25" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -18027,7 +18030,7 @@
         <v>400</v>
       </c>
       <c r="H25" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I25" s="32">
         <v>0.11666666666666667</v>
@@ -18036,7 +18039,7 @@
         <v>15</v>
       </c>
       <c r="K25" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L25">
         <v>8650</v>
@@ -18092,7 +18095,7 @@
         <v>9.9</v>
       </c>
       <c r="AE25" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AF25">
         <v>5</v>
@@ -18103,13 +18106,13 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B26" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C26" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D26">
         <v>18</v>
@@ -18129,18 +18132,18 @@
         <v>10</v>
       </c>
       <c r="AE26" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B27" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C27" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -18155,7 +18158,7 @@
         <v>400</v>
       </c>
       <c r="H27" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I27" s="32">
         <v>9.3023255813953487E-2</v>
@@ -18164,7 +18167,7 @@
         <v>3</v>
       </c>
       <c r="K27" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L27">
         <v>8700</v>
@@ -18220,7 +18223,7 @@
         <v>17.8</v>
       </c>
       <c r="AE27" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF27">
         <v>5</v>
@@ -18231,13 +18234,13 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B28" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C28" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -18252,7 +18255,7 @@
         <v>400</v>
       </c>
       <c r="H28" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I28" s="32">
         <v>9.3023255813953487E-2</v>
@@ -18261,7 +18264,7 @@
         <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L28">
         <v>8700</v>
@@ -18317,7 +18320,7 @@
         <v>17.8</v>
       </c>
       <c r="AE28" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF28">
         <v>5</v>
@@ -18328,19 +18331,19 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B29" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C29" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F29">
         <v>100</v>
       </c>
       <c r="H29" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I29" s="32"/>
       <c r="O29">
@@ -18367,13 +18370,13 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B30" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C30" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F30">
         <v>100</v>
@@ -18415,13 +18418,13 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B31" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C31" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D31">
         <v>12</v>
@@ -18436,7 +18439,7 @@
         <v>400</v>
       </c>
       <c r="H31" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I31" s="32">
         <v>6.6666666666666666E-2</v>
@@ -18445,7 +18448,7 @@
         <v>40</v>
       </c>
       <c r="K31" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L31">
         <v>8600</v>
@@ -18467,18 +18470,18 @@
         <v>19.399999999999999</v>
       </c>
       <c r="AE31" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B32" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C32" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D32">
         <v>10</v>
@@ -18493,7 +18496,7 @@
         <v>400</v>
       </c>
       <c r="H32" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I32" s="32">
         <v>0.13636363636363635</v>
@@ -18502,7 +18505,7 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L32">
         <v>8410</v>
@@ -18550,18 +18553,18 @@
         <v>20</v>
       </c>
       <c r="AE32" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B33" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C33" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D33">
         <v>46</v>
@@ -18570,13 +18573,13 @@
         <v>115</v>
       </c>
       <c r="H33" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I33" s="32">
         <v>0.46956521739130436</v>
       </c>
       <c r="K33" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M33">
         <v>-20</v>
@@ -18606,18 +18609,18 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="AE33" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B34" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C34" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D34">
         <v>20</v>
@@ -18632,7 +18635,7 @@
         <v>400</v>
       </c>
       <c r="H34" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I34" s="32">
         <v>5.8333333333333334E-2</v>
@@ -18641,7 +18644,7 @@
         <v>15</v>
       </c>
       <c r="K34" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L34">
         <v>8650</v>
@@ -18697,7 +18700,7 @@
         <v>19.8</v>
       </c>
       <c r="AE34" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AF34">
         <v>5</v>
@@ -18708,13 +18711,13 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B35" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C35" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D35">
         <v>21</v>
@@ -18729,14 +18732,14 @@
         <v>300</v>
       </c>
       <c r="H35" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I35" s="32"/>
       <c r="J35">
         <v>10</v>
       </c>
       <c r="K35" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O35">
         <v>4.83</v>
@@ -18775,18 +18778,18 @@
         <v>21.1</v>
       </c>
       <c r="AE35" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>356</v>
+      </c>
+      <c r="B36" t="s">
         <v>360</v>
       </c>
-      <c r="B36" t="s">
-        <v>364</v>
-      </c>
       <c r="C36" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D36">
         <v>62</v>
@@ -18795,13 +18798,13 @@
         <v>155</v>
       </c>
       <c r="H36" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I36" s="32">
         <v>0.34838709677419355</v>
       </c>
       <c r="K36" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M36">
         <v>-20</v>
@@ -18831,18 +18834,18 @@
         <v>14.8</v>
       </c>
       <c r="AE36" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B37" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C37" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -18857,7 +18860,7 @@
         <v>400</v>
       </c>
       <c r="H37" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I37" s="32">
         <v>9.2485549132947972E-2</v>
@@ -18866,7 +18869,7 @@
         <v>3</v>
       </c>
       <c r="K37" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L37">
         <v>8700</v>
@@ -18922,7 +18925,7 @@
         <v>35.6</v>
       </c>
       <c r="AE37" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF37">
         <v>5</v>
@@ -18933,13 +18936,13 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C38" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -18954,7 +18957,7 @@
         <v>400</v>
       </c>
       <c r="H38" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I38" s="32">
         <v>9.2485549132947972E-2</v>
@@ -18963,7 +18966,7 @@
         <v>3</v>
       </c>
       <c r="K38" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L38">
         <v>8700</v>
@@ -19019,7 +19022,7 @@
         <v>35.6</v>
       </c>
       <c r="AE38" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF38">
         <v>5</v>
@@ -19030,13 +19033,13 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B39" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C39" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D39">
         <v>30</v>
@@ -19051,7 +19054,7 @@
         <v>400</v>
       </c>
       <c r="H39" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I39" s="32">
         <v>0.15555555555555556</v>
@@ -19060,7 +19063,7 @@
         <v>15</v>
       </c>
       <c r="K39" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L39">
         <v>8650</v>
@@ -19116,7 +19119,7 @@
         <v>29.7</v>
       </c>
       <c r="AE39" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AF39">
         <v>5</v>
@@ -19127,13 +19130,13 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B40" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C40" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D40">
         <v>24</v>
@@ -19148,7 +19151,7 @@
         <v>400</v>
       </c>
       <c r="H40" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I40" s="32">
         <v>6.6666666666666666E-2</v>
@@ -19157,7 +19160,7 @@
         <v>40</v>
       </c>
       <c r="K40" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L40">
         <v>8600</v>
@@ -19179,18 +19182,18 @@
         <v>38.9</v>
       </c>
       <c r="AE40" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B41" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C41" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D41">
         <v>20</v>
@@ -19205,7 +19208,7 @@
         <v>400</v>
       </c>
       <c r="H41" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I41" s="32">
         <v>5.8333333333333334E-2</v>
@@ -19214,7 +19217,7 @@
         <v>15</v>
       </c>
       <c r="K41" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L41">
         <v>8650</v>
@@ -19270,7 +19273,7 @@
         <v>39.6</v>
       </c>
       <c r="AE41" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AF41">
         <v>5</v>
@@ -19281,13 +19284,13 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B42" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C42" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D42">
         <v>110</v>
@@ -19296,13 +19299,13 @@
         <v>275</v>
       </c>
       <c r="H42" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I42" s="32">
         <v>0.19636363636363635</v>
       </c>
       <c r="K42" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M42">
         <v>-20</v>
@@ -19324,18 +19327,18 @@
         <v>29.6</v>
       </c>
       <c r="AE42" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B43" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C43" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D43">
         <v>40</v>
@@ -19350,7 +19353,7 @@
         <v>400</v>
       </c>
       <c r="H43" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I43" s="32">
         <v>4.2424242424242427E-2</v>
@@ -19359,7 +19362,7 @@
         <v>30</v>
       </c>
       <c r="K43" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L43">
         <v>8322</v>
@@ -19387,18 +19390,18 @@
         <v>47</v>
       </c>
       <c r="AE43" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B44" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C44" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D44">
         <v>30</v>
@@ -19413,7 +19416,7 @@
         <v>400</v>
       </c>
       <c r="H44" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I44" s="32">
         <v>3.888888888888889E-2</v>
@@ -19422,7 +19425,7 @@
         <v>15</v>
       </c>
       <c r="K44" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L44">
         <v>8650</v>
@@ -19478,7 +19481,7 @@
         <v>59.3</v>
       </c>
       <c r="AE44" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AF44">
         <v>5</v>
@@ -19489,13 +19492,13 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B45" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C45" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D45">
         <v>48</v>
@@ -19510,7 +19513,7 @@
         <v>400</v>
       </c>
       <c r="H45" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I45" s="32">
         <v>6.4285714285714279E-2</v>
@@ -19519,7 +19522,7 @@
         <v>40</v>
       </c>
       <c r="K45" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L45">
         <v>8600</v>
@@ -19541,24 +19544,24 @@
         <v>77.8</v>
       </c>
       <c r="AE45" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C46" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F46">
         <v>500</v>
       </c>
       <c r="H46" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I46" s="32"/>
       <c r="O46">
@@ -19585,13 +19588,13 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B47" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C47" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D47">
         <v>15</v>
@@ -19606,11 +19609,11 @@
         <v>400</v>
       </c>
       <c r="H47" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I47" s="32"/>
       <c r="K47" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M47">
         <v>-15</v>
@@ -19657,7 +19660,7 @@
         <v>103.3</v>
       </c>
       <c r="AE47" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF47">
         <v>5</v>
@@ -19668,13 +19671,13 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B48" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C48" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D48">
         <v>45</v>
@@ -19689,7 +19692,7 @@
         <v>400</v>
       </c>
       <c r="H48" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I48" s="32">
         <v>2.5925925925925925E-2</v>
@@ -19698,7 +19701,7 @@
         <v>15</v>
       </c>
       <c r="K48" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L48">
         <v>8650</v>
@@ -19754,7 +19757,7 @@
         <v>89</v>
       </c>
       <c r="AE48" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AF48">
         <v>5</v>
@@ -19765,13 +19768,13 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B49" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C49" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D49">
         <v>220</v>
@@ -19780,13 +19783,13 @@
         <v>550</v>
       </c>
       <c r="H49" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I49" s="32">
         <v>0.16181818181818181</v>
       </c>
       <c r="K49" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M49">
         <v>-20</v>
@@ -19816,18 +19819,18 @@
         <v>60.2</v>
       </c>
       <c r="AE49" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B50" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C50" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D50">
         <v>270</v>
@@ -19836,13 +19839,13 @@
         <v>675</v>
       </c>
       <c r="H50" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I50" s="32">
         <v>0.13185185185185186</v>
       </c>
       <c r="K50" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M50">
         <v>-20</v>
@@ -19864,18 +19867,18 @@
         <v>74.099999999999994</v>
       </c>
       <c r="AE50" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B51" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C51" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F51">
         <v>700</v>
@@ -19884,14 +19887,14 @@
         <v>400</v>
       </c>
       <c r="H51" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I51" s="32"/>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="R51" s="34"/>
       <c r="AA51">
@@ -19907,18 +19910,18 @@
         <v>122.2</v>
       </c>
       <c r="AE51" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B52" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C52" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D52">
         <v>60</v>
@@ -19933,7 +19936,7 @@
         <v>400</v>
       </c>
       <c r="H52" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I52" s="32">
         <v>1.9444444444444445E-2</v>
@@ -19942,7 +19945,7 @@
         <v>15</v>
       </c>
       <c r="K52" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L52">
         <v>8650</v>
@@ -19998,7 +20001,7 @@
         <v>118.7</v>
       </c>
       <c r="AE52" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AF52">
         <v>5</v>
@@ -20009,13 +20012,13 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B53" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C53" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D53">
         <v>40</v>
@@ -20024,13 +20027,13 @@
         <v>788</v>
       </c>
       <c r="H53" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I53" s="32">
         <v>0.2512690355329949</v>
       </c>
       <c r="K53" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M53">
         <v>-20</v>
@@ -20063,18 +20066,18 @@
         <v>199.5</v>
       </c>
       <c r="AE53" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B54" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C54" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D54">
         <v>320</v>
@@ -20083,13 +20086,13 @@
         <v>800</v>
       </c>
       <c r="H54" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I54" s="32">
         <v>0.11125</v>
       </c>
       <c r="K54" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M54">
         <v>-20</v>
@@ -20111,18 +20114,18 @@
         <v>99.5</v>
       </c>
       <c r="AE54" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B55" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C55" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D55">
         <v>200</v>
@@ -20137,7 +20140,7 @@
         <v>400</v>
       </c>
       <c r="H55" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I55" s="32">
         <v>3.111111111111111E-2</v>
@@ -20146,7 +20149,7 @@
         <v>15</v>
       </c>
       <c r="K55" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L55">
         <v>8650</v>
@@ -20202,7 +20205,7 @@
         <v>148.30000000000001</v>
       </c>
       <c r="AE55" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AF55">
         <v>5</v>
@@ -20213,19 +20216,19 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B56" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C56" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F56">
         <v>1000</v>
       </c>
       <c r="H56" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I56" s="32"/>
       <c r="O56">
@@ -20252,13 +20255,13 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B57" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C57" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D57">
         <v>300</v>
@@ -20273,7 +20276,7 @@
         <v>10</v>
       </c>
       <c r="H57" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I57" s="32">
         <v>7.0000000000000007E-2</v>
@@ -20282,7 +20285,7 @@
         <v>20</v>
       </c>
       <c r="K57" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L57">
         <v>8568</v>
@@ -20341,7 +20344,7 @@
         <v>186.9</v>
       </c>
       <c r="AE57" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF57">
         <v>5</v>
@@ -20352,13 +20355,13 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B58" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C58" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D58">
         <v>30</v>
@@ -20373,11 +20376,11 @@
         <v>400</v>
       </c>
       <c r="H58" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I58" s="32"/>
       <c r="K58" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M58">
         <v>-15</v>
@@ -20424,7 +20427,7 @@
         <v>207.8</v>
       </c>
       <c r="AE58" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF58">
         <v>5</v>
@@ -20435,13 +20438,13 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B59" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C59" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D59">
         <v>49</v>
@@ -20450,13 +20453,13 @@
         <v>988</v>
       </c>
       <c r="H59" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I59" s="32">
         <v>0.20040485829959515</v>
       </c>
       <c r="K59" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M59">
         <v>-20</v>
@@ -20489,18 +20492,18 @@
         <v>249.5</v>
       </c>
       <c r="AE59" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B60" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C60" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F60">
         <v>1000</v>
@@ -20509,7 +20512,7 @@
         <v>400</v>
       </c>
       <c r="H60" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I60" s="32"/>
       <c r="J60">
@@ -20551,13 +20554,13 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B61" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C61" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F61">
         <v>1000</v>
@@ -20607,13 +20610,13 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B62" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C62" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D62">
         <v>50</v>
@@ -20628,7 +20631,7 @@
         <v>400</v>
       </c>
       <c r="H62" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I62" s="32">
         <v>4.4999999999999998E-2</v>
@@ -20637,7 +20640,7 @@
         <v>30</v>
       </c>
       <c r="K62" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L62">
         <v>8322</v>
@@ -20673,7 +20676,7 @@
         <v>200</v>
       </c>
       <c r="AE62" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF62">
         <v>5</v>
@@ -20684,13 +20687,13 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B63" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C63" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D63">
         <v>30</v>
@@ -20705,7 +20708,7 @@
         <v>400</v>
       </c>
       <c r="H63" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I63" s="32">
         <v>2.8071833648393194E-2</v>
@@ -20714,7 +20717,7 @@
         <v>3</v>
       </c>
       <c r="K63" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M63">
         <v>5</v>
@@ -20759,18 +20762,18 @@
         <v>208.3</v>
       </c>
       <c r="AE63" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B64" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C64" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F64">
         <v>1100</v>
@@ -20779,7 +20782,7 @@
         <v>480</v>
       </c>
       <c r="H64" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I64" s="32">
         <v>4.2237818181818189E-2</v>
@@ -20802,13 +20805,13 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B65" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C65" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F65">
         <v>1100</v>
@@ -20817,7 +20820,7 @@
         <v>480</v>
       </c>
       <c r="H65" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I65" s="32">
         <v>4.2237818181818189E-2</v>
@@ -20844,13 +20847,13 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B66" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C66" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D66">
         <v>100</v>
@@ -20865,7 +20868,7 @@
         <v>400</v>
       </c>
       <c r="H66" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I66" s="32">
         <v>2.7272727272727271E-2</v>
@@ -20874,7 +20877,7 @@
         <v>3</v>
       </c>
       <c r="K66" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L66">
         <v>8410</v>
@@ -20922,18 +20925,18 @@
         <v>200</v>
       </c>
       <c r="AE66" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B67" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C67" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D67">
         <v>131</v>
@@ -20948,7 +20951,7 @@
         <v>400</v>
       </c>
       <c r="H67" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I67" s="32">
         <v>4.7619047619047616E-2</v>
@@ -20957,7 +20960,7 @@
         <v>40</v>
       </c>
       <c r="K67" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L67">
         <v>8600</v>
@@ -20979,18 +20982,18 @@
         <v>222.2</v>
       </c>
       <c r="AE67" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B68" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C68" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D68">
         <v>200</v>
@@ -21005,7 +21008,7 @@
         <v>400</v>
       </c>
       <c r="H68" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I68" s="32">
         <v>2.3333333333333334E-2</v>
@@ -21014,7 +21017,7 @@
         <v>15</v>
       </c>
       <c r="K68" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L68">
         <v>8650</v>
@@ -21070,7 +21073,7 @@
         <v>197.8</v>
       </c>
       <c r="AE68" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AF68">
         <v>5</v>
@@ -21081,13 +21084,13 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B69" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C69" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F69">
         <v>1390</v>
@@ -21096,11 +21099,11 @@
         <v>11000</v>
       </c>
       <c r="H69" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I69" s="32"/>
       <c r="K69" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="R69" s="34"/>
       <c r="AA69">
@@ -21116,18 +21119,18 @@
         <v>244.4</v>
       </c>
       <c r="AE69" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B70" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C70" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D70">
         <v>200</v>
@@ -21142,7 +21145,7 @@
         <v>568</v>
       </c>
       <c r="H70" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I70" s="32">
         <v>0.02</v>
@@ -21151,7 +21154,7 @@
         <v>30</v>
       </c>
       <c r="K70" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L70">
         <v>8322</v>
@@ -21179,18 +21182,18 @@
         <v>210</v>
       </c>
       <c r="AE70" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B71" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C71" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D71">
         <v>300</v>
@@ -21205,7 +21208,7 @@
         <v>10</v>
       </c>
       <c r="H71" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I71" s="32">
         <v>7.0000000000000007E-2</v>
@@ -21214,7 +21217,7 @@
         <v>5</v>
       </c>
       <c r="K71" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L71">
         <v>8410</v>
@@ -21273,7 +21276,7 @@
         <v>280.3</v>
       </c>
       <c r="AE71" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF71">
         <v>5</v>
@@ -21284,13 +21287,13 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B72" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C72" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D72">
         <v>79</v>
@@ -21299,13 +21302,13 @@
         <v>1580</v>
       </c>
       <c r="H72" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I72" s="32">
         <v>0.12531645569620253</v>
       </c>
       <c r="K72" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M72">
         <v>-20</v>
@@ -21338,18 +21341,18 @@
         <v>399.1</v>
       </c>
       <c r="AE72" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B73" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C73" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D73">
         <v>200</v>
@@ -21364,7 +21367,7 @@
         <v>400</v>
       </c>
       <c r="H73" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I73" s="32">
         <v>1.5555555555555555E-2</v>
@@ -21373,7 +21376,7 @@
         <v>15</v>
       </c>
       <c r="K73" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L73">
         <v>8650</v>
@@ -21429,7 +21432,7 @@
         <v>296.7</v>
       </c>
       <c r="AE73" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AF73">
         <v>5</v>
@@ -21440,13 +21443,13 @@
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B74" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C74" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D74">
         <v>99</v>
@@ -21455,13 +21458,13 @@
         <v>1975</v>
       </c>
       <c r="H74" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I74" s="32">
         <v>0.10025316455696202</v>
       </c>
       <c r="K74" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M74">
         <v>-20</v>
@@ -21494,18 +21497,18 @@
         <v>500</v>
       </c>
       <c r="AE74" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B75" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C75" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D75">
         <v>200</v>
@@ -21520,7 +21523,7 @@
         <v>400</v>
       </c>
       <c r="H75" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I75" s="32">
         <v>0.15</v>
@@ -21529,7 +21532,7 @@
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L75">
         <v>8600</v>
@@ -21568,24 +21571,24 @@
         <v>400</v>
       </c>
       <c r="AE75" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B76" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C76" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F76">
         <v>2000</v>
       </c>
       <c r="H76" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I76" s="32"/>
       <c r="O76">
@@ -21612,13 +21615,13 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B77" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C77" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D77">
         <v>300</v>
@@ -21633,7 +21636,7 @@
         <v>10</v>
       </c>
       <c r="H77" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I77" s="32">
         <v>5.2499999999999998E-2</v>
@@ -21642,7 +21645,7 @@
         <v>20</v>
       </c>
       <c r="K77" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L77">
         <v>8568</v>
@@ -21701,7 +21704,7 @@
         <v>373.8</v>
       </c>
       <c r="AE77" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF77">
         <v>5</v>
@@ -21712,13 +21715,13 @@
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B78" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C78" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F78">
         <v>2350</v>
@@ -21727,11 +21730,11 @@
         <v>11000</v>
       </c>
       <c r="H78" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I78" s="32"/>
       <c r="K78" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="R78" s="34"/>
       <c r="AA78">
@@ -21747,18 +21750,18 @@
         <v>400</v>
       </c>
       <c r="AE78" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B79" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C79" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D79">
         <v>200</v>
@@ -21773,7 +21776,7 @@
         <v>400</v>
       </c>
       <c r="H79" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I79" s="32">
         <v>1.1666666666666667E-2</v>
@@ -21782,7 +21785,7 @@
         <v>15</v>
       </c>
       <c r="K79" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L79">
         <v>8650</v>
@@ -21838,7 +21841,7 @@
         <v>395.6</v>
       </c>
       <c r="AE79" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AF79">
         <v>5</v>
@@ -21849,13 +21852,13 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B80" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C80" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D80">
         <v>135</v>
@@ -21864,7 +21867,7 @@
         <v>2475</v>
       </c>
       <c r="H80" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I80" s="32">
         <v>0.12121212121212122</v>
@@ -21902,13 +21905,13 @@
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B81" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C81" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D81">
         <v>125</v>
@@ -21923,7 +21926,7 @@
         <v>400</v>
       </c>
       <c r="H81" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I81" s="32">
         <v>2.4E-2</v>
@@ -21932,7 +21935,7 @@
         <v>30</v>
       </c>
       <c r="K81" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L81">
         <v>8322</v>
@@ -21960,7 +21963,7 @@
         <v>500</v>
       </c>
       <c r="AE81" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF81">
         <v>5</v>
@@ -21971,13 +21974,13 @@
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B82" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C82" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D82">
         <v>300</v>
@@ -21992,7 +21995,7 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I82" s="32">
         <v>3.5000000000000003E-2</v>
@@ -22001,7 +22004,7 @@
         <v>5</v>
       </c>
       <c r="K82" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L82">
         <v>8568</v>
@@ -22060,7 +22063,7 @@
         <v>560.70000000000005</v>
       </c>
       <c r="AE82" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF82">
         <v>5</v>
@@ -22071,13 +22074,13 @@
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B83" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C83" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D83">
         <v>300</v>
@@ -22092,7 +22095,7 @@
         <v>400</v>
       </c>
       <c r="H83" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I83" s="32">
         <v>0.1</v>
@@ -22101,7 +22104,7 @@
         <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L83">
         <v>8600</v>
@@ -22140,18 +22143,18 @@
         <v>600</v>
       </c>
       <c r="AE83" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B84" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C84" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D84">
         <v>400</v>
@@ -22166,7 +22169,7 @@
         <v>400</v>
       </c>
       <c r="H84" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I84" s="32">
         <v>0.1</v>
@@ -22175,7 +22178,7 @@
         <v>1</v>
       </c>
       <c r="K84" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L84">
         <v>8600</v>
@@ -22214,24 +22217,24 @@
         <v>800</v>
       </c>
       <c r="AE84" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B85" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C85" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F85">
         <v>4000</v>
       </c>
       <c r="H85" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I85" s="32"/>
       <c r="O85">
@@ -22258,13 +22261,13 @@
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B86" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C86" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D86">
         <v>500</v>
@@ -22279,7 +22282,7 @@
         <v>400</v>
       </c>
       <c r="H86" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I86" s="32">
         <v>0.08</v>
@@ -22288,7 +22291,7 @@
         <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L86">
         <v>8600</v>
@@ -22327,18 +22330,18 @@
         <v>1000</v>
       </c>
       <c r="AE86" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B87" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C87" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D87">
         <v>250</v>
@@ -22353,7 +22356,7 @@
         <v>400</v>
       </c>
       <c r="H87" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I87" s="32">
         <v>1.7999999999999999E-2</v>
@@ -22362,7 +22365,7 @@
         <v>30</v>
       </c>
       <c r="K87" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L87">
         <v>8322</v>
@@ -22398,7 +22401,7 @@
         <v>1</v>
       </c>
       <c r="AE87" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF87">
         <v>5</v>
@@ -22409,19 +22412,19 @@
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B88" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C88" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F88">
         <v>5000</v>
       </c>
       <c r="H88" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I88" s="32">
         <v>2.4E-2</v>
@@ -22451,13 +22454,13 @@
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B89" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C89" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D89">
         <v>215</v>
@@ -22469,11 +22472,11 @@
         <v>5375</v>
       </c>
       <c r="H89" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I89" s="32"/>
       <c r="K89" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M89">
         <v>5</v>
@@ -22506,18 +22509,18 @@
         <v>1000</v>
       </c>
       <c r="AE89" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B90" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C90" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F90">
         <v>10000</v>
@@ -22526,7 +22529,7 @@
         <v>800</v>
       </c>
       <c r="H90" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I90" s="32">
         <v>0</v>
@@ -22562,13 +22565,13 @@
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B91" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C91" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F91">
         <v>10000</v>
@@ -22577,7 +22580,7 @@
         <v>800</v>
       </c>
       <c r="H91" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I91" s="32">
         <v>0</v>
@@ -22605,13 +22608,13 @@
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B92" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C92" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D92">
         <v>500</v>
@@ -22626,7 +22629,7 @@
         <v>400</v>
       </c>
       <c r="H92" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I92" s="32">
         <v>1.7999999999999999E-2</v>
@@ -22635,7 +22638,7 @@
         <v>30</v>
       </c>
       <c r="K92" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L92">
         <v>8322</v>
@@ -22671,7 +22674,7 @@
         <v>2</v>
       </c>
       <c r="AE92" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF92">
         <v>5</v>
@@ -22682,13 +22685,13 @@
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B93" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C93" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F93">
         <v>10070</v>
@@ -22697,11 +22700,11 @@
         <v>11000</v>
       </c>
       <c r="H93" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I93" s="32"/>
       <c r="K93" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="R93" s="34"/>
       <c r="AA93">
@@ -22717,18 +22720,18 @@
         <v>1875</v>
       </c>
       <c r="AE93" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B94" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C94" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D94">
         <v>4192</v>
@@ -22737,7 +22740,7 @@
         <v>10481</v>
       </c>
       <c r="H94" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I94" s="32">
         <v>4.2934834462360461E-2</v>
@@ -22781,13 +22784,13 @@
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B95" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C95" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D95">
         <v>750</v>
@@ -22802,7 +22805,7 @@
         <v>400</v>
       </c>
       <c r="H95" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I95" s="32">
         <v>1.7999999999999999E-2</v>
@@ -22811,7 +22814,7 @@
         <v>30</v>
       </c>
       <c r="K95" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L95">
         <v>8322</v>
@@ -22847,7 +22850,7 @@
         <v>3</v>
       </c>
       <c r="AE95" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF95">
         <v>5</v>
@@ -22858,13 +22861,13 @@
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B96" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C96" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D96">
         <v>1800</v>
@@ -22873,7 +22876,7 @@
         <v>18000</v>
       </c>
       <c r="H96" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I96" s="32">
         <v>0</v>
@@ -22906,18 +22909,18 @@
         <v>4000</v>
       </c>
       <c r="AE96" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B97" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C97" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D97">
         <v>1000</v>
@@ -22932,7 +22935,7 @@
         <v>400</v>
       </c>
       <c r="H97" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I97" s="32">
         <v>1.7999999999999999E-2</v>
@@ -22941,7 +22944,7 @@
         <v>30</v>
       </c>
       <c r="K97" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L97">
         <v>8322</v>
@@ -22977,7 +22980,7 @@
         <v>4</v>
       </c>
       <c r="AE97" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF97">
         <v>5</v>
@@ -22988,26 +22991,26 @@
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B98" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C98" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G98">
         <v>400</v>
       </c>
       <c r="H98" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I98" s="32"/>
       <c r="J98">
         <v>30</v>
       </c>
       <c r="K98" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L98">
         <v>8322</v>
@@ -23029,7 +23032,7 @@
         <v>3.5</v>
       </c>
       <c r="AE98" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF98">
         <v>5</v>
@@ -23040,13 +23043,13 @@
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B99" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C99" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G99">
         <v>64</v>
@@ -23071,13 +23074,13 @@
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B100" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C100" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G100">
         <v>260</v>
@@ -23102,13 +23105,13 @@
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B101" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C101" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G101">
         <v>54</v>
@@ -23133,13 +23136,13 @@
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B102" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C102" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G102">
         <v>163</v>
@@ -23164,13 +23167,13 @@
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B103" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C103" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I103" s="32"/>
       <c r="J103">
@@ -23189,13 +23192,13 @@
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B104" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C104" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I104" s="32"/>
       <c r="J104">

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9F34F7-9269-5147-A33D-BED90132DFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1079E82-ADB6-E644-8098-1A4C6310C3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lci" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="524">
   <si>
     <t>Database</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>electrolyzer production, 1MWe, PEM, Balance of Plant</t>
+  </si>
+  <si>
+    <t>1 MW PEM electrolyzer based on Niklas Gerloff, Comparative Life-Cycle-Assessment analysis of three major water electrolysis technologies while applying various energy scenarios for a greener hydrogen production, Journal of Energy Storage, Volume 43, 2021, https://doi.org/10.1016/j.est.2021.102759. Lifetime of 7-8 years per single stack, @ 8000 hours/year. Iridium mining process is NOT from ecoinvent. Produced amount of H2 over 20 years: 2964315.35 kg. According to a study called IndWEDe, it is assumed that the stacks are replaced 3 times during the 20 years lifespan, based on the 2030’s scenario for 1 MW systems which predicts a lifetime of 50,000 h or more for the stacks of the different water electrolysis technologies. In comparison to AEC electrolyzers, PEMEC electrolyzers are less mature. Furthermore, the PEMEC technology is commercially available and operates with a similar system efficiency as the AEC technology. However, the current density and the gas purity are higher with values in between 0.6-2.0 A/cm2 and &gt; 99.99%, respectively. Besides this, the operating pressure (below 200 bar) is significantly higher in comparison to AEC systems, while the operating temperature (50 °C to 80 °C) and the system energy (4.2-6.6 kWh/m3H2) are similar to AEC systems. The PEMEC BoP and stack components data stem from Bareiß et al. and correspond to a 1 MW system. Moreover, some further BoP components like water purifier &amp; feed tank, buffer tank, and heat exchanger have been added, derived from a 300 kW AEC system, under the assumption that the components are also suitable for a PEMEC system. The values have been scaled up from 300 kW to 1 MW.</t>
   </si>
   <si>
     <t>power electronics (rectifier, voltage adaption)</t>
@@ -554,6 +557,9 @@
     <t>electrolyzer production, 1MWe, AEC, Stack</t>
   </si>
   <si>
+    <t>1 MWe Alkaline electrolyzer based on Niklas Gerloff, Comparative Life-Cycle-Assessment analysis of three major water electrolysis technologies while applying various energy scenarios for a greener hydrogen production, Journal of Energy Storage, Volume 43, 2021, https://doi.org/10.1016/j.est.2021.102759. Single stack lifetime of 7-8 years @ 8000 hours/year, hence 3 replacements over 20 years. Produced amount of H2 over 20 years: 3085961.12 kg. The technology is available for large plant sizes and operates with a stack efficiency of up to 67 % (based on the lower heating value (LHV) of the generated H2). The operating temperature is in between 60–80 °C, and the current density is around 0.2–0.4 A/cm2. Moreover, the system energy –including the stack and periphery energy– is in the range of 4.4–6.6 kWh/m3H2, while the gas purity is higher than 99.5%, and the operating pressure is below 30 bar. While the LCI data of the BoP components either originate from Zhang et al., based on a 300-kW system and, therefore, scaled-up to 1 MW by a factor of 0.7, the LCI data of the other BoP components originate from manufacturer offers or have been estimated by own calculations using additional information by the producers.  Values have already been multiplied by 3 to reflect 2 stack replacements over 20 years of use.</t>
+  </si>
+  <si>
     <t>anode and cathode with frame</t>
   </si>
   <si>
@@ -581,6 +587,9 @@
     <t>electrolyzer production, 1MWe, AEC, Balance of Plant</t>
   </si>
   <si>
+    <t>1 MWe Alkaline electrolyzer based on Niklas Gerloff, Comparative Life-Cycle-Assessment analysis of three major water electrolysis technologies while applying various energy scenarios for a greener hydrogen production, Journal of Energy Storage, Volume 43, 2021, https://doi.org/10.1016/j.est.2021.102759. Single stack lifetime of 7-8 years @ 8000 hours/year, hence 3 replacements over 20 years. Produced amount of H2 over 20 years: 3085961.12 kg. The technology is available for large plant sizes and operates with a stack efficiency of up to 67 % (based on the lower heating value (LHV) of the generated H2). The operating temperature is in between 60–80 °C, and the current density is around 0.2–0.4 A/cm2. Moreover, the system energy –including the stack and periphery energy– is in the range of 4.4–6.6 kWh/m3H2, while the gas purity is higher than 99.5%, and the operating pressure is below 30 bar. While the LCI data of the BoP components either originate from Zhang et al., based on a 300-kW system and, therefore, scaled-up to 1 MW by a factor of 0.7, the LCI data of the other BoP components originate from manufacturer offers or have been estimated by own calculations using additional information by the producers.</t>
+  </si>
+  <si>
     <t>market for glass fibre</t>
   </si>
   <si>
@@ -699,6 +708,9 @@
   </si>
   <si>
     <t>electrolyzer production, 1MWe, SOEC, Balance of Plant</t>
+  </si>
+  <si>
+    <t>1 MWe Solid Oxide electrolyzer based on Niklas Gerloff, Comparative Life-Cycle-Assessment analysis of three major water electrolysis technologies while applying various energy scenarios for a greener hydrogen production, Journal of Energy Storage, Volume 43, 2021, https://doi.org/10.1016/j.est.2021.102759. Lifetime of 7-8 years. Produced amount of H2 over 20 years: 3779894.18 kg.</t>
   </si>
   <si>
     <t>heat exchangers</t>
@@ -1756,6 +1768,9 @@
     <t>natural resource::land</t>
   </si>
   <si>
+    <t xml:space="preserve">1 MWe Solid Oxide electrolyzer based on Niklas Gerloff, Comparative Life-Cycle-Assessment analysis of three major water electrolysis technologies while applying various energy scenarios for a greener hydrogen production, Journal of Energy Storage, Volume 43, 2021, https://doi.org/10.1016/j.est.2021.102759. Lifetime of 7-8 years. Produced amount of H2 over 20 years: 3779894.18 kg. Amounts of lanthanum oxide and strontium carbonate are unsure. </t>
+  </si>
+  <si>
     <t>Occupation, industrial area</t>
   </si>
   <si>
@@ -1784,24 +1799,6 @@
   </si>
   <si>
     <t>Electrolyser land transformation: (0.02 [m2/kW]*1000 [kW/MW])/3776000 [kg H2]</t>
-  </si>
-  <si>
-    <t>1 MW PEM electrolyzer based on Niklas Gerloff, Comparative Life-Cycle-Assessment analysis of three major water electrolysis technologies while applying various energy scenarios for a greener hydrogen production, Journal of Energy Storage, Volume 43, 2021, https://doi.org/10.1016/j.est.2021.102759. Lifetime of 5.5 years per single stack, @ 8000 hours/year (see second tab). Iridium mining process is NOT from ecoinvent. Produced amount of H2 over 20 years: 2964315.35 kg. According to a study called IndWEDe, it is assumed that the stacks are replaced 3 times during the 20 years lifespan, based on the 2030’s scenario for 1 MW systems which predicts a lifetime of 50,000 h or more for the stacks of the different water electrolysis technologies. In comparison to AEC electrolyzers, PEMEC electrolyzers are less mature. Furthermore, the PEMEC technology is commercially available and operates with a similar system efficiency as the AEC technology. However, the current density and the gas purity are higher with values in between 0.6–2.0 A/cm2 and &gt; 99.99%, respectively. Besides this, the operating pressure (below 200 bar) is significantly higher in comparison to AEC systems, while the operating temperature (50 °C to 80 °C) and the system energy (4.2–6.6 kWh/m3H2) are similar to AEC systems. The PEMEC BoP and stack components data stem from Bareiß et al. and correspond to a 1 MW system. Moreover, some further BoP components like water purifier &amp; feed tank, buffer tank, and heat exchanger have been added, derived from a 300 kW AEC system, under the assumption that the components are also suitable for a PEMEC system. The values have been scaled up from 300 kW to 1 MW.</t>
-  </si>
-  <si>
-    <t>1 MW PEM electrolyzer based on Niklas Gerloff, Comparative Life-Cycle-Assessment analysis of three major water electrolysis technologies while applying various energy scenarios for a greener hydrogen production, Journal of Energy Storage, Volume 43, 2021, https://doi.org/10.1016/j.est.2021.102759. BoP with a lifetime of 20 years (no replacement). Iridium mining process is NOT from ecoinvent. Produced amount of H2 over 20 years: 2964315.35 kg. According to a study called IndWEDe, it is assumed that the stacks are replaced 3 times during the 20 years lifespan but not the BoP, based on the 2030’s scenario for 1 MW systems which predicts a lifetime of 50,000 h or more for the stacks of the different water electrolysis technologies. In comparison to AEC electrolyzers, PEMEC electrolyzers are less mature. Furthermore, the PEMEC technology is commercially available and operates with a similar system efficiency as the AEC technology. However, the current density and the gas purity are higher with values in between 0.6-2.0 A/cm2 and &gt; 99.99%, respectively. Besides this, the operating pressure (below 200 bar) is significantly higher in comparison to AEC systems, while the operating temperature (50 °C to 80 °C) and the system energy (4.2-6.6 kWh/m3H2) are similar to AEC systems. The PEMEC BoP and stack components data stem from Bareiß et al. and correspond to a 1 MW system. Moreover, some further BoP components like water purifier &amp; feed tank, buffer tank, and heat exchanger have been added, derived from a 300 kW AEC system, under the assumption that the components are also suitable for a PEMEC system. The values have been scaled up from 300 kW to 1 MW.</t>
-  </si>
-  <si>
-    <t>1 MWe Alkaline electrolyzer based on Niklas Gerloff, Comparative Life-Cycle-Assessment analysis of three major water electrolysis technologies while applying various energy scenarios for a greener hydrogen production, Journal of Energy Storage, Volume 43, 2021, https://doi.org/10.1016/j.est.2021.102759. Single stack lifetime of 7 years @ 8000 hours/year, hence 3 replacements over 20 years (see seoncd tab for more info). Produced amount of H2 over 20 years: 3085961.12 kg. The technology is available for large plant sizes and operates with a stack efficiency of up to 67 % (based on the lower heating value (LHV) of the generated H2). The operating temperature is in between 60–80 °C, and the current density is around 0.2–0.4 A/cm2. Moreover, the system energy –including the stack and periphery energy– is in the range of 4.4–6.6 kWh/m3H2, while the gas purity is higher than 99.5%, and the operating pressure is below 30 bar. While the LCI data of the BoP components either originate from Zhang et al., based on a 300-kW system and, therefore, scaled-up to 1 MW by a factor of 0.7, the LCI data of the other BoP components originate from manufacturer offers or have been estimated by own calculations using additional information by the producers.</t>
-  </si>
-  <si>
-    <t>1 MWe Alkaline electrolyzer based on Niklas Gerloff, Comparative Life-Cycle-Assessment analysis of three major water electrolysis technologies while applying various energy scenarios for a greener hydrogen production, Journal of Energy Storage, Volume 43, 2021, https://doi.org/10.1016/j.est.2021.102759. BoP with a lifetime of 20 years (hence no replacement). Produced amount of H2 over 20 years: 3085961.12 kg. The technology is available for large plant sizes and operates with a stack efficiency of up to 67 % (based on the lower heating value (LHV) of the generated H2). The operating temperature is in between 60–80 °C, and the current density is around 0.2–0.4 A/cm2. Moreover, the system energy –including the stack and periphery energy– is in the range of 4.4–6.6 kWh/m3H2, while the gas purity is higher than 99.5%, and the operating pressure is below 30 bar. While the LCI data of the BoP components either originate from Zhang et al., based on a 300-kW system and, therefore, scaled-up to 1 MW by a factor of 0.7, the LCI data of the other BoP components originate from manufacturer offers or have been estimated by own calculations using additional information by the producers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 MWe Solid Oxide electrolyzer based on Niklas Gerloff, Comparative Life-Cycle-Assessment analysis of three major water electrolysis technologies while applying various energy scenarios for a greener hydrogen production, Journal of Energy Storage, Volume 43, 2021, https://doi.org/10.1016/j.est.2021.102759. Lifetime of 2.5 years (see second tab for more info). Produced amount of H2 over 20 years: 3779894.18 kg. Amounts of lanthanum oxide and strontium carbonate are unsure. </t>
-  </si>
-  <si>
-    <t>1 MWe Solid Oxide electrolyzer BoP based on Niklas Gerloff, Comparative Life-Cycle-Assessment analysis of three major water electrolysis technologies while applying various energy scenarios for a greener hydrogen production, Journal of Energy Storage, Volume 43, 2021, https://doi.org/10.1016/j.est.2021.102759. Lifetime of 20 years (hence, no replacement). Produced amount of H2 over 20 years: 3779894.18 kg.</t>
   </si>
 </sst>
 </file>
@@ -2155,22 +2152,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2184,6 +2169,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2472,8 +2469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B512" sqref="B512"/>
+    <sheetView topLeftCell="A192" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2531,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C4" s="11"/>
       <c r="K4" s="13"/>
@@ -2560,7 +2557,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -2574,7 +2571,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -2674,7 +2671,7 @@
     </row>
     <row r="12" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B12" s="17">
         <v>1</v>
@@ -2692,7 +2689,7 @@
         <v>17</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -2726,7 +2723,7 @@
         <v>52</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="J13"/>
       <c r="K13" s="20"/>
@@ -2774,7 +2771,7 @@
     </row>
     <row r="15" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B15" s="12">
         <f>B13*-1</f>
@@ -2790,10 +2787,10 @@
         <v>12</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="J15"/>
       <c r="K15" s="20"/>
@@ -2807,7 +2804,7 @@
     </row>
     <row r="16" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B16" s="12">
         <f>-1*B14</f>
@@ -2823,10 +2820,10 @@
         <v>12</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="J16"/>
       <c r="K16" s="20"/>
@@ -2859,7 +2856,7 @@
         <v>38</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="J17"/>
       <c r="K17" s="20"/>
@@ -2934,7 +2931,7 @@
     </row>
     <row r="20" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="48" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B20" s="49">
         <f>(0.09*1000)/(2963200/20)</f>
@@ -2942,16 +2939,16 @@
       </c>
       <c r="C20" s="48"/>
       <c r="D20" s="48" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F20" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="I20" s="12">
         <v>2</v>
@@ -2998,7 +2995,7 @@
     </row>
     <row r="21" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="48" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B21" s="49">
         <f>(0.09*1000)/2963200</f>
@@ -3006,16 +3003,16 @@
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="48" t="s">
+        <v>517</v>
+      </c>
+      <c r="E21" s="48" t="s">
         <v>512</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>508</v>
       </c>
       <c r="F21" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="48" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="I21" s="12">
         <v>2</v>
@@ -3052,7 +3049,7 @@
     </row>
     <row r="22" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="48" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B22" s="49">
         <f>(0.09*1000)/2963200</f>
@@ -3060,16 +3057,16 @@
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
+        <v>517</v>
+      </c>
+      <c r="E22" s="48" t="s">
         <v>512</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>508</v>
       </c>
       <c r="F22" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="48" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="I22" s="12">
         <v>2</v>
@@ -3145,7 +3142,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>519</v>
+        <v>62</v>
       </c>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
@@ -3774,7 +3771,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
@@ -3816,7 +3813,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
@@ -3942,7 +3939,7 @@
     </row>
     <row r="58" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B58" s="12">
         <f>-1*B43</f>
@@ -3958,7 +3955,7 @@
         <v>12</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="J58"/>
       <c r="K58" s="20"/>
@@ -3972,7 +3969,7 @@
     </row>
     <row r="59" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B59" s="12">
         <f>-1*B33</f>
@@ -3988,7 +3985,7 @@
         <v>12</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J59"/>
       <c r="K59" s="20"/>
@@ -4002,7 +3999,7 @@
     </row>
     <row r="60" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B60" s="12">
         <f>-1*B41</f>
@@ -4018,7 +4015,7 @@
         <v>12</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="J60"/>
       <c r="K60" s="20"/>
@@ -4032,14 +4029,14 @@
     </row>
     <row r="61" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B61" s="12">
         <f>-1*B36</f>
         <v>-16</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>13</v>
@@ -4048,7 +4045,7 @@
         <v>12</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="J61"/>
       <c r="K61" s="20"/>
@@ -4062,7 +4059,7 @@
     </row>
     <row r="62" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B62" s="12">
         <f>-1*B45</f>
@@ -4078,7 +4075,7 @@
         <v>12</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="J62"/>
       <c r="K62" s="20"/>
@@ -4132,7 +4129,7 @@
         <v>11</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>520</v>
+        <v>90</v>
       </c>
       <c r="K66" s="13"/>
       <c r="L66" s="26"/>
@@ -4299,7 +4296,7 @@
         <v>20</v>
       </c>
       <c r="H73" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J73"/>
       <c r="K73" s="20"/>
@@ -4331,7 +4328,7 @@
         <v>77</v>
       </c>
       <c r="H74" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J74"/>
       <c r="K74" s="20"/>
@@ -4345,7 +4342,7 @@
     </row>
     <row r="75" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B75" s="17">
         <v>600</v>
@@ -4363,7 +4360,7 @@
         <v>44</v>
       </c>
       <c r="H75" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J75"/>
       <c r="K75" s="20"/>
@@ -4395,7 +4392,7 @@
         <v>45</v>
       </c>
       <c r="H76" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J76"/>
       <c r="K76" s="20"/>
@@ -4409,7 +4406,7 @@
     </row>
     <row r="77" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B77" s="17">
         <v>600</v>
@@ -4427,7 +4424,7 @@
         <v>46</v>
       </c>
       <c r="H77" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J77"/>
       <c r="K77" s="20"/>
@@ -4441,7 +4438,7 @@
     </row>
     <row r="78" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" s="17">
         <v>100</v>
@@ -4459,7 +4456,7 @@
         <v>47</v>
       </c>
       <c r="H78" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J78"/>
       <c r="K78" s="20"/>
@@ -4473,7 +4470,7 @@
     </row>
     <row r="79" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B79" s="17">
         <v>200</v>
@@ -4491,7 +4488,7 @@
         <v>48</v>
       </c>
       <c r="H79" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J79"/>
       <c r="K79" s="20"/>
@@ -4523,7 +4520,7 @@
         <v>31</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J80"/>
       <c r="K80" s="20"/>
@@ -4555,7 +4552,7 @@
         <v>28</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J81"/>
       <c r="K81" s="20"/>
@@ -4569,7 +4566,7 @@
     </row>
     <row r="82" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B82" s="17">
         <v>900</v>
@@ -4587,7 +4584,7 @@
         <v>46</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J82"/>
       <c r="K82" s="20"/>
@@ -4619,7 +4616,7 @@
         <v>82</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J83"/>
       <c r="K83" s="20"/>
@@ -4651,7 +4648,7 @@
         <v>16</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J84"/>
       <c r="K84" s="20"/>
@@ -4683,7 +4680,7 @@
         <v>20</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J85"/>
       <c r="K85" s="20"/>
@@ -4715,7 +4712,7 @@
         <v>45</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J86"/>
       <c r="K86" s="20"/>
@@ -4747,7 +4744,7 @@
         <v>77</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J87"/>
       <c r="K87" s="20"/>
@@ -4779,7 +4776,7 @@
         <v>80</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J88"/>
       <c r="K88" s="20"/>
@@ -4811,7 +4808,7 @@
         <v>30</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J89"/>
       <c r="K89" s="20"/>
@@ -4825,7 +4822,7 @@
     </row>
     <row r="90" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B90" s="17">
         <v>300</v>
@@ -4840,10 +4837,10 @@
         <v>12</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J90"/>
       <c r="K90" s="20"/>
@@ -4857,7 +4854,7 @@
     </row>
     <row r="91" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B91" s="17">
         <v>100</v>
@@ -4872,10 +4869,10 @@
         <v>12</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J91"/>
       <c r="K91" s="20"/>
@@ -4889,7 +4886,7 @@
     </row>
     <row r="92" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B92" s="17">
         <v>100</v>
@@ -4904,10 +4901,10 @@
         <v>12</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J92"/>
       <c r="K92" s="20"/>
@@ -4939,7 +4936,7 @@
         <v>82</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J93"/>
       <c r="K93" s="20"/>
@@ -4971,7 +4968,7 @@
         <v>16</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J94"/>
       <c r="K94" s="20"/>
@@ -4985,7 +4982,7 @@
     </row>
     <row r="95" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B95" s="17">
         <v>464.6</v>
@@ -5000,10 +4997,10 @@
         <v>12</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J95"/>
       <c r="K95" s="20"/>
@@ -5017,7 +5014,7 @@
     </row>
     <row r="96" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B96" s="17">
         <v>464.6</v>
@@ -5032,10 +5029,10 @@
         <v>12</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J96"/>
       <c r="K96" s="20"/>
@@ -5049,7 +5046,7 @@
     </row>
     <row r="97" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B97" s="17">
         <v>232.3</v>
@@ -5067,7 +5064,7 @@
         <v>44</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J97"/>
       <c r="K97" s="20"/>
@@ -5081,7 +5078,7 @@
     </row>
     <row r="98" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B98" s="17">
         <v>232.3</v>
@@ -5099,7 +5096,7 @@
         <v>46</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J98"/>
       <c r="K98" s="20"/>
@@ -5131,7 +5128,7 @@
         <v>20</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J99"/>
       <c r="K99" s="20"/>
@@ -5163,7 +5160,7 @@
         <v>77</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J100"/>
       <c r="K100" s="20"/>
@@ -5177,7 +5174,7 @@
     </row>
     <row r="101" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B101" s="17">
         <v>180</v>
@@ -5195,7 +5192,7 @@
         <v>44</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J101"/>
       <c r="K101" s="20"/>
@@ -5209,7 +5206,7 @@
     </row>
     <row r="102" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B102" s="17">
         <v>15</v>
@@ -5227,7 +5224,7 @@
         <v>47</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J102"/>
       <c r="K102" s="20"/>
@@ -5241,7 +5238,7 @@
     </row>
     <row r="103" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B103" s="17">
         <v>45</v>
@@ -5259,7 +5256,7 @@
         <v>48</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J103"/>
       <c r="K103" s="20"/>
@@ -5273,7 +5270,7 @@
     </row>
     <row r="104" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B104" s="17">
         <v>600</v>
@@ -5288,10 +5285,10 @@
         <v>12</v>
       </c>
       <c r="G104" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J104"/>
       <c r="K104" s="20"/>
@@ -5305,7 +5302,7 @@
     </row>
     <row r="105" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B105" s="17">
         <v>7</v>
@@ -5320,10 +5317,10 @@
         <v>12</v>
       </c>
       <c r="G105" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J105"/>
       <c r="K105" s="20"/>
@@ -5337,7 +5334,7 @@
     </row>
     <row r="106" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B106" s="17">
         <v>1300</v>
@@ -5355,7 +5352,7 @@
         <v>44</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J106"/>
       <c r="K106" s="20"/>
@@ -5387,7 +5384,7 @@
         <v>82</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J107"/>
       <c r="K107" s="20"/>
@@ -5401,7 +5398,7 @@
     </row>
     <row r="108" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B108" s="17">
         <v>400</v>
@@ -5419,7 +5416,7 @@
         <v>46</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J108"/>
       <c r="K108" s="20"/>
@@ -5451,7 +5448,7 @@
         <v>16</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J109"/>
       <c r="K109" s="20"/>
@@ -5465,7 +5462,7 @@
     </row>
     <row r="110" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B110" s="17">
         <v>1000</v>
@@ -5483,7 +5480,7 @@
         <v>44</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J110"/>
       <c r="K110" s="20"/>
@@ -5515,7 +5512,7 @@
         <v>82</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J111"/>
       <c r="K111" s="20"/>
@@ -5529,7 +5526,7 @@
     </row>
     <row r="112" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B112" s="17">
         <v>1000</v>
@@ -5547,7 +5544,7 @@
         <v>46</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J112"/>
       <c r="K112" s="20"/>
@@ -5579,7 +5576,7 @@
         <v>16</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J113"/>
       <c r="K113" s="20"/>
@@ -5611,7 +5608,7 @@
         <v>82</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J114"/>
       <c r="K114" s="20"/>
@@ -5643,7 +5640,7 @@
         <v>16</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J115"/>
       <c r="K115" s="20"/>
@@ -5657,7 +5654,7 @@
     </row>
     <row r="116" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B116" s="17">
         <v>29</v>
@@ -5666,16 +5663,16 @@
         <v>18</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F116" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J116"/>
       <c r="K116" s="20"/>
@@ -5689,7 +5686,7 @@
     </row>
     <row r="117" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B117" s="17">
         <v>2250</v>
@@ -5707,7 +5704,7 @@
         <v>46</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J117"/>
       <c r="K117" s="20"/>
@@ -5739,7 +5736,7 @@
         <v>28</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J118"/>
       <c r="K118" s="20"/>
@@ -5753,7 +5750,7 @@
     </row>
     <row r="119" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B119" s="30">
         <v>2.2999999999999998</v>
@@ -5768,10 +5765,10 @@
         <v>12</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J119"/>
       <c r="K119" s="20"/>
@@ -5829,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K122" s="13"/>
       <c r="L122" s="13"/>
@@ -5857,7 +5854,7 @@
         <v>11</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>520</v>
+        <v>62</v>
       </c>
       <c r="K124" s="13"/>
       <c r="L124" s="13"/>
@@ -5871,7 +5868,7 @@
         <v>4</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K125" s="13"/>
       <c r="L125" s="13"/>
@@ -5997,7 +5994,7 @@
     </row>
     <row r="131" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B131" s="12">
         <f>7523*-1</f>
@@ -6013,7 +6010,7 @@
         <v>12</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="J131"/>
       <c r="K131" s="20"/>
@@ -6027,13 +6024,13 @@
     </row>
     <row r="132" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B132" s="12">
         <v>-3312</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D132" s="12" t="s">
         <v>13</v>
@@ -6042,7 +6039,7 @@
         <v>12</v>
       </c>
       <c r="G132" s="17" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J132"/>
       <c r="K132" s="20"/>
@@ -6056,7 +6053,7 @@
     </row>
     <row r="133" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B133" s="12">
         <v>-260</v>
@@ -6071,7 +6068,7 @@
         <v>12</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J133"/>
       <c r="K133" s="20"/>
@@ -6085,13 +6082,13 @@
     </row>
     <row r="134" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B134" s="12">
         <v>-32</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D134" s="12" t="s">
         <v>13</v>
@@ -6100,7 +6097,7 @@
         <v>12</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="J134"/>
       <c r="K134" s="20"/>
@@ -6114,13 +6111,13 @@
     </row>
     <row r="135" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="12" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B135" s="12">
         <v>-14</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D135" s="12" t="s">
         <v>13</v>
@@ -6129,7 +6126,7 @@
         <v>12</v>
       </c>
       <c r="G135" s="12" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="J135"/>
       <c r="K135" s="20"/>
@@ -6143,7 +6140,7 @@
     </row>
     <row r="136" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="12" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B136" s="12">
         <v>-8</v>
@@ -6158,7 +6155,7 @@
         <v>12</v>
       </c>
       <c r="G136" s="12" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J136"/>
       <c r="K136" s="20"/>
@@ -6172,7 +6169,7 @@
     </row>
     <row r="137" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B137" s="12">
         <v>-764.6</v>
@@ -6187,7 +6184,7 @@
         <v>12</v>
       </c>
       <c r="G137" s="12" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="J137"/>
       <c r="K137" s="20"/>
@@ -6201,7 +6198,7 @@
     </row>
     <row r="138" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B138" s="12">
         <v>-600</v>
@@ -6216,7 +6213,7 @@
         <v>12</v>
       </c>
       <c r="G138" s="12" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J138"/>
       <c r="K138" s="20"/>
@@ -6230,7 +6227,7 @@
     </row>
     <row r="139" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B139" s="12">
         <v>-345</v>
@@ -6245,7 +6242,7 @@
         <v>12</v>
       </c>
       <c r="G139" s="12" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="J139"/>
       <c r="K139" s="20"/>
@@ -6259,13 +6256,13 @@
     </row>
     <row r="140" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B140" s="12">
         <v>-147</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>13</v>
@@ -6274,7 +6271,7 @@
         <v>12</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="J140"/>
       <c r="K140" s="20"/>
@@ -6288,7 +6285,7 @@
     </row>
     <row r="141" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B141" s="12">
         <v>-5600</v>
@@ -6303,7 +6300,7 @@
         <v>12</v>
       </c>
       <c r="G141" s="12" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="J141"/>
       <c r="K141" s="20"/>
@@ -6317,13 +6314,13 @@
     </row>
     <row r="142" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B142" s="12">
         <v>-100</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>13</v>
@@ -6332,7 +6329,7 @@
         <v>12</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="J142"/>
       <c r="K142" s="20"/>
@@ -6386,7 +6383,7 @@
         <v>11</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K146" s="13"/>
       <c r="L146" s="26"/>
@@ -6530,7 +6527,7 @@
     </row>
     <row r="153" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B153" s="17">
         <v>7.8099999999999989E-2</v>
@@ -6556,7 +6553,7 @@
     </row>
     <row r="154" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B154" s="17">
         <v>19.13</v>
@@ -6582,7 +6579,7 @@
     </row>
     <row r="155" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B155" s="17">
         <v>8.1000000000000006E-4</v>
@@ -6608,7 +6605,7 @@
     </row>
     <row r="156" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B156" s="17">
         <v>6.9299999999999995E-3</v>
@@ -6634,7 +6631,7 @@
     </row>
     <row r="157" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B157" s="17">
         <v>7.1589999999999998</v>
@@ -6660,7 +6657,7 @@
     </row>
     <row r="158" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B158" s="17">
         <v>11146.616</v>
@@ -6686,7 +6683,7 @@
     </row>
     <row r="159" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B159" s="17">
         <v>412.19600000000003</v>
@@ -6712,7 +6709,7 @@
     </row>
     <row r="160" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B160" s="17">
         <v>8.7600000000000004E-8</v>
@@ -6738,7 +6735,7 @@
     </row>
     <row r="161" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B161" s="17">
         <v>5.7299999999999999E-9</v>
@@ -6764,7 +6761,7 @@
     </row>
     <row r="162" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B162" s="17">
         <v>5.5599999999999998E-3</v>
@@ -6790,7 +6787,7 @@
     </row>
     <row r="163" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B163" s="17">
         <v>36.700000000000003</v>
@@ -6816,7 +6813,7 @@
     </row>
     <row r="164" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B164" s="17">
         <v>4.8600000000000004E-2</v>
@@ -6842,7 +6839,7 @@
     </row>
     <row r="165" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B165" s="17">
         <v>1.9100000000000002E-2</v>
@@ -6868,7 +6865,7 @@
     </row>
     <row r="166" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B166" s="17">
         <v>0.499</v>
@@ -6894,7 +6891,7 @@
     </row>
     <row r="167" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B167" s="17">
         <v>4.6999999999999999E-9</v>
@@ -6920,7 +6917,7 @@
     </row>
     <row r="168" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B168" s="17">
         <v>4.87E-2</v>
@@ -6946,7 +6943,7 @@
     </row>
     <row r="169" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B169" s="17">
         <v>2.1E-7</v>
@@ -6972,7 +6969,7 @@
     </row>
     <row r="170" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B170" s="17">
         <v>2.5600000000000001E-2</v>
@@ -6998,7 +6995,7 @@
     </row>
     <row r="171" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B171" s="17">
         <v>1.06</v>
@@ -7024,7 +7021,7 @@
     </row>
     <row r="172" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B172" s="17">
         <v>0.35199999999999998</v>
@@ -7050,7 +7047,7 @@
     </row>
     <row r="173" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B173" s="17">
         <v>2.69E-2</v>
@@ -7076,7 +7073,7 @@
     </row>
     <row r="174" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B174" s="17">
         <v>26.859000000000002</v>
@@ -7102,7 +7099,7 @@
     </row>
     <row r="175" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B175" s="17">
         <v>30.635000000000002</v>
@@ -7128,7 +7125,7 @@
     </row>
     <row r="176" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B176" s="17">
         <v>9.5200000000000002E-10</v>
@@ -7154,7 +7151,7 @@
     </row>
     <row r="177" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B177" s="17">
         <v>2.4599999999999997E-6</v>
@@ -7180,7 +7177,7 @@
     </row>
     <row r="178" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B178" s="17">
         <v>3.4299999999999998E-6</v>
@@ -7206,7 +7203,7 @@
     </row>
     <row r="179" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B179" s="17">
         <v>1.5E-3</v>
@@ -7232,7 +7229,7 @@
     </row>
     <row r="180" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B180" s="17">
         <v>2.6200000000000003E-4</v>
@@ -7258,7 +7255,7 @@
     </row>
     <row r="181" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B181" s="17">
         <v>4.4299999999999999E-5</v>
@@ -7284,7 +7281,7 @@
     </row>
     <row r="182" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B182" s="17">
         <v>2172.2550000000001</v>
@@ -7310,7 +7307,7 @@
     </row>
     <row r="183" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B183" s="17">
         <v>1.02E-4</v>
@@ -7336,7 +7333,7 @@
     </row>
     <row r="184" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B184" s="17">
         <v>6.7900000000000002E-2</v>
@@ -7374,7 +7371,7 @@
         <v>1</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C186" s="11"/>
       <c r="K186" s="13"/>
@@ -7403,7 +7400,7 @@
         <v>11</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="K188" s="13"/>
       <c r="L188" s="13"/>
@@ -7417,7 +7414,7 @@
         <v>4</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="K189" s="13"/>
       <c r="L189" s="13"/>
@@ -7517,7 +7514,7 @@
     </row>
     <row r="194" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="17" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B194" s="17">
         <v>1</v>
@@ -7535,7 +7532,7 @@
         <v>17</v>
       </c>
       <c r="G194" s="12" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="H194" s="11"/>
       <c r="I194" s="11"/>
@@ -7566,7 +7563,7 @@
         <v>12</v>
       </c>
       <c r="G195" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H195" s="12" t="s">
         <v>53</v>
@@ -7600,10 +7597,10 @@
         <v>12</v>
       </c>
       <c r="G196" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H196" s="12" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="J196"/>
       <c r="K196" s="20"/>
@@ -7617,7 +7614,7 @@
     </row>
     <row r="197" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="17" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B197" s="17">
         <f>-1*B195</f>
@@ -7633,10 +7630,10 @@
         <v>12</v>
       </c>
       <c r="G197" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H197" s="12" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="J197"/>
       <c r="K197" s="20"/>
@@ -7650,7 +7647,7 @@
     </row>
     <row r="198" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="17" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B198" s="17">
         <f>-1*B196</f>
@@ -7666,10 +7663,10 @@
         <v>12</v>
       </c>
       <c r="G198" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="H198" s="12" t="s">
         <v>271</v>
-      </c>
-      <c r="H198" s="12" t="s">
-        <v>267</v>
       </c>
       <c r="J198"/>
       <c r="K198" s="20"/>
@@ -7702,7 +7699,7 @@
         <v>38</v>
       </c>
       <c r="H199" s="11" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="J199"/>
       <c r="K199" s="20"/>
@@ -7716,7 +7713,7 @@
     </row>
     <row r="200" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B200" s="17">
         <v>3.7000000000000002E-3</v>
@@ -7732,10 +7729,10 @@
         <v>12</v>
       </c>
       <c r="G200" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H200" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J200"/>
       <c r="K200" s="20"/>
@@ -7810,7 +7807,7 @@
     </row>
     <row r="203" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="48" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B203" s="49">
         <f>(0.12*1000)/(4259200/27.5)</f>
@@ -7818,16 +7815,16 @@
       </c>
       <c r="C203" s="48"/>
       <c r="D203" s="48" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="E203" s="48" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F203" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H203" s="48" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="I203" s="12">
         <v>2</v>
@@ -7874,7 +7871,7 @@
     </row>
     <row r="204" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="48" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B204" s="49">
         <f>(0.12*1000)/4259200</f>
@@ -7882,16 +7879,16 @@
       </c>
       <c r="C204" s="48"/>
       <c r="D204" s="48" t="s">
+        <v>517</v>
+      </c>
+      <c r="E204" s="48" t="s">
         <v>512</v>
-      </c>
-      <c r="E204" s="48" t="s">
-        <v>508</v>
       </c>
       <c r="F204" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H204" s="48" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="I204" s="12">
         <v>2</v>
@@ -7928,7 +7925,7 @@
     </row>
     <row r="205" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="48" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B205" s="49">
         <f>(0.12*1000)/4259200</f>
@@ -7936,16 +7933,16 @@
       </c>
       <c r="C205" s="48"/>
       <c r="D205" s="48" t="s">
+        <v>517</v>
+      </c>
+      <c r="E205" s="48" t="s">
         <v>512</v>
-      </c>
-      <c r="E205" s="48" t="s">
-        <v>508</v>
       </c>
       <c r="F205" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H205" s="48" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="I205" s="12">
         <v>2</v>
@@ -7994,7 +7991,7 @@
         <v>1</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K207" s="13"/>
       <c r="L207" s="13"/>
@@ -8022,7 +8019,7 @@
         <v>11</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>521</v>
+        <v>171</v>
       </c>
       <c r="K209" s="13"/>
       <c r="L209" s="13"/>
@@ -8036,7 +8033,7 @@
         <v>4</v>
       </c>
       <c r="B210" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K210" s="13"/>
       <c r="L210" s="13"/>
@@ -8212,7 +8209,7 @@
         <v>82</v>
       </c>
       <c r="H217" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J217"/>
       <c r="K217" s="20"/>
@@ -8244,7 +8241,7 @@
         <v>16</v>
       </c>
       <c r="H218" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J218"/>
       <c r="K218" s="20"/>
@@ -8258,7 +8255,7 @@
     </row>
     <row r="219" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B219" s="13">
         <v>2884.9</v>
@@ -8273,10 +8270,10 @@
         <v>12</v>
       </c>
       <c r="G219" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="H219" s="12" t="s">
         <v>172</v>
-      </c>
-      <c r="H219" s="12" t="s">
-        <v>170</v>
       </c>
       <c r="J219"/>
       <c r="K219" s="20"/>
@@ -8290,7 +8287,7 @@
     </row>
     <row r="220" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B220" s="13">
         <v>48.8</v>
@@ -8306,10 +8303,10 @@
         <v>12</v>
       </c>
       <c r="G220" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H220" s="12" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J220"/>
       <c r="K220" s="20"/>
@@ -8323,7 +8320,7 @@
     </row>
     <row r="221" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B221" s="13">
         <v>73</v>
@@ -8339,10 +8336,10 @@
         <v>12</v>
       </c>
       <c r="G221" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H221" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="H221" s="12" t="s">
-        <v>175</v>
       </c>
       <c r="J221"/>
       <c r="K221" s="20"/>
@@ -8403,7 +8400,7 @@
         <v>1</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K224" s="13"/>
       <c r="L224" s="13"/>
@@ -8431,7 +8428,7 @@
         <v>11</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>521</v>
+        <v>62</v>
       </c>
       <c r="K226" s="13"/>
       <c r="L226" s="13"/>
@@ -8445,7 +8442,7 @@
         <v>4</v>
       </c>
       <c r="B227" s="17" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K227" s="13"/>
       <c r="L227" s="13"/>
@@ -8571,7 +8568,7 @@
     </row>
     <row r="233" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="17" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B233" s="12">
         <v>-60583</v>
@@ -8586,7 +8583,7 @@
         <v>12</v>
       </c>
       <c r="G233" s="12" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="J233"/>
       <c r="K233" s="20"/>
@@ -8600,13 +8597,13 @@
     </row>
     <row r="234" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B234" s="12">
         <v>-579</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D234" s="12" t="s">
         <v>13</v>
@@ -8615,7 +8612,7 @@
         <v>12</v>
       </c>
       <c r="G234" s="12" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="J234"/>
       <c r="K234" s="20"/>
@@ -8641,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K236" s="25"/>
       <c r="L236" s="26"/>
@@ -8669,7 +8666,7 @@
         <v>11</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>522</v>
+        <v>181</v>
       </c>
       <c r="K238" s="13"/>
       <c r="L238" s="26"/>
@@ -8683,7 +8680,7 @@
         <v>4</v>
       </c>
       <c r="B239" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K239" s="13"/>
       <c r="L239" s="13"/>
@@ -8830,7 +8827,7 @@
         <v>20</v>
       </c>
       <c r="H245" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J245"/>
       <c r="K245" s="20"/>
@@ -8862,7 +8859,7 @@
         <v>77</v>
       </c>
       <c r="H246" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J246"/>
       <c r="K246" s="20"/>
@@ -8876,7 +8873,7 @@
     </row>
     <row r="247" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B247" s="17">
         <v>600</v>
@@ -8894,7 +8891,7 @@
         <v>44</v>
       </c>
       <c r="H247" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J247"/>
       <c r="K247" s="20"/>
@@ -8926,7 +8923,7 @@
         <v>45</v>
       </c>
       <c r="H248" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J248"/>
       <c r="K248" s="20"/>
@@ -8940,7 +8937,7 @@
     </row>
     <row r="249" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B249" s="17">
         <v>600</v>
@@ -8958,7 +8955,7 @@
         <v>46</v>
       </c>
       <c r="H249" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J249"/>
       <c r="K249" s="20"/>
@@ -8972,7 +8969,7 @@
     </row>
     <row r="250" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B250" s="17">
         <v>100</v>
@@ -8990,7 +8987,7 @@
         <v>47</v>
       </c>
       <c r="H250" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J250"/>
       <c r="K250" s="20"/>
@@ -9004,7 +9001,7 @@
     </row>
     <row r="251" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B251" s="17">
         <v>200</v>
@@ -9022,7 +9019,7 @@
         <v>48</v>
       </c>
       <c r="H251" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J251"/>
       <c r="K251" s="20"/>
@@ -9054,7 +9051,7 @@
         <v>31</v>
       </c>
       <c r="H252" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J252"/>
       <c r="K252" s="20"/>
@@ -9068,7 +9065,7 @@
     </row>
     <row r="253" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="12" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B253" s="17">
         <v>464.6</v>
@@ -9083,10 +9080,10 @@
         <v>12</v>
       </c>
       <c r="G253" s="12" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H253" s="11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J253"/>
       <c r="K253" s="20"/>
@@ -9100,7 +9097,7 @@
     </row>
     <row r="254" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B254" s="17">
         <v>696.8</v>
@@ -9118,7 +9115,7 @@
         <v>44</v>
       </c>
       <c r="H254" s="11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J254"/>
       <c r="K254" s="20"/>
@@ -9132,7 +9129,7 @@
     </row>
     <row r="255" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B255" s="17">
         <v>696.8</v>
@@ -9150,7 +9147,7 @@
         <v>46</v>
       </c>
       <c r="H255" s="11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J255"/>
       <c r="K255" s="20"/>
@@ -9182,7 +9179,7 @@
         <v>82</v>
       </c>
       <c r="H256" s="11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J256"/>
       <c r="K256" s="20"/>
@@ -9214,7 +9211,7 @@
         <v>16</v>
       </c>
       <c r="H257" s="11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J257"/>
       <c r="K257" s="20"/>
@@ -9228,7 +9225,7 @@
     </row>
     <row r="258" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B258" s="17">
         <v>464.6</v>
@@ -9243,10 +9240,10 @@
         <v>12</v>
       </c>
       <c r="G258" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H258" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J258"/>
       <c r="K258" s="20"/>
@@ -9260,7 +9257,7 @@
     </row>
     <row r="259" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B259" s="17">
         <v>464.6</v>
@@ -9275,10 +9272,10 @@
         <v>12</v>
       </c>
       <c r="G259" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H259" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J259"/>
       <c r="K259" s="20"/>
@@ -9292,7 +9289,7 @@
     </row>
     <row r="260" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B260" s="17">
         <v>232.3</v>
@@ -9310,7 +9307,7 @@
         <v>44</v>
       </c>
       <c r="H260" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J260"/>
       <c r="K260" s="20"/>
@@ -9324,7 +9321,7 @@
     </row>
     <row r="261" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B261" s="17">
         <v>232.3</v>
@@ -9342,7 +9339,7 @@
         <v>46</v>
       </c>
       <c r="H261" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J261"/>
       <c r="K261" s="20"/>
@@ -9374,7 +9371,7 @@
         <v>20</v>
       </c>
       <c r="H262" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J262"/>
       <c r="K262" s="20"/>
@@ -9406,7 +9403,7 @@
         <v>77</v>
       </c>
       <c r="H263" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J263"/>
       <c r="K263" s="20"/>
@@ -9420,7 +9417,7 @@
     </row>
     <row r="264" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B264" s="17">
         <v>180</v>
@@ -9438,7 +9435,7 @@
         <v>44</v>
       </c>
       <c r="H264" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J264"/>
       <c r="K264" s="20"/>
@@ -9452,7 +9449,7 @@
     </row>
     <row r="265" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B265" s="17">
         <v>15</v>
@@ -9470,7 +9467,7 @@
         <v>47</v>
       </c>
       <c r="H265" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J265"/>
       <c r="K265" s="20"/>
@@ -9484,7 +9481,7 @@
     </row>
     <row r="266" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B266" s="17">
         <v>45</v>
@@ -9502,7 +9499,7 @@
         <v>48</v>
       </c>
       <c r="H266" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J266"/>
       <c r="K266" s="20"/>
@@ -9516,7 +9513,7 @@
     </row>
     <row r="267" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B267" s="17">
         <v>600</v>
@@ -9531,10 +9528,10 @@
         <v>12</v>
       </c>
       <c r="G267" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H267" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J267"/>
       <c r="K267" s="20"/>
@@ -9548,7 +9545,7 @@
     </row>
     <row r="268" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B268" s="17">
         <v>7</v>
@@ -9563,10 +9560,10 @@
         <v>12</v>
       </c>
       <c r="G268" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H268" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J268"/>
       <c r="K268" s="20"/>
@@ -9580,7 +9577,7 @@
     </row>
     <row r="269" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B269" s="17">
         <v>1300</v>
@@ -9598,7 +9595,7 @@
         <v>44</v>
       </c>
       <c r="H269" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J269"/>
       <c r="K269" s="20"/>
@@ -9630,7 +9627,7 @@
         <v>82</v>
       </c>
       <c r="H270" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J270"/>
       <c r="K270" s="20"/>
@@ -9644,7 +9641,7 @@
     </row>
     <row r="271" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B271" s="17">
         <v>400</v>
@@ -9662,7 +9659,7 @@
         <v>46</v>
       </c>
       <c r="H271" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J271"/>
       <c r="K271" s="20"/>
@@ -9694,7 +9691,7 @@
         <v>16</v>
       </c>
       <c r="H272" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J272"/>
       <c r="K272" s="20"/>
@@ -9708,7 +9705,7 @@
     </row>
     <row r="273" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B273" s="17">
         <v>1000</v>
@@ -9726,7 +9723,7 @@
         <v>44</v>
       </c>
       <c r="H273" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J273"/>
       <c r="K273" s="20"/>
@@ -9758,7 +9755,7 @@
         <v>82</v>
       </c>
       <c r="H274" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J274"/>
       <c r="K274" s="20"/>
@@ -9772,7 +9769,7 @@
     </row>
     <row r="275" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B275" s="17">
         <v>1000</v>
@@ -9790,7 +9787,7 @@
         <v>46</v>
       </c>
       <c r="H275" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J275"/>
       <c r="K275" s="20"/>
@@ -9822,7 +9819,7 @@
         <v>16</v>
       </c>
       <c r="H276" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J276"/>
       <c r="K276" s="20"/>
@@ -9854,7 +9851,7 @@
         <v>82</v>
       </c>
       <c r="H277" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J277"/>
       <c r="K277" s="20"/>
@@ -9886,7 +9883,7 @@
         <v>16</v>
       </c>
       <c r="H278" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J278"/>
       <c r="K278" s="20"/>
@@ -9918,7 +9915,7 @@
         <v>77</v>
       </c>
       <c r="H279" s="11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J279"/>
       <c r="K279" s="20"/>
@@ -9932,7 +9929,7 @@
     </row>
     <row r="280" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B280" s="17">
         <v>371.7</v>
@@ -9950,7 +9947,7 @@
         <v>48</v>
       </c>
       <c r="H280" s="11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J280"/>
       <c r="K280" s="20"/>
@@ -9982,7 +9979,7 @@
         <v>82</v>
       </c>
       <c r="H281" s="11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J281"/>
       <c r="K281" s="20"/>
@@ -10014,7 +10011,7 @@
         <v>16</v>
       </c>
       <c r="H282" s="11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J282"/>
       <c r="K282" s="20"/>
@@ -10028,7 +10025,7 @@
     </row>
     <row r="283" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B283" s="17">
         <v>92.9</v>
@@ -10046,7 +10043,7 @@
         <v>47</v>
       </c>
       <c r="H283" s="11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J283"/>
       <c r="K283" s="20"/>
@@ -10060,7 +10057,7 @@
     </row>
     <row r="284" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B284" s="17">
         <v>836.2</v>
@@ -10078,7 +10075,7 @@
         <v>44</v>
       </c>
       <c r="H284" s="11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J284"/>
       <c r="K284" s="20"/>
@@ -10092,7 +10089,7 @@
     </row>
     <row r="285" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B285" s="17">
         <v>836.2</v>
@@ -10110,7 +10107,7 @@
         <v>46</v>
       </c>
       <c r="H285" s="11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J285"/>
       <c r="K285" s="20"/>
@@ -10124,7 +10121,7 @@
     </row>
     <row r="286" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B286" s="17">
         <v>116.1</v>
@@ -10139,10 +10136,10 @@
         <v>12</v>
       </c>
       <c r="G286" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H286" s="11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J286"/>
       <c r="K286" s="20"/>
@@ -10156,7 +10153,7 @@
     </row>
     <row r="287" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B287" s="17">
         <v>209.1</v>
@@ -10174,7 +10171,7 @@
         <v>44</v>
       </c>
       <c r="H287" s="11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J287"/>
       <c r="K287" s="20"/>
@@ -10188,7 +10185,7 @@
     </row>
     <row r="288" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B288" s="17">
         <v>209.1</v>
@@ -10206,7 +10203,7 @@
         <v>46</v>
       </c>
       <c r="H288" s="11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J288"/>
       <c r="K288" s="20"/>
@@ -10238,7 +10235,7 @@
         <v>82</v>
       </c>
       <c r="H289" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J289"/>
       <c r="K289" s="20"/>
@@ -10270,7 +10267,7 @@
         <v>16</v>
       </c>
       <c r="H290" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J290"/>
       <c r="K290" s="20"/>
@@ -10284,7 +10281,7 @@
     </row>
     <row r="291" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B291" s="17">
         <v>80</v>
@@ -10302,7 +10299,7 @@
         <v>44</v>
       </c>
       <c r="H291" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="J291"/>
       <c r="K291" s="20"/>
@@ -10316,7 +10313,7 @@
     </row>
     <row r="292" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B292" s="17">
         <v>80</v>
@@ -10334,7 +10331,7 @@
         <v>46</v>
       </c>
       <c r="H292" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="J292"/>
       <c r="K292" s="20"/>
@@ -10366,7 +10363,7 @@
         <v>82</v>
       </c>
       <c r="H293" s="11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J293"/>
       <c r="K293" s="20"/>
@@ -10398,7 +10395,7 @@
         <v>16</v>
       </c>
       <c r="H294" s="11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J294"/>
       <c r="K294" s="20"/>
@@ -10430,7 +10427,7 @@
         <v>30</v>
       </c>
       <c r="H295" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J295"/>
       <c r="K295" s="20"/>
@@ -10444,7 +10441,7 @@
     </row>
     <row r="296" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B296" s="17">
         <v>3</v>
@@ -10459,10 +10456,10 @@
         <v>12</v>
       </c>
       <c r="G296" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H296" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J296"/>
       <c r="K296" s="20"/>
@@ -10494,7 +10491,7 @@
         <v>82</v>
       </c>
       <c r="H297" s="11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J297"/>
       <c r="K297" s="20"/>
@@ -10526,7 +10523,7 @@
         <v>16</v>
       </c>
       <c r="H298" s="11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J298"/>
       <c r="K298" s="20"/>
@@ -10540,7 +10537,7 @@
     </row>
     <row r="299" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B299" s="17">
         <v>29</v>
@@ -10549,16 +10546,16 @@
         <v>18</v>
       </c>
       <c r="D299" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F299" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G299" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H299" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J299"/>
       <c r="K299" s="20"/>
@@ -10572,7 +10569,7 @@
     </row>
     <row r="300" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B300" s="17">
         <v>6075.6</v>
@@ -10590,7 +10587,7 @@
         <v>46</v>
       </c>
       <c r="H300" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J300"/>
       <c r="K300" s="20"/>
@@ -10622,7 +10619,7 @@
         <v>28</v>
       </c>
       <c r="H301" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J301"/>
       <c r="K301" s="20"/>
@@ -10636,7 +10633,7 @@
     </row>
     <row r="302" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B302" s="30">
         <v>7.7</v>
@@ -10651,10 +10648,10 @@
         <v>12</v>
       </c>
       <c r="G302" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H302" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J302"/>
       <c r="K302" s="20"/>
@@ -10717,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K305" s="13"/>
       <c r="L305" s="13"/>
@@ -10745,7 +10742,7 @@
         <v>11</v>
       </c>
       <c r="B307" s="15" t="s">
-        <v>522</v>
+        <v>62</v>
       </c>
       <c r="K307" s="13"/>
       <c r="L307" s="13"/>
@@ -10759,7 +10756,7 @@
         <v>4</v>
       </c>
       <c r="B308" s="17" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K308" s="13"/>
       <c r="L308" s="13"/>
@@ -10885,7 +10882,7 @@
     </row>
     <row r="314" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="17" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B314" s="12">
         <v>-12819.5</v>
@@ -10900,7 +10897,7 @@
         <v>12</v>
       </c>
       <c r="G314" s="12" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="J314"/>
       <c r="K314" s="20"/>
@@ -10914,13 +10911,13 @@
     </row>
     <row r="315" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="17" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B315" s="12">
         <v>-5134.3999999999996</v>
       </c>
       <c r="C315" s="12" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D315" s="12" t="s">
         <v>13</v>
@@ -10929,7 +10926,7 @@
         <v>12</v>
       </c>
       <c r="G315" s="17" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J315"/>
       <c r="K315" s="20"/>
@@ -10943,7 +10940,7 @@
     </row>
     <row r="316" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="12" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B316" s="12">
         <v>-160</v>
@@ -10958,7 +10955,7 @@
         <v>12</v>
       </c>
       <c r="G316" s="12" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J316"/>
       <c r="K316" s="20"/>
@@ -10972,13 +10969,13 @@
     </row>
     <row r="317" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="12" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B317" s="12">
         <v>-32</v>
       </c>
       <c r="C317" s="12" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D317" s="12" t="s">
         <v>13</v>
@@ -10987,7 +10984,7 @@
         <v>12</v>
       </c>
       <c r="G317" s="12" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="J317"/>
       <c r="K317" s="20"/>
@@ -11001,13 +10998,13 @@
     </row>
     <row r="318" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="12" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B318" s="12">
         <v>-14</v>
       </c>
       <c r="C318" s="12" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D318" s="12" t="s">
         <v>13</v>
@@ -11016,7 +11013,7 @@
         <v>12</v>
       </c>
       <c r="G318" s="12" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="J318"/>
       <c r="K318" s="20"/>
@@ -11030,7 +11027,7 @@
     </row>
     <row r="319" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="12" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B319" s="12">
         <v>-800</v>
@@ -11045,7 +11042,7 @@
         <v>12</v>
       </c>
       <c r="G319" s="12" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J319"/>
       <c r="K319" s="20"/>
@@ -11059,7 +11056,7 @@
     </row>
     <row r="320" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="12" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B320" s="12">
         <v>-468</v>
@@ -11074,7 +11071,7 @@
         <v>12</v>
       </c>
       <c r="G320" s="12" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="J320"/>
       <c r="K320" s="20"/>
@@ -11088,7 +11085,7 @@
     </row>
     <row r="321" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="12" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B321" s="12">
         <v>-716</v>
@@ -11103,7 +11100,7 @@
         <v>12</v>
       </c>
       <c r="G321" s="12" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J321"/>
       <c r="K321" s="20"/>
@@ -11117,7 +11114,7 @@
     </row>
     <row r="322" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="12" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B322" s="12">
         <v>-617</v>
@@ -11132,7 +11129,7 @@
         <v>12</v>
       </c>
       <c r="G322" s="12" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="J322"/>
       <c r="K322" s="20"/>
@@ -11146,13 +11143,13 @@
     </row>
     <row r="323" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B323" s="12">
         <v>-208</v>
       </c>
       <c r="C323" s="12" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D323" s="12" t="s">
         <v>13</v>
@@ -11161,7 +11158,7 @@
         <v>12</v>
       </c>
       <c r="G323" s="12" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="J323"/>
       <c r="K323" s="20"/>
@@ -11175,7 +11172,7 @@
     </row>
     <row r="324" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="12" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B324" s="12">
         <v>-18519</v>
@@ -11190,7 +11187,7 @@
         <v>12</v>
       </c>
       <c r="G324" s="12" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="J324"/>
       <c r="K324" s="20"/>
@@ -11216,7 +11213,7 @@
         <v>1</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C326" s="11"/>
       <c r="K326" s="13"/>
@@ -11245,7 +11242,7 @@
         <v>11</v>
       </c>
       <c r="B328" s="15" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="K328" s="13"/>
       <c r="L328" s="13"/>
@@ -11259,7 +11256,7 @@
         <v>4</v>
       </c>
       <c r="B329" s="16" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="K329" s="13"/>
       <c r="L329" s="13"/>
@@ -11359,7 +11356,7 @@
     </row>
     <row r="334" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="17" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B334" s="17">
         <v>1</v>
@@ -11377,7 +11374,7 @@
         <v>17</v>
       </c>
       <c r="G334" s="12" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="H334" s="11"/>
       <c r="I334" s="11"/>
@@ -11408,10 +11405,10 @@
         <v>12</v>
       </c>
       <c r="G335" s="12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H335" s="12" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="J335"/>
       <c r="K335" s="20"/>
@@ -11442,7 +11439,7 @@
         <v>12</v>
       </c>
       <c r="G336" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H336" s="12" t="s">
         <v>55</v>
@@ -11459,7 +11456,7 @@
     </row>
     <row r="337" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="17" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B337" s="12">
         <f>-1*B335</f>
@@ -11475,10 +11472,10 @@
         <v>12</v>
       </c>
       <c r="G337" s="12" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H337" s="12" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="J337"/>
       <c r="K337" s="20"/>
@@ -11492,7 +11489,7 @@
     </row>
     <row r="338" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="17" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B338" s="12">
         <f>-1*B336</f>
@@ -11508,10 +11505,10 @@
         <v>12</v>
       </c>
       <c r="G338" s="12" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H338" s="12" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="J338"/>
       <c r="K338" s="20"/>
@@ -11544,7 +11541,7 @@
         <v>38</v>
       </c>
       <c r="H339" s="11" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J339"/>
       <c r="K339" s="20"/>
@@ -11577,7 +11574,7 @@
         <v>59</v>
       </c>
       <c r="H340" s="11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="J340"/>
       <c r="K340" s="20"/>
@@ -11652,7 +11649,7 @@
     </row>
     <row r="343" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="48" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B343" s="49">
         <f>(0.02*1000)/(3776000/20)</f>
@@ -11660,16 +11657,16 @@
       </c>
       <c r="C343" s="48"/>
       <c r="D343" s="48" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="E343" s="48" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F343" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H343" s="48" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="I343" s="12">
         <v>2</v>
@@ -11716,7 +11713,7 @@
     </row>
     <row r="344" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="48" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B344" s="49">
         <f>(0.02*1000)/3776000</f>
@@ -11724,16 +11721,16 @@
       </c>
       <c r="C344" s="48"/>
       <c r="D344" s="48" t="s">
+        <v>517</v>
+      </c>
+      <c r="E344" s="48" t="s">
         <v>512</v>
-      </c>
-      <c r="E344" s="48" t="s">
-        <v>508</v>
       </c>
       <c r="F344" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H344" s="48" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="I344" s="12">
         <v>2</v>
@@ -11770,7 +11767,7 @@
     </row>
     <row r="345" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="48" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B345" s="49">
         <f>(0.02*1000)/3776000</f>
@@ -11778,16 +11775,16 @@
       </c>
       <c r="C345" s="48"/>
       <c r="D345" s="48" t="s">
+        <v>517</v>
+      </c>
+      <c r="E345" s="48" t="s">
         <v>512</v>
-      </c>
-      <c r="E345" s="48" t="s">
-        <v>508</v>
       </c>
       <c r="F345" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H345" s="48" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="I345" s="12">
         <v>2</v>
@@ -11836,7 +11833,7 @@
         <v>1</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C347" s="11"/>
       <c r="K347" s="13"/>
@@ -11865,7 +11862,7 @@
         <v>11</v>
       </c>
       <c r="B349" s="15" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="K349" s="13"/>
       <c r="L349" s="13"/>
@@ -11879,7 +11876,7 @@
         <v>4</v>
       </c>
       <c r="B350" s="16" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="K350" s="13"/>
       <c r="L350" s="13"/>
@@ -11979,7 +11976,7 @@
     </row>
     <row r="355" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="17" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B355" s="17">
         <v>1</v>
@@ -11997,7 +11994,7 @@
         <v>17</v>
       </c>
       <c r="G355" s="12" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="H355" s="11"/>
       <c r="I355" s="11"/>
@@ -12011,7 +12008,7 @@
     </row>
     <row r="356" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="17" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B356" s="12">
         <f>(1/3776000)*8</f>
@@ -12027,10 +12024,10 @@
         <v>12</v>
       </c>
       <c r="G356" s="12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H356" s="12" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="J356"/>
       <c r="K356" s="20"/>
@@ -12044,7 +12041,7 @@
     </row>
     <row r="357" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="17" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B357" s="12">
         <f>1/3776000</f>
@@ -12060,7 +12057,7 @@
         <v>12</v>
       </c>
       <c r="G357" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H357" s="12" t="s">
         <v>55</v>
@@ -12077,7 +12074,7 @@
     </row>
     <row r="358" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="17" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B358" s="12">
         <f>-1*B356</f>
@@ -12093,10 +12090,10 @@
         <v>12</v>
       </c>
       <c r="G358" s="12" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H358" s="12" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="J358"/>
       <c r="K358" s="20"/>
@@ -12110,7 +12107,7 @@
     </row>
     <row r="359" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="17" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B359" s="12">
         <f>-1*B357</f>
@@ -12126,10 +12123,10 @@
         <v>12</v>
       </c>
       <c r="G359" s="12" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H359" s="12" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="J359"/>
       <c r="K359" s="20"/>
@@ -12162,7 +12159,7 @@
         <v>38</v>
       </c>
       <c r="H360" s="11" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J360"/>
       <c r="K360" s="20"/>
@@ -12195,7 +12192,7 @@
         <v>59</v>
       </c>
       <c r="H361" s="11" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="J361"/>
       <c r="K361" s="20"/>
@@ -12270,7 +12267,7 @@
     </row>
     <row r="364" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="48" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B364" s="49">
         <f>(0.05*1000)/(3776000/20)</f>
@@ -12278,16 +12275,16 @@
       </c>
       <c r="C364" s="48"/>
       <c r="D364" s="48" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="E364" s="48" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F364" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H364" s="48" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="I364" s="12">
         <v>2</v>
@@ -12334,7 +12331,7 @@
     </row>
     <row r="365" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="48" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B365" s="49">
         <f>(0.05*1000)/3776000</f>
@@ -12342,16 +12339,16 @@
       </c>
       <c r="C365" s="48"/>
       <c r="D365" s="48" t="s">
+        <v>517</v>
+      </c>
+      <c r="E365" s="48" t="s">
         <v>512</v>
-      </c>
-      <c r="E365" s="48" t="s">
-        <v>508</v>
       </c>
       <c r="F365" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H365" s="48" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="I365" s="12">
         <v>2</v>
@@ -12388,7 +12385,7 @@
     </row>
     <row r="366" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="48" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B366" s="49">
         <f>(0.05*1000)/3776000</f>
@@ -12396,16 +12393,16 @@
       </c>
       <c r="C366" s="48"/>
       <c r="D366" s="48" t="s">
+        <v>517</v>
+      </c>
+      <c r="E366" s="48" t="s">
         <v>512</v>
-      </c>
-      <c r="E366" s="48" t="s">
-        <v>508</v>
       </c>
       <c r="F366" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H366" s="48" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="I366" s="12">
         <v>2</v>
@@ -12454,7 +12451,7 @@
         <v>1</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K368" s="13"/>
       <c r="L368" s="13"/>
@@ -12482,7 +12479,7 @@
         <v>11</v>
       </c>
       <c r="B370" s="15" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="K370" s="13"/>
       <c r="L370" s="13"/>
@@ -12496,7 +12493,7 @@
         <v>4</v>
       </c>
       <c r="B371" s="17" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K371" s="13"/>
       <c r="L371" s="13"/>
@@ -12640,7 +12637,7 @@
         <v>82</v>
       </c>
       <c r="H377" s="12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J377"/>
       <c r="K377" s="20"/>
@@ -12672,7 +12669,7 @@
         <v>16</v>
       </c>
       <c r="H378" s="12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J378"/>
       <c r="K378" s="20"/>
@@ -12686,7 +12683,7 @@
     </row>
     <row r="379" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B379" s="13">
         <v>9</v>
@@ -12701,10 +12698,10 @@
         <v>12</v>
       </c>
       <c r="G379" s="12" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H379" s="12" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J379"/>
       <c r="K379" s="20"/>
@@ -12718,7 +12715,7 @@
     </row>
     <row r="380" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B380" s="13">
         <v>7.5</v>
@@ -12733,10 +12730,10 @@
         <v>12</v>
       </c>
       <c r="G380" s="12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H380" s="12" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J380"/>
       <c r="K380" s="20"/>
@@ -12750,7 +12747,7 @@
     </row>
     <row r="381" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B381" s="13">
         <v>170.7</v>
@@ -12765,10 +12762,10 @@
         <v>12</v>
       </c>
       <c r="G381" s="12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H381" s="12" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J381"/>
       <c r="K381" s="20"/>
@@ -12782,7 +12779,7 @@
     </row>
     <row r="382" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="12" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B382" s="13">
         <v>14.8</v>
@@ -12797,10 +12794,10 @@
         <v>12</v>
       </c>
       <c r="G382" s="12" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H382" s="12" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J382"/>
       <c r="K382" s="20"/>
@@ -12814,7 +12811,7 @@
     </row>
     <row r="383" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="12" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B383" s="13">
         <v>91.5</v>
@@ -12829,10 +12826,10 @@
         <v>12</v>
       </c>
       <c r="G383" s="12" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H383" s="12" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J383"/>
       <c r="K383" s="20"/>
@@ -12846,7 +12843,7 @@
     </row>
     <row r="384" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="12" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B384" s="13">
         <v>22.9</v>
@@ -12861,10 +12858,10 @@
         <v>12</v>
       </c>
       <c r="G384" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H384" s="12" t="s">
         <v>199</v>
-      </c>
-      <c r="H384" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="J384"/>
       <c r="K384" s="20"/>
@@ -12878,7 +12875,7 @@
     </row>
     <row r="385" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="12" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B385" s="13">
         <f>42/2</f>
@@ -12894,10 +12891,10 @@
         <v>12</v>
       </c>
       <c r="G385" s="12" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H385" s="12" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="J385"/>
       <c r="K385" s="20"/>
@@ -12911,7 +12908,7 @@
     </row>
     <row r="386" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="12" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B386" s="13">
         <f>42/2</f>
@@ -12927,10 +12924,10 @@
         <v>12</v>
       </c>
       <c r="G386" s="12" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H386" s="12" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="J386"/>
       <c r="K386" s="20"/>
@@ -12944,13 +12941,13 @@
     </row>
     <row r="387" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="12" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B387" s="13">
         <v>6.4</v>
       </c>
       <c r="C387" s="12" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D387" s="12" t="s">
         <v>13</v>
@@ -12959,10 +12956,10 @@
         <v>12</v>
       </c>
       <c r="G387" s="12" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H387" s="12" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J387"/>
       <c r="K387" s="20"/>
@@ -12976,7 +12973,7 @@
     </row>
     <row r="388" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="12" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B388" s="13">
         <v>6.4</v>
@@ -12991,10 +12988,10 @@
         <v>12</v>
       </c>
       <c r="G388" s="12" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H388" s="12" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J388"/>
       <c r="K388" s="20"/>
@@ -13008,7 +13005,7 @@
     </row>
     <row r="389" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="12" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B389" s="13">
         <v>6.4</v>
@@ -13023,10 +13020,10 @@
         <v>12</v>
       </c>
       <c r="G389" s="12" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H389" s="12" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J389"/>
       <c r="K389" s="20"/>
@@ -13040,7 +13037,7 @@
     </row>
     <row r="390" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B390" s="13">
         <v>6.4</v>
@@ -13055,10 +13052,10 @@
         <v>12</v>
       </c>
       <c r="G390" s="12" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H390" s="12" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J390"/>
       <c r="K390" s="20"/>
@@ -13072,7 +13069,7 @@
     </row>
     <row r="391" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B391" s="13">
         <v>136.6</v>
@@ -13087,10 +13084,10 @@
         <v>12</v>
       </c>
       <c r="G391" s="12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H391" s="12" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J391"/>
       <c r="K391" s="20"/>
@@ -13150,7 +13147,7 @@
         <v>1</v>
       </c>
       <c r="B394" s="10" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K394" s="13"/>
       <c r="L394" s="13"/>
@@ -13178,7 +13175,7 @@
         <v>11</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>523</v>
+        <v>62</v>
       </c>
       <c r="K396" s="13"/>
       <c r="L396" s="13"/>
@@ -13192,7 +13189,7 @@
         <v>4</v>
       </c>
       <c r="B397" s="17" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K397" s="13"/>
       <c r="L397" s="13"/>
@@ -13318,7 +13315,7 @@
     </row>
     <row r="403" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" s="17" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B403" s="12">
         <v>-26928</v>
@@ -13333,7 +13330,7 @@
         <v>12</v>
       </c>
       <c r="G403" s="12" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="J403"/>
       <c r="K403" s="20"/>
@@ -13359,7 +13356,7 @@
         <v>1</v>
       </c>
       <c r="B405" s="10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K405" s="25"/>
       <c r="L405" s="26"/>
@@ -13387,7 +13384,7 @@
         <v>11</v>
       </c>
       <c r="B407" s="15" t="s">
-        <v>524</v>
+        <v>222</v>
       </c>
       <c r="K407" s="13"/>
       <c r="L407" s="26"/>
@@ -13401,7 +13398,7 @@
         <v>4</v>
       </c>
       <c r="B408" s="17" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K408" s="13"/>
       <c r="L408" s="13"/>
@@ -13548,7 +13545,7 @@
         <v>82</v>
       </c>
       <c r="H414" s="11" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="J414"/>
       <c r="K414" s="20"/>
@@ -13580,7 +13577,7 @@
         <v>16</v>
       </c>
       <c r="H415" s="11" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="J415"/>
       <c r="K415" s="20"/>
@@ -13612,7 +13609,7 @@
         <v>20</v>
       </c>
       <c r="H416" s="11" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J416"/>
       <c r="K416" s="20"/>
@@ -13644,7 +13641,7 @@
         <v>77</v>
       </c>
       <c r="H417" s="11" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J417"/>
       <c r="K417" s="20"/>
@@ -13658,7 +13655,7 @@
     </row>
     <row r="418" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B418" s="17">
         <f>180*5</f>
@@ -13677,7 +13674,7 @@
         <v>44</v>
       </c>
       <c r="H418" s="11" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J418"/>
       <c r="K418" s="20"/>
@@ -13691,7 +13688,7 @@
     </row>
     <row r="419" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B419" s="17">
         <f>15*5</f>
@@ -13710,7 +13707,7 @@
         <v>47</v>
       </c>
       <c r="H419" s="11" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J419"/>
       <c r="K419" s="20"/>
@@ -13724,7 +13721,7 @@
     </row>
     <row r="420" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A420" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B420" s="17">
         <f>45*5</f>
@@ -13743,7 +13740,7 @@
         <v>48</v>
       </c>
       <c r="H420" s="11" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J420"/>
       <c r="K420" s="20"/>
@@ -13757,7 +13754,7 @@
     </row>
     <row r="421" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B421" s="17">
         <f>600*5</f>
@@ -13773,10 +13770,10 @@
         <v>12</v>
       </c>
       <c r="G421" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H421" s="11" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="J421"/>
       <c r="K421" s="20"/>
@@ -13790,7 +13787,7 @@
     </row>
     <row r="422" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B422" s="17">
         <f>7*5</f>
@@ -13806,10 +13803,10 @@
         <v>12</v>
       </c>
       <c r="G422" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H422" s="11" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="J422"/>
       <c r="K422" s="20"/>
@@ -13823,7 +13820,7 @@
     </row>
     <row r="423" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A423" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B423" s="17">
         <f>1300*5</f>
@@ -13842,7 +13839,7 @@
         <v>44</v>
       </c>
       <c r="H423" s="11" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="J423"/>
       <c r="K423" s="20"/>
@@ -13875,7 +13872,7 @@
         <v>82</v>
       </c>
       <c r="H424" s="11" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="J424"/>
       <c r="K424" s="20"/>
@@ -13889,7 +13886,7 @@
     </row>
     <row r="425" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B425" s="17">
         <f>400*5</f>
@@ -13908,7 +13905,7 @@
         <v>46</v>
       </c>
       <c r="H425" s="11" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="J425"/>
       <c r="K425" s="20"/>
@@ -13941,7 +13938,7 @@
         <v>16</v>
       </c>
       <c r="H426" s="11" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="J426"/>
       <c r="K426" s="20"/>
@@ -13955,7 +13952,7 @@
     </row>
     <row r="427" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B427" s="17">
         <f>1000*5</f>
@@ -13974,7 +13971,7 @@
         <v>44</v>
       </c>
       <c r="H427" s="11" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J427"/>
       <c r="K427" s="20"/>
@@ -14007,7 +14004,7 @@
         <v>82</v>
       </c>
       <c r="H428" s="11" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J428"/>
       <c r="K428" s="20"/>
@@ -14021,7 +14018,7 @@
     </row>
     <row r="429" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A429" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B429" s="17">
         <f>1000*5</f>
@@ -14040,7 +14037,7 @@
         <v>46</v>
       </c>
       <c r="H429" s="11" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J429"/>
       <c r="K429" s="20"/>
@@ -14073,7 +14070,7 @@
         <v>16</v>
       </c>
       <c r="H430" s="11" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J430"/>
       <c r="K430" s="20"/>
@@ -14105,7 +14102,7 @@
         <v>20</v>
       </c>
       <c r="H431" s="11" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="J431"/>
       <c r="K431" s="20"/>
@@ -14137,7 +14134,7 @@
         <v>77</v>
       </c>
       <c r="H432" s="11" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="J432"/>
       <c r="K432" s="20"/>
@@ -14151,7 +14148,7 @@
     </row>
     <row r="433" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B433" s="17">
         <v>600</v>
@@ -14169,7 +14166,7 @@
         <v>44</v>
       </c>
       <c r="H433" s="11" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="J433"/>
       <c r="K433" s="20"/>
@@ -14201,7 +14198,7 @@
         <v>45</v>
       </c>
       <c r="H434" s="11" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="J434"/>
       <c r="K434" s="20"/>
@@ -14215,7 +14212,7 @@
     </row>
     <row r="435" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A435" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B435" s="17">
         <v>600</v>
@@ -14233,7 +14230,7 @@
         <v>46</v>
       </c>
       <c r="H435" s="11" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="J435"/>
       <c r="K435" s="20"/>
@@ -14247,7 +14244,7 @@
     </row>
     <row r="436" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B436" s="17">
         <v>100</v>
@@ -14265,7 +14262,7 @@
         <v>47</v>
       </c>
       <c r="H436" s="11" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="J436"/>
       <c r="K436" s="20"/>
@@ -14279,7 +14276,7 @@
     </row>
     <row r="437" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B437" s="17">
         <v>200</v>
@@ -14297,7 +14294,7 @@
         <v>48</v>
       </c>
       <c r="H437" s="11" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="J437"/>
       <c r="K437" s="20"/>
@@ -14329,7 +14326,7 @@
         <v>31</v>
       </c>
       <c r="H438" s="11" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J438"/>
       <c r="K438" s="20"/>
@@ -14362,7 +14359,7 @@
         <v>82</v>
       </c>
       <c r="H439" s="11" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="J439"/>
       <c r="K439" s="20"/>
@@ -14395,7 +14392,7 @@
         <v>16</v>
       </c>
       <c r="H440" s="11" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="J440"/>
       <c r="K440" s="20"/>
@@ -14427,7 +14424,7 @@
         <v>82</v>
       </c>
       <c r="H441" s="11" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="J441"/>
       <c r="K441" s="20"/>
@@ -14459,7 +14456,7 @@
         <v>16</v>
       </c>
       <c r="H442" s="11" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="J442"/>
       <c r="K442" s="20"/>
@@ -14492,7 +14489,7 @@
         <v>82</v>
       </c>
       <c r="H443" s="11" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J443"/>
       <c r="K443" s="20"/>
@@ -14525,7 +14522,7 @@
         <v>16</v>
       </c>
       <c r="H444" s="11" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J444"/>
       <c r="K444" s="20"/>
@@ -14558,7 +14555,7 @@
         <v>82</v>
       </c>
       <c r="H445" s="11" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="J445"/>
       <c r="K445" s="20"/>
@@ -14591,7 +14588,7 @@
         <v>16</v>
       </c>
       <c r="H446" s="11" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="J446"/>
       <c r="K446" s="20"/>
@@ -14605,7 +14602,7 @@
     </row>
     <row r="447" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A447" s="17" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B447" s="17">
         <f>0.4+1</f>
@@ -14621,10 +14618,10 @@
         <v>12</v>
       </c>
       <c r="G447" s="17" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H447" s="11" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J447"/>
       <c r="K447" s="20"/>
@@ -14638,7 +14635,7 @@
     </row>
     <row r="448" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B448" s="17">
         <f>0.4+1</f>
@@ -14654,10 +14651,10 @@
         <v>12</v>
       </c>
       <c r="G448" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H448" s="11" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J448"/>
       <c r="K448" s="20"/>
@@ -14671,7 +14668,7 @@
     </row>
     <row r="449" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A449" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B449" s="17">
         <f>0.4+1</f>
@@ -14690,7 +14687,7 @@
         <v>47</v>
       </c>
       <c r="H449" s="11" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J449"/>
       <c r="K449" s="20"/>
@@ -14723,7 +14720,7 @@
         <v>77</v>
       </c>
       <c r="H450" s="11" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J450"/>
       <c r="K450" s="20"/>
@@ -14737,7 +14734,7 @@
     </row>
     <row r="451" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A451" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B451" s="17">
         <f>0.9+1.9</f>
@@ -14756,7 +14753,7 @@
         <v>48</v>
       </c>
       <c r="H451" s="11" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J451"/>
       <c r="K451" s="20"/>
@@ -14770,7 +14767,7 @@
     </row>
     <row r="452" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A452" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B452" s="17">
         <f>2.7+5.8</f>
@@ -14789,7 +14786,7 @@
         <v>44</v>
       </c>
       <c r="H452" s="11" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J452"/>
       <c r="K452" s="20"/>
@@ -14803,7 +14800,7 @@
     </row>
     <row r="453" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A453" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B453" s="17">
         <f>2.7+5.8</f>
@@ -14822,7 +14819,7 @@
         <v>46</v>
       </c>
       <c r="H453" s="11" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J453"/>
       <c r="K453" s="20"/>
@@ -14836,7 +14833,7 @@
     </row>
     <row r="454" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A454" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B454" s="17">
         <f>92.3+359.8</f>
@@ -14855,7 +14852,7 @@
         <v>44</v>
       </c>
       <c r="H454" s="11" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="J454"/>
       <c r="K454" s="20"/>
@@ -14869,7 +14866,7 @@
     </row>
     <row r="455" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A455" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B455" s="17">
         <f>92.3+359.8</f>
@@ -14888,7 +14885,7 @@
         <v>46</v>
       </c>
       <c r="H455" s="11" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="J455"/>
       <c r="K455" s="20"/>
@@ -14902,7 +14899,7 @@
     </row>
     <row r="456" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A456" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B456" s="17">
         <v>399</v>
@@ -14920,7 +14917,7 @@
         <v>44</v>
       </c>
       <c r="H456" s="11" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J456"/>
       <c r="K456" s="20"/>
@@ -14934,7 +14931,7 @@
     </row>
     <row r="457" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B457" s="17">
         <v>399</v>
@@ -14952,7 +14949,7 @@
         <v>46</v>
       </c>
       <c r="H457" s="11" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J457"/>
       <c r="K457" s="20"/>
@@ -14966,7 +14963,7 @@
     </row>
     <row r="458" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A458" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B458" s="17">
         <v>7</v>
@@ -14984,7 +14981,7 @@
         <v>44</v>
       </c>
       <c r="H458" s="11" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="J458"/>
       <c r="K458" s="20"/>
@@ -14998,7 +14995,7 @@
     </row>
     <row r="459" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A459" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B459" s="17">
         <v>7</v>
@@ -15016,7 +15013,7 @@
         <v>46</v>
       </c>
       <c r="H459" s="11" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="J459"/>
       <c r="K459" s="20"/>
@@ -15048,7 +15045,7 @@
         <v>20</v>
       </c>
       <c r="H460" s="11" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J460"/>
       <c r="K460" s="20"/>
@@ -15080,7 +15077,7 @@
         <v>77</v>
       </c>
       <c r="H461" s="11" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J461"/>
       <c r="K461" s="20"/>
@@ -15094,7 +15091,7 @@
     </row>
     <row r="462" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A462" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B462" s="17">
         <v>3</v>
@@ -15109,10 +15106,10 @@
         <v>12</v>
       </c>
       <c r="G462" s="17" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H462" s="11" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J462"/>
       <c r="K462" s="20"/>
@@ -15126,7 +15123,7 @@
     </row>
     <row r="463" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A463" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B463" s="17">
         <v>0.2</v>
@@ -15144,7 +15141,7 @@
         <v>47</v>
       </c>
       <c r="H463" s="11" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J463"/>
       <c r="K463" s="20"/>
@@ -15158,7 +15155,7 @@
     </row>
     <row r="464" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A464" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B464" s="17">
         <v>0.7</v>
@@ -15176,7 +15173,7 @@
         <v>48</v>
       </c>
       <c r="H464" s="11" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J464"/>
       <c r="K464" s="20"/>
@@ -15208,7 +15205,7 @@
         <v>28</v>
       </c>
       <c r="H465" s="11" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J465"/>
       <c r="K465" s="20"/>
@@ -15222,7 +15219,7 @@
     </row>
     <row r="466" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A466" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B466" s="17">
         <v>1503.6</v>
@@ -15240,7 +15237,7 @@
         <v>46</v>
       </c>
       <c r="H466" s="11" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J466"/>
       <c r="K466" s="20"/>
@@ -15254,7 +15251,7 @@
     </row>
     <row r="467" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A467" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B467" s="17">
         <v>534</v>
@@ -15269,10 +15266,10 @@
         <v>12</v>
       </c>
       <c r="G467" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H467" s="11" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J467"/>
       <c r="K467" s="20"/>
@@ -15286,7 +15283,7 @@
     </row>
     <row r="468" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A468" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B468" s="17">
         <v>534</v>
@@ -15301,10 +15298,10 @@
         <v>12</v>
       </c>
       <c r="G468" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H468" s="11" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J468"/>
       <c r="K468" s="20"/>
@@ -15318,7 +15315,7 @@
     </row>
     <row r="469" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A469" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B469" s="17">
         <v>267</v>
@@ -15336,7 +15333,7 @@
         <v>44</v>
       </c>
       <c r="H469" s="11" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J469"/>
       <c r="K469" s="20"/>
@@ -15350,7 +15347,7 @@
     </row>
     <row r="470" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A470" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B470" s="17">
         <v>267</v>
@@ -15368,7 +15365,7 @@
         <v>46</v>
       </c>
       <c r="H470" s="11" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J470"/>
       <c r="K470" s="20"/>
@@ -15400,7 +15397,7 @@
         <v>82</v>
       </c>
       <c r="H471" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J471"/>
       <c r="K471" s="20"/>
@@ -15432,7 +15429,7 @@
         <v>16</v>
       </c>
       <c r="H472" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J472"/>
       <c r="K472" s="20"/>
@@ -15446,7 +15443,7 @@
     </row>
     <row r="473" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A473" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B473" s="17">
         <v>33.299999999999997</v>
@@ -15455,16 +15452,16 @@
         <v>18</v>
       </c>
       <c r="D473" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F473" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G473" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H473" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J473"/>
       <c r="K473" s="20"/>
@@ -15478,7 +15475,7 @@
     </row>
     <row r="474" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A474" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B474" s="17">
         <v>2250</v>
@@ -15496,7 +15493,7 @@
         <v>46</v>
       </c>
       <c r="H474" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J474"/>
       <c r="K474" s="20"/>
@@ -15510,7 +15507,7 @@
     </row>
     <row r="475" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A475" s="17" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B475" s="17">
         <v>2250</v>
@@ -15525,10 +15522,10 @@
         <v>12</v>
       </c>
       <c r="G475" s="17" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H475" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J475"/>
       <c r="K475" s="20"/>
@@ -15542,7 +15539,7 @@
     </row>
     <row r="476" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A476" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B476" s="17">
         <v>2.2999999999999998</v>
@@ -15557,10 +15554,10 @@
         <v>12</v>
       </c>
       <c r="G476" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H476" s="11" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="J476"/>
       <c r="K476" s="20"/>
@@ -15620,7 +15617,7 @@
         <v>1</v>
       </c>
       <c r="B479" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K479" s="13"/>
       <c r="L479" s="13"/>
@@ -15648,7 +15645,7 @@
         <v>11</v>
       </c>
       <c r="B481" s="15" t="s">
-        <v>524</v>
+        <v>62</v>
       </c>
       <c r="K481" s="13"/>
       <c r="L481" s="13"/>
@@ -15662,7 +15659,7 @@
         <v>4</v>
       </c>
       <c r="B482" s="17" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K482" s="13"/>
       <c r="L482" s="13"/>
@@ -15788,7 +15785,7 @@
     </row>
     <row r="488" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A488" s="17" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B488" s="12">
         <v>-20421</v>
@@ -15803,7 +15800,7 @@
         <v>12</v>
       </c>
       <c r="G488" s="12" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="J488"/>
       <c r="K488" s="20"/>
@@ -15817,13 +15814,13 @@
     </row>
     <row r="489" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A489" s="17" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B489" s="12">
         <v>-13730</v>
       </c>
       <c r="C489" s="12" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D489" s="12" t="s">
         <v>13</v>
@@ -15832,7 +15829,7 @@
         <v>12</v>
       </c>
       <c r="G489" s="17" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J489"/>
       <c r="K489" s="20"/>
@@ -15846,7 +15843,7 @@
     </row>
     <row r="490" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A490" s="12" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B490" s="12">
         <v>-401</v>
@@ -15861,7 +15858,7 @@
         <v>12</v>
       </c>
       <c r="G490" s="12" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J490"/>
       <c r="K490" s="20"/>
@@ -15875,13 +15872,13 @@
     </row>
     <row r="491" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A491" s="12" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B491" s="12">
         <v>-32</v>
       </c>
       <c r="C491" s="12" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D491" s="12" t="s">
         <v>13</v>
@@ -15890,7 +15887,7 @@
         <v>12</v>
       </c>
       <c r="G491" s="12" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="J491"/>
       <c r="K491" s="20"/>
@@ -15904,13 +15901,13 @@
     </row>
     <row r="492" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A492" s="12" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B492" s="12">
         <v>-14</v>
       </c>
       <c r="C492" s="12" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D492" s="12" t="s">
         <v>13</v>
@@ -15919,7 +15916,7 @@
         <v>12</v>
       </c>
       <c r="G492" s="12" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="J492"/>
       <c r="K492" s="20"/>
@@ -15933,7 +15930,7 @@
     </row>
     <row r="493" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="12" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B493" s="12">
         <v>-8</v>
@@ -15948,7 +15945,7 @@
         <v>12</v>
       </c>
       <c r="G493" s="12" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J493"/>
       <c r="K493" s="20"/>
@@ -15962,7 +15959,7 @@
     </row>
     <row r="494" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A494" s="12" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B494" s="12">
         <v>-534</v>
@@ -15977,7 +15974,7 @@
         <v>12</v>
       </c>
       <c r="G494" s="12" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="J494"/>
       <c r="K494" s="20"/>
@@ -15991,7 +15988,7 @@
     </row>
     <row r="495" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A495" s="12" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B495" s="12">
         <v>-3000</v>
@@ -16006,7 +16003,7 @@
         <v>12</v>
       </c>
       <c r="G495" s="12" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J495"/>
       <c r="K495" s="20"/>
@@ -16020,7 +16017,7 @@
     </row>
     <row r="496" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="12" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B496" s="12">
         <v>-429</v>
@@ -16035,7 +16032,7 @@
         <v>12</v>
       </c>
       <c r="G496" s="12" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="J496"/>
       <c r="K496" s="20"/>
@@ -16049,13 +16046,13 @@
     </row>
     <row r="497" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A497" s="12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B497" s="12">
         <v>-210</v>
       </c>
       <c r="C497" s="12" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D497" s="12" t="s">
         <v>13</v>
@@ -16064,7 +16061,7 @@
         <v>12</v>
       </c>
       <c r="G497" s="12" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="J497"/>
       <c r="K497" s="20"/>
@@ -16078,7 +16075,7 @@
     </row>
     <row r="498" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A498" s="12" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B498" s="12">
         <v>-5600</v>
@@ -16093,7 +16090,7 @@
         <v>12</v>
       </c>
       <c r="G498" s="12" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="J498"/>
       <c r="K498" s="20"/>
@@ -16125,8 +16122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D607540C-5A98-C943-82C9-9BA357D77C9A}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16140,49 +16137,49 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="37" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>480</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>445</v>
-      </c>
-      <c r="E4" s="58"/>
+        <v>484</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>449</v>
+      </c>
+      <c r="E4" s="54"/>
       <c r="F4" s="40" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B5" s="40">
         <v>7</v>
@@ -16190,31 +16187,31 @@
       <c r="C5" s="39">
         <v>5.5</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="55">
         <v>2.5</v>
       </c>
-      <c r="E5" s="60"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="39" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>449</v>
-      </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="51"/>
+        <v>453</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="41" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B7" s="40">
         <v>27.5</v>
@@ -16222,17 +16219,17 @@
       <c r="C7" s="39">
         <v>20</v>
       </c>
-      <c r="D7" s="59">
+      <c r="D7" s="55">
         <v>20</v>
       </c>
-      <c r="E7" s="60"/>
+      <c r="E7" s="56"/>
       <c r="F7" s="39" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B8" s="40">
         <v>3</v>
@@ -16240,31 +16237,31 @@
       <c r="C8" s="39">
         <v>3</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="55">
         <v>7</v>
       </c>
-      <c r="E8" s="60"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="39" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>481</v>
-      </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="51"/>
+        <v>485</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="41" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B10" s="40">
         <v>51.8</v>
@@ -16279,12 +16276,12 @@
         <v>39</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B11" s="43">
         <v>0.64500000000000002</v>
@@ -16299,12 +16296,12 @@
         <v>0.85</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B12" s="40"/>
       <c r="C12" s="45"/>
@@ -16313,12 +16310,12 @@
         <v>16</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B13" s="40">
         <v>19.36</v>
@@ -16329,92 +16326,92 @@
       <c r="D13" s="50">
         <v>23.6</v>
       </c>
-      <c r="E13" s="51"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="39" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B14" s="40">
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="C14" s="46"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="41" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
+        <v>468</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>471</v>
+      </c>
+      <c r="E15" s="52"/>
+      <c r="F15" s="39" t="s">
         <v>464</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>465</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>466</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>467</v>
-      </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="39" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>471</v>
-      </c>
-      <c r="E16" s="51"/>
+        <v>475</v>
+      </c>
+      <c r="E16" s="52"/>
       <c r="F16" s="39" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="113" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>474</v>
-      </c>
-      <c r="D17" s="54" t="s">
-        <v>475</v>
-      </c>
-      <c r="E17" s="55"/>
+        <v>478</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>479</v>
+      </c>
+      <c r="E17" s="60"/>
       <c r="F17" s="41" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16459,119 +16456,119 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="O3" s="31" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P3" s="31" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="R3" s="31" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="S3" s="31" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="T3" s="31" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="U3" s="31" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="V3" s="31" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="W3" s="31" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="X3" s="31" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Y3" s="31" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Z3" s="31" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AA3" s="31" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AB3" s="31" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AC3" s="31" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AD3" s="31" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AE3" s="31" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AF3" s="31" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AG3" s="31" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D4">
         <v>300</v>
@@ -16586,14 +16583,14 @@
         <v>616</v>
       </c>
       <c r="H4" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I4" s="32"/>
       <c r="J4">
         <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O4">
         <v>4.8499999999999996</v>
@@ -16632,18 +16629,18 @@
         <v>308.89999999999998</v>
       </c>
       <c r="AE4" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" t="s">
         <v>317</v>
-      </c>
-      <c r="B5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C5" t="s">
-        <v>313</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -16685,13 +16682,13 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F6">
         <v>2.4</v>
@@ -16700,7 +16697,7 @@
         <v>230</v>
       </c>
       <c r="H6" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I6" s="32">
         <v>0.125</v>
@@ -16709,7 +16706,7 @@
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M6">
         <v>5</v>
@@ -16754,18 +16751,18 @@
         <v>5</v>
       </c>
       <c r="AE6" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -16782,18 +16779,18 @@
         <v>0.4</v>
       </c>
       <c r="AE7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B8" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C8" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -16808,7 +16805,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I8" s="32">
         <v>0.42857142857142855</v>
@@ -16817,7 +16814,7 @@
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L8">
         <v>8500</v>
@@ -16854,18 +16851,18 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AE8" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B9" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C9" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -16885,18 +16882,18 @@
         <v>1.6</v>
       </c>
       <c r="AE9" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B10" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C10" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -16911,7 +16908,7 @@
         <v>400</v>
       </c>
       <c r="H10" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I10" s="32">
         <v>0.1</v>
@@ -16920,7 +16917,7 @@
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L10">
         <v>8700</v>
@@ -16976,7 +16973,7 @@
         <v>2</v>
       </c>
       <c r="AE10" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF10">
         <v>5</v>
@@ -16987,13 +16984,13 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B11" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C11" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -17008,7 +17005,7 @@
         <v>400</v>
       </c>
       <c r="H11" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I11" s="32">
         <v>0.1</v>
@@ -17017,7 +17014,7 @@
         <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L11">
         <v>8700</v>
@@ -17073,7 +17070,7 @@
         <v>2</v>
       </c>
       <c r="AE11" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF11">
         <v>5</v>
@@ -17084,13 +17081,13 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C12" t="s">
         <v>317</v>
-      </c>
-      <c r="B12" t="s">
-        <v>332</v>
-      </c>
-      <c r="C12" t="s">
-        <v>313</v>
       </c>
       <c r="F12">
         <v>13</v>
@@ -17132,13 +17129,13 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B13" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C13" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -17153,7 +17150,7 @@
         <v>400</v>
       </c>
       <c r="H13" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I13" s="32">
         <v>0.21428571428571427</v>
@@ -17162,7 +17159,7 @@
         <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L13">
         <v>8500</v>
@@ -17199,18 +17196,18 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AE13" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B14" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C14" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -17225,7 +17222,7 @@
         <v>400</v>
       </c>
       <c r="H14" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I14" s="32">
         <v>0.15</v>
@@ -17234,7 +17231,7 @@
         <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L14">
         <v>8500</v>
@@ -17271,18 +17268,18 @@
         <v>3.3</v>
       </c>
       <c r="AE14" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B15" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C15" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -17297,7 +17294,7 @@
         <v>400</v>
       </c>
       <c r="H15" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I15" s="32">
         <v>9.0909090909090912E-2</v>
@@ -17306,7 +17303,7 @@
         <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L15">
         <v>8700</v>
@@ -17362,7 +17359,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AE15" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF15">
         <v>5</v>
@@ -17373,13 +17370,13 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B16" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C16" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -17394,7 +17391,7 @@
         <v>400</v>
       </c>
       <c r="H16" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I16" s="32">
         <v>9.0909090909090912E-2</v>
@@ -17403,7 +17400,7 @@
         <v>3</v>
       </c>
       <c r="K16" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L16">
         <v>8700</v>
@@ -17459,7 +17456,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AE16" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF16">
         <v>5</v>
@@ -17470,13 +17467,13 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B17" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C17" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D17">
         <v>14</v>
@@ -17496,18 +17493,18 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AE17" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B18" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C18" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -17522,7 +17519,7 @@
         <v>400</v>
       </c>
       <c r="H18" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I18" s="32">
         <v>0.1111111111111111</v>
@@ -17531,7 +17528,7 @@
         <v>40</v>
       </c>
       <c r="K18" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L18">
         <v>8500</v>
@@ -17568,18 +17565,18 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AE18" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B19" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C19" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -17594,7 +17591,7 @@
         <v>400</v>
       </c>
       <c r="H19" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I19" s="32">
         <v>0.5357142857142857</v>
@@ -17603,7 +17600,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L19">
         <v>8410</v>
@@ -17651,18 +17648,18 @@
         <v>5</v>
       </c>
       <c r="AE19" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B20" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C20" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -17677,7 +17674,7 @@
         <v>400</v>
       </c>
       <c r="H20" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I20" s="32">
         <v>9.0909090909090912E-2</v>
@@ -17686,7 +17683,7 @@
         <v>40</v>
       </c>
       <c r="K20" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L20">
         <v>8500</v>
@@ -17723,18 +17720,18 @@
         <v>5.6</v>
       </c>
       <c r="AE20" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>321</v>
+      </c>
+      <c r="B21" t="s">
+        <v>346</v>
+      </c>
+      <c r="C21" t="s">
         <v>317</v>
-      </c>
-      <c r="B21" t="s">
-        <v>342</v>
-      </c>
-      <c r="C21" t="s">
-        <v>313</v>
       </c>
       <c r="F21">
         <v>35</v>
@@ -17776,13 +17773,13 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B22" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C22" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -17797,7 +17794,7 @@
         <v>400</v>
       </c>
       <c r="H22" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I22" s="32">
         <v>9.3023255813953487E-2</v>
@@ -17806,7 +17803,7 @@
         <v>3</v>
       </c>
       <c r="K22" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L22">
         <v>8700</v>
@@ -17862,7 +17859,7 @@
         <v>8.9</v>
       </c>
       <c r="AE22" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF22">
         <v>5</v>
@@ -17873,13 +17870,13 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B23" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C23" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -17894,7 +17891,7 @@
         <v>400</v>
       </c>
       <c r="H23" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I23" s="32">
         <v>9.3023255813953487E-2</v>
@@ -17903,7 +17900,7 @@
         <v>3</v>
       </c>
       <c r="K23" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L23">
         <v>8700</v>
@@ -17959,7 +17956,7 @@
         <v>8.9</v>
       </c>
       <c r="AE23" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF23">
         <v>5</v>
@@ -17970,19 +17967,19 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B24" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C24" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F24">
         <v>50</v>
       </c>
       <c r="H24" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I24" s="32"/>
       <c r="O24">
@@ -18009,13 +18006,13 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B25" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C25" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -18030,7 +18027,7 @@
         <v>400</v>
       </c>
       <c r="H25" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I25" s="32">
         <v>0.11666666666666667</v>
@@ -18039,7 +18036,7 @@
         <v>15</v>
       </c>
       <c r="K25" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L25">
         <v>8650</v>
@@ -18095,7 +18092,7 @@
         <v>9.9</v>
       </c>
       <c r="AE25" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AF25">
         <v>5</v>
@@ -18106,13 +18103,13 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B26" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C26" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D26">
         <v>18</v>
@@ -18132,18 +18129,18 @@
         <v>10</v>
       </c>
       <c r="AE26" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B27" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C27" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -18158,7 +18155,7 @@
         <v>400</v>
       </c>
       <c r="H27" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I27" s="32">
         <v>9.3023255813953487E-2</v>
@@ -18167,7 +18164,7 @@
         <v>3</v>
       </c>
       <c r="K27" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L27">
         <v>8700</v>
@@ -18223,7 +18220,7 @@
         <v>17.8</v>
       </c>
       <c r="AE27" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF27">
         <v>5</v>
@@ -18234,13 +18231,13 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B28" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C28" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -18255,7 +18252,7 @@
         <v>400</v>
       </c>
       <c r="H28" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I28" s="32">
         <v>9.3023255813953487E-2</v>
@@ -18264,7 +18261,7 @@
         <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L28">
         <v>8700</v>
@@ -18320,7 +18317,7 @@
         <v>17.8</v>
       </c>
       <c r="AE28" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF28">
         <v>5</v>
@@ -18331,19 +18328,19 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B29" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C29" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F29">
         <v>100</v>
       </c>
       <c r="H29" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I29" s="32"/>
       <c r="O29">
@@ -18370,13 +18367,13 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>321</v>
+      </c>
+      <c r="B30" t="s">
+        <v>356</v>
+      </c>
+      <c r="C30" t="s">
         <v>317</v>
-      </c>
-      <c r="B30" t="s">
-        <v>352</v>
-      </c>
-      <c r="C30" t="s">
-        <v>313</v>
       </c>
       <c r="F30">
         <v>100</v>
@@ -18418,13 +18415,13 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B31" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C31" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D31">
         <v>12</v>
@@ -18439,7 +18436,7 @@
         <v>400</v>
       </c>
       <c r="H31" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I31" s="32">
         <v>6.6666666666666666E-2</v>
@@ -18448,7 +18445,7 @@
         <v>40</v>
       </c>
       <c r="K31" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L31">
         <v>8600</v>
@@ -18470,18 +18467,18 @@
         <v>19.399999999999999</v>
       </c>
       <c r="AE31" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B32" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C32" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D32">
         <v>10</v>
@@ -18496,7 +18493,7 @@
         <v>400</v>
       </c>
       <c r="H32" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I32" s="32">
         <v>0.13636363636363635</v>
@@ -18505,7 +18502,7 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L32">
         <v>8410</v>
@@ -18553,18 +18550,18 @@
         <v>20</v>
       </c>
       <c r="AE32" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B33" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C33" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D33">
         <v>46</v>
@@ -18573,13 +18570,13 @@
         <v>115</v>
       </c>
       <c r="H33" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I33" s="32">
         <v>0.46956521739130436</v>
       </c>
       <c r="K33" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M33">
         <v>-20</v>
@@ -18609,18 +18606,18 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="AE33" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B34" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C34" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D34">
         <v>20</v>
@@ -18635,7 +18632,7 @@
         <v>400</v>
       </c>
       <c r="H34" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I34" s="32">
         <v>5.8333333333333334E-2</v>
@@ -18644,7 +18641,7 @@
         <v>15</v>
       </c>
       <c r="K34" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L34">
         <v>8650</v>
@@ -18700,7 +18697,7 @@
         <v>19.8</v>
       </c>
       <c r="AE34" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AF34">
         <v>5</v>
@@ -18711,13 +18708,13 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B35" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C35" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D35">
         <v>21</v>
@@ -18732,14 +18729,14 @@
         <v>300</v>
       </c>
       <c r="H35" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I35" s="32"/>
       <c r="J35">
         <v>10</v>
       </c>
       <c r="K35" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O35">
         <v>4.83</v>
@@ -18778,18 +18775,18 @@
         <v>21.1</v>
       </c>
       <c r="AE35" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B36" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C36" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D36">
         <v>62</v>
@@ -18798,13 +18795,13 @@
         <v>155</v>
       </c>
       <c r="H36" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I36" s="32">
         <v>0.34838709677419355</v>
       </c>
       <c r="K36" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M36">
         <v>-20</v>
@@ -18834,18 +18831,18 @@
         <v>14.8</v>
       </c>
       <c r="AE36" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B37" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C37" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -18860,7 +18857,7 @@
         <v>400</v>
       </c>
       <c r="H37" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I37" s="32">
         <v>9.2485549132947972E-2</v>
@@ -18869,7 +18866,7 @@
         <v>3</v>
       </c>
       <c r="K37" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L37">
         <v>8700</v>
@@ -18925,7 +18922,7 @@
         <v>35.6</v>
       </c>
       <c r="AE37" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF37">
         <v>5</v>
@@ -18936,13 +18933,13 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B38" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C38" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -18957,7 +18954,7 @@
         <v>400</v>
       </c>
       <c r="H38" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I38" s="32">
         <v>9.2485549132947972E-2</v>
@@ -18966,7 +18963,7 @@
         <v>3</v>
       </c>
       <c r="K38" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L38">
         <v>8700</v>
@@ -19022,7 +19019,7 @@
         <v>35.6</v>
       </c>
       <c r="AE38" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF38">
         <v>5</v>
@@ -19033,13 +19030,13 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B39" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C39" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D39">
         <v>30</v>
@@ -19054,7 +19051,7 @@
         <v>400</v>
       </c>
       <c r="H39" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I39" s="32">
         <v>0.15555555555555556</v>
@@ -19063,7 +19060,7 @@
         <v>15</v>
       </c>
       <c r="K39" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L39">
         <v>8650</v>
@@ -19119,7 +19116,7 @@
         <v>29.7</v>
       </c>
       <c r="AE39" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AF39">
         <v>5</v>
@@ -19130,13 +19127,13 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B40" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C40" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D40">
         <v>24</v>
@@ -19151,7 +19148,7 @@
         <v>400</v>
       </c>
       <c r="H40" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I40" s="32">
         <v>6.6666666666666666E-2</v>
@@ -19160,7 +19157,7 @@
         <v>40</v>
       </c>
       <c r="K40" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L40">
         <v>8600</v>
@@ -19182,18 +19179,18 @@
         <v>38.9</v>
       </c>
       <c r="AE40" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B41" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C41" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D41">
         <v>20</v>
@@ -19208,7 +19205,7 @@
         <v>400</v>
       </c>
       <c r="H41" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I41" s="32">
         <v>5.8333333333333334E-2</v>
@@ -19217,7 +19214,7 @@
         <v>15</v>
       </c>
       <c r="K41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L41">
         <v>8650</v>
@@ -19273,7 +19270,7 @@
         <v>39.6</v>
       </c>
       <c r="AE41" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AF41">
         <v>5</v>
@@ -19284,13 +19281,13 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B42" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C42" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D42">
         <v>110</v>
@@ -19299,13 +19296,13 @@
         <v>275</v>
       </c>
       <c r="H42" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I42" s="32">
         <v>0.19636363636363635</v>
       </c>
       <c r="K42" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M42">
         <v>-20</v>
@@ -19327,18 +19324,18 @@
         <v>29.6</v>
       </c>
       <c r="AE42" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B43" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C43" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D43">
         <v>40</v>
@@ -19353,7 +19350,7 @@
         <v>400</v>
       </c>
       <c r="H43" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I43" s="32">
         <v>4.2424242424242427E-2</v>
@@ -19362,7 +19359,7 @@
         <v>30</v>
       </c>
       <c r="K43" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L43">
         <v>8322</v>
@@ -19390,18 +19387,18 @@
         <v>47</v>
       </c>
       <c r="AE43" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C44" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D44">
         <v>30</v>
@@ -19416,7 +19413,7 @@
         <v>400</v>
       </c>
       <c r="H44" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I44" s="32">
         <v>3.888888888888889E-2</v>
@@ -19425,7 +19422,7 @@
         <v>15</v>
       </c>
       <c r="K44" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L44">
         <v>8650</v>
@@ -19481,7 +19478,7 @@
         <v>59.3</v>
       </c>
       <c r="AE44" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AF44">
         <v>5</v>
@@ -19492,13 +19489,13 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B45" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C45" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D45">
         <v>48</v>
@@ -19513,7 +19510,7 @@
         <v>400</v>
       </c>
       <c r="H45" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I45" s="32">
         <v>6.4285714285714279E-2</v>
@@ -19522,7 +19519,7 @@
         <v>40</v>
       </c>
       <c r="K45" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L45">
         <v>8600</v>
@@ -19544,24 +19541,24 @@
         <v>77.8</v>
       </c>
       <c r="AE45" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B46" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C46" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F46">
         <v>500</v>
       </c>
       <c r="H46" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I46" s="32"/>
       <c r="O46">
@@ -19588,13 +19585,13 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B47" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C47" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D47">
         <v>15</v>
@@ -19609,11 +19606,11 @@
         <v>400</v>
       </c>
       <c r="H47" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I47" s="32"/>
       <c r="K47" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M47">
         <v>-15</v>
@@ -19660,7 +19657,7 @@
         <v>103.3</v>
       </c>
       <c r="AE47" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF47">
         <v>5</v>
@@ -19671,13 +19668,13 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B48" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C48" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D48">
         <v>45</v>
@@ -19692,7 +19689,7 @@
         <v>400</v>
       </c>
       <c r="H48" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I48" s="32">
         <v>2.5925925925925925E-2</v>
@@ -19701,7 +19698,7 @@
         <v>15</v>
       </c>
       <c r="K48" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L48">
         <v>8650</v>
@@ -19757,7 +19754,7 @@
         <v>89</v>
       </c>
       <c r="AE48" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AF48">
         <v>5</v>
@@ -19768,13 +19765,13 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B49" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C49" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D49">
         <v>220</v>
@@ -19783,13 +19780,13 @@
         <v>550</v>
       </c>
       <c r="H49" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I49" s="32">
         <v>0.16181818181818181</v>
       </c>
       <c r="K49" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M49">
         <v>-20</v>
@@ -19819,18 +19816,18 @@
         <v>60.2</v>
       </c>
       <c r="AE49" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B50" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C50" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D50">
         <v>270</v>
@@ -19839,13 +19836,13 @@
         <v>675</v>
       </c>
       <c r="H50" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I50" s="32">
         <v>0.13185185185185186</v>
       </c>
       <c r="K50" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M50">
         <v>-20</v>
@@ -19867,18 +19864,18 @@
         <v>74.099999999999994</v>
       </c>
       <c r="AE50" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B51" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C51" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F51">
         <v>700</v>
@@ -19887,14 +19884,14 @@
         <v>400</v>
       </c>
       <c r="H51" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I51" s="32"/>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="R51" s="34"/>
       <c r="AA51">
@@ -19910,18 +19907,18 @@
         <v>122.2</v>
       </c>
       <c r="AE51" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B52" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C52" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D52">
         <v>60</v>
@@ -19936,7 +19933,7 @@
         <v>400</v>
       </c>
       <c r="H52" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I52" s="32">
         <v>1.9444444444444445E-2</v>
@@ -19945,7 +19942,7 @@
         <v>15</v>
       </c>
       <c r="K52" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L52">
         <v>8650</v>
@@ -20001,7 +19998,7 @@
         <v>118.7</v>
       </c>
       <c r="AE52" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AF52">
         <v>5</v>
@@ -20012,13 +20009,13 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B53" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C53" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D53">
         <v>40</v>
@@ -20027,13 +20024,13 @@
         <v>788</v>
       </c>
       <c r="H53" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I53" s="32">
         <v>0.2512690355329949</v>
       </c>
       <c r="K53" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M53">
         <v>-20</v>
@@ -20066,18 +20063,18 @@
         <v>199.5</v>
       </c>
       <c r="AE53" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B54" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C54" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D54">
         <v>320</v>
@@ -20086,13 +20083,13 @@
         <v>800</v>
       </c>
       <c r="H54" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I54" s="32">
         <v>0.11125</v>
       </c>
       <c r="K54" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M54">
         <v>-20</v>
@@ -20114,18 +20111,18 @@
         <v>99.5</v>
       </c>
       <c r="AE54" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B55" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C55" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D55">
         <v>200</v>
@@ -20140,7 +20137,7 @@
         <v>400</v>
       </c>
       <c r="H55" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I55" s="32">
         <v>3.111111111111111E-2</v>
@@ -20149,7 +20146,7 @@
         <v>15</v>
       </c>
       <c r="K55" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L55">
         <v>8650</v>
@@ -20205,7 +20202,7 @@
         <v>148.30000000000001</v>
       </c>
       <c r="AE55" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AF55">
         <v>5</v>
@@ -20216,19 +20213,19 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B56" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C56" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F56">
         <v>1000</v>
       </c>
       <c r="H56" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I56" s="32"/>
       <c r="O56">
@@ -20255,13 +20252,13 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B57" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C57" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D57">
         <v>300</v>
@@ -20276,7 +20273,7 @@
         <v>10</v>
       </c>
       <c r="H57" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I57" s="32">
         <v>7.0000000000000007E-2</v>
@@ -20285,7 +20282,7 @@
         <v>20</v>
       </c>
       <c r="K57" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L57">
         <v>8568</v>
@@ -20344,7 +20341,7 @@
         <v>186.9</v>
       </c>
       <c r="AE57" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF57">
         <v>5</v>
@@ -20355,13 +20352,13 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B58" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C58" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D58">
         <v>30</v>
@@ -20376,11 +20373,11 @@
         <v>400</v>
       </c>
       <c r="H58" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I58" s="32"/>
       <c r="K58" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M58">
         <v>-15</v>
@@ -20427,7 +20424,7 @@
         <v>207.8</v>
       </c>
       <c r="AE58" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF58">
         <v>5</v>
@@ -20438,13 +20435,13 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B59" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C59" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D59">
         <v>49</v>
@@ -20453,13 +20450,13 @@
         <v>988</v>
       </c>
       <c r="H59" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I59" s="32">
         <v>0.20040485829959515</v>
       </c>
       <c r="K59" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M59">
         <v>-20</v>
@@ -20492,18 +20489,18 @@
         <v>249.5</v>
       </c>
       <c r="AE59" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B60" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C60" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F60">
         <v>1000</v>
@@ -20512,7 +20509,7 @@
         <v>400</v>
       </c>
       <c r="H60" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I60" s="32"/>
       <c r="J60">
@@ -20554,13 +20551,13 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B61" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C61" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F61">
         <v>1000</v>
@@ -20610,13 +20607,13 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B62" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C62" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D62">
         <v>50</v>
@@ -20631,7 +20628,7 @@
         <v>400</v>
       </c>
       <c r="H62" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I62" s="32">
         <v>4.4999999999999998E-2</v>
@@ -20640,7 +20637,7 @@
         <v>30</v>
       </c>
       <c r="K62" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L62">
         <v>8322</v>
@@ -20676,7 +20673,7 @@
         <v>200</v>
       </c>
       <c r="AE62" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF62">
         <v>5</v>
@@ -20687,13 +20684,13 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B63" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C63" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D63">
         <v>30</v>
@@ -20708,7 +20705,7 @@
         <v>400</v>
       </c>
       <c r="H63" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I63" s="32">
         <v>2.8071833648393194E-2</v>
@@ -20717,7 +20714,7 @@
         <v>3</v>
       </c>
       <c r="K63" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M63">
         <v>5</v>
@@ -20762,18 +20759,18 @@
         <v>208.3</v>
       </c>
       <c r="AE63" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B64" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C64" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F64">
         <v>1100</v>
@@ -20782,7 +20779,7 @@
         <v>480</v>
       </c>
       <c r="H64" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I64" s="32">
         <v>4.2237818181818189E-2</v>
@@ -20805,13 +20802,13 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B65" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C65" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F65">
         <v>1100</v>
@@ -20820,7 +20817,7 @@
         <v>480</v>
       </c>
       <c r="H65" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I65" s="32">
         <v>4.2237818181818189E-2</v>
@@ -20847,13 +20844,13 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B66" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C66" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D66">
         <v>100</v>
@@ -20868,7 +20865,7 @@
         <v>400</v>
       </c>
       <c r="H66" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I66" s="32">
         <v>2.7272727272727271E-2</v>
@@ -20877,7 +20874,7 @@
         <v>3</v>
       </c>
       <c r="K66" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L66">
         <v>8410</v>
@@ -20925,18 +20922,18 @@
         <v>200</v>
       </c>
       <c r="AE66" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B67" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C67" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D67">
         <v>131</v>
@@ -20951,7 +20948,7 @@
         <v>400</v>
       </c>
       <c r="H67" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I67" s="32">
         <v>4.7619047619047616E-2</v>
@@ -20960,7 +20957,7 @@
         <v>40</v>
       </c>
       <c r="K67" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L67">
         <v>8600</v>
@@ -20982,18 +20979,18 @@
         <v>222.2</v>
       </c>
       <c r="AE67" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B68" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C68" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D68">
         <v>200</v>
@@ -21008,7 +21005,7 @@
         <v>400</v>
       </c>
       <c r="H68" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I68" s="32">
         <v>2.3333333333333334E-2</v>
@@ -21017,7 +21014,7 @@
         <v>15</v>
       </c>
       <c r="K68" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L68">
         <v>8650</v>
@@ -21073,7 +21070,7 @@
         <v>197.8</v>
       </c>
       <c r="AE68" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AF68">
         <v>5</v>
@@ -21084,13 +21081,13 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B69" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C69" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F69">
         <v>1390</v>
@@ -21099,11 +21096,11 @@
         <v>11000</v>
       </c>
       <c r="H69" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I69" s="32"/>
       <c r="K69" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="R69" s="34"/>
       <c r="AA69">
@@ -21119,18 +21116,18 @@
         <v>244.4</v>
       </c>
       <c r="AE69" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B70" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C70" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D70">
         <v>200</v>
@@ -21145,7 +21142,7 @@
         <v>568</v>
       </c>
       <c r="H70" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I70" s="32">
         <v>0.02</v>
@@ -21154,7 +21151,7 @@
         <v>30</v>
       </c>
       <c r="K70" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L70">
         <v>8322</v>
@@ -21182,18 +21179,18 @@
         <v>210</v>
       </c>
       <c r="AE70" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C71" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D71">
         <v>300</v>
@@ -21208,7 +21205,7 @@
         <v>10</v>
       </c>
       <c r="H71" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I71" s="32">
         <v>7.0000000000000007E-2</v>
@@ -21217,7 +21214,7 @@
         <v>5</v>
       </c>
       <c r="K71" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L71">
         <v>8410</v>
@@ -21276,7 +21273,7 @@
         <v>280.3</v>
       </c>
       <c r="AE71" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF71">
         <v>5</v>
@@ -21287,13 +21284,13 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B72" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C72" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D72">
         <v>79</v>
@@ -21302,13 +21299,13 @@
         <v>1580</v>
       </c>
       <c r="H72" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I72" s="32">
         <v>0.12531645569620253</v>
       </c>
       <c r="K72" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M72">
         <v>-20</v>
@@ -21341,18 +21338,18 @@
         <v>399.1</v>
       </c>
       <c r="AE72" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B73" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C73" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D73">
         <v>200</v>
@@ -21367,7 +21364,7 @@
         <v>400</v>
       </c>
       <c r="H73" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I73" s="32">
         <v>1.5555555555555555E-2</v>
@@ -21376,7 +21373,7 @@
         <v>15</v>
       </c>
       <c r="K73" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L73">
         <v>8650</v>
@@ -21432,7 +21429,7 @@
         <v>296.7</v>
       </c>
       <c r="AE73" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AF73">
         <v>5</v>
@@ -21443,13 +21440,13 @@
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B74" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C74" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D74">
         <v>99</v>
@@ -21458,13 +21455,13 @@
         <v>1975</v>
       </c>
       <c r="H74" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I74" s="32">
         <v>0.10025316455696202</v>
       </c>
       <c r="K74" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M74">
         <v>-20</v>
@@ -21497,18 +21494,18 @@
         <v>500</v>
       </c>
       <c r="AE74" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B75" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C75" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D75">
         <v>200</v>
@@ -21523,7 +21520,7 @@
         <v>400</v>
       </c>
       <c r="H75" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I75" s="32">
         <v>0.15</v>
@@ -21532,7 +21529,7 @@
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L75">
         <v>8600</v>
@@ -21571,24 +21568,24 @@
         <v>400</v>
       </c>
       <c r="AE75" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B76" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C76" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F76">
         <v>2000</v>
       </c>
       <c r="H76" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I76" s="32"/>
       <c r="O76">
@@ -21615,13 +21612,13 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B77" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C77" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D77">
         <v>300</v>
@@ -21636,7 +21633,7 @@
         <v>10</v>
       </c>
       <c r="H77" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I77" s="32">
         <v>5.2499999999999998E-2</v>
@@ -21645,7 +21642,7 @@
         <v>20</v>
       </c>
       <c r="K77" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L77">
         <v>8568</v>
@@ -21704,7 +21701,7 @@
         <v>373.8</v>
       </c>
       <c r="AE77" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF77">
         <v>5</v>
@@ -21715,13 +21712,13 @@
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B78" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C78" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F78">
         <v>2350</v>
@@ -21730,11 +21727,11 @@
         <v>11000</v>
       </c>
       <c r="H78" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I78" s="32"/>
       <c r="K78" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="R78" s="34"/>
       <c r="AA78">
@@ -21750,18 +21747,18 @@
         <v>400</v>
       </c>
       <c r="AE78" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B79" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C79" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D79">
         <v>200</v>
@@ -21776,7 +21773,7 @@
         <v>400</v>
       </c>
       <c r="H79" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I79" s="32">
         <v>1.1666666666666667E-2</v>
@@ -21785,7 +21782,7 @@
         <v>15</v>
       </c>
       <c r="K79" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L79">
         <v>8650</v>
@@ -21841,7 +21838,7 @@
         <v>395.6</v>
       </c>
       <c r="AE79" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AF79">
         <v>5</v>
@@ -21852,13 +21849,13 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B80" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C80" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D80">
         <v>135</v>
@@ -21867,7 +21864,7 @@
         <v>2475</v>
       </c>
       <c r="H80" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I80" s="32">
         <v>0.12121212121212122</v>
@@ -21905,13 +21902,13 @@
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B81" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C81" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D81">
         <v>125</v>
@@ -21926,7 +21923,7 @@
         <v>400</v>
       </c>
       <c r="H81" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I81" s="32">
         <v>2.4E-2</v>
@@ -21935,7 +21932,7 @@
         <v>30</v>
       </c>
       <c r="K81" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L81">
         <v>8322</v>
@@ -21963,7 +21960,7 @@
         <v>500</v>
       </c>
       <c r="AE81" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF81">
         <v>5</v>
@@ -21974,13 +21971,13 @@
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B82" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C82" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D82">
         <v>300</v>
@@ -21995,7 +21992,7 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I82" s="32">
         <v>3.5000000000000003E-2</v>
@@ -22004,7 +22001,7 @@
         <v>5</v>
       </c>
       <c r="K82" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L82">
         <v>8568</v>
@@ -22063,7 +22060,7 @@
         <v>560.70000000000005</v>
       </c>
       <c r="AE82" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF82">
         <v>5</v>
@@ -22074,13 +22071,13 @@
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B83" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C83" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D83">
         <v>300</v>
@@ -22095,7 +22092,7 @@
         <v>400</v>
       </c>
       <c r="H83" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I83" s="32">
         <v>0.1</v>
@@ -22104,7 +22101,7 @@
         <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L83">
         <v>8600</v>
@@ -22143,18 +22140,18 @@
         <v>600</v>
       </c>
       <c r="AE83" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B84" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C84" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D84">
         <v>400</v>
@@ -22169,7 +22166,7 @@
         <v>400</v>
       </c>
       <c r="H84" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I84" s="32">
         <v>0.1</v>
@@ -22178,7 +22175,7 @@
         <v>1</v>
       </c>
       <c r="K84" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L84">
         <v>8600</v>
@@ -22217,24 +22214,24 @@
         <v>800</v>
       </c>
       <c r="AE84" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B85" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C85" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F85">
         <v>4000</v>
       </c>
       <c r="H85" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I85" s="32"/>
       <c r="O85">
@@ -22261,13 +22258,13 @@
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B86" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C86" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D86">
         <v>500</v>
@@ -22282,7 +22279,7 @@
         <v>400</v>
       </c>
       <c r="H86" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I86" s="32">
         <v>0.08</v>
@@ -22291,7 +22288,7 @@
         <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L86">
         <v>8600</v>
@@ -22330,18 +22327,18 @@
         <v>1000</v>
       </c>
       <c r="AE86" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B87" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C87" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D87">
         <v>250</v>
@@ -22356,7 +22353,7 @@
         <v>400</v>
       </c>
       <c r="H87" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I87" s="32">
         <v>1.7999999999999999E-2</v>
@@ -22365,7 +22362,7 @@
         <v>30</v>
       </c>
       <c r="K87" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L87">
         <v>8322</v>
@@ -22401,7 +22398,7 @@
         <v>1</v>
       </c>
       <c r="AE87" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF87">
         <v>5</v>
@@ -22412,19 +22409,19 @@
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B88" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C88" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F88">
         <v>5000</v>
       </c>
       <c r="H88" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I88" s="32">
         <v>2.4E-2</v>
@@ -22454,13 +22451,13 @@
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B89" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C89" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D89">
         <v>215</v>
@@ -22472,11 +22469,11 @@
         <v>5375</v>
       </c>
       <c r="H89" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I89" s="32"/>
       <c r="K89" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M89">
         <v>5</v>
@@ -22509,18 +22506,18 @@
         <v>1000</v>
       </c>
       <c r="AE89" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B90" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C90" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F90">
         <v>10000</v>
@@ -22529,7 +22526,7 @@
         <v>800</v>
       </c>
       <c r="H90" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I90" s="32">
         <v>0</v>
@@ -22565,13 +22562,13 @@
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B91" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C91" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F91">
         <v>10000</v>
@@ -22580,7 +22577,7 @@
         <v>800</v>
       </c>
       <c r="H91" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I91" s="32">
         <v>0</v>
@@ -22608,13 +22605,13 @@
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B92" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C92" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D92">
         <v>500</v>
@@ -22629,7 +22626,7 @@
         <v>400</v>
       </c>
       <c r="H92" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I92" s="32">
         <v>1.7999999999999999E-2</v>
@@ -22638,7 +22635,7 @@
         <v>30</v>
       </c>
       <c r="K92" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L92">
         <v>8322</v>
@@ -22674,7 +22671,7 @@
         <v>2</v>
       </c>
       <c r="AE92" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF92">
         <v>5</v>
@@ -22685,13 +22682,13 @@
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B93" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C93" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F93">
         <v>10070</v>
@@ -22700,11 +22697,11 @@
         <v>11000</v>
       </c>
       <c r="H93" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I93" s="32"/>
       <c r="K93" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="R93" s="34"/>
       <c r="AA93">
@@ -22720,18 +22717,18 @@
         <v>1875</v>
       </c>
       <c r="AE93" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B94" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C94" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D94">
         <v>4192</v>
@@ -22740,7 +22737,7 @@
         <v>10481</v>
       </c>
       <c r="H94" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I94" s="32">
         <v>4.2934834462360461E-2</v>
@@ -22784,13 +22781,13 @@
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B95" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C95" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D95">
         <v>750</v>
@@ -22805,7 +22802,7 @@
         <v>400</v>
       </c>
       <c r="H95" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I95" s="32">
         <v>1.7999999999999999E-2</v>
@@ -22814,7 +22811,7 @@
         <v>30</v>
       </c>
       <c r="K95" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L95">
         <v>8322</v>
@@ -22850,7 +22847,7 @@
         <v>3</v>
       </c>
       <c r="AE95" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF95">
         <v>5</v>
@@ -22861,13 +22858,13 @@
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B96" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C96" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D96">
         <v>1800</v>
@@ -22876,7 +22873,7 @@
         <v>18000</v>
       </c>
       <c r="H96" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I96" s="32">
         <v>0</v>
@@ -22909,18 +22906,18 @@
         <v>4000</v>
       </c>
       <c r="AE96" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B97" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C97" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D97">
         <v>1000</v>
@@ -22935,7 +22932,7 @@
         <v>400</v>
       </c>
       <c r="H97" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I97" s="32">
         <v>1.7999999999999999E-2</v>
@@ -22944,7 +22941,7 @@
         <v>30</v>
       </c>
       <c r="K97" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L97">
         <v>8322</v>
@@ -22980,7 +22977,7 @@
         <v>4</v>
       </c>
       <c r="AE97" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF97">
         <v>5</v>
@@ -22991,26 +22988,26 @@
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B98" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C98" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G98">
         <v>400</v>
       </c>
       <c r="H98" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I98" s="32"/>
       <c r="J98">
         <v>30</v>
       </c>
       <c r="K98" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L98">
         <v>8322</v>
@@ -23032,7 +23029,7 @@
         <v>3.5</v>
       </c>
       <c r="AE98" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF98">
         <v>5</v>
@@ -23043,13 +23040,13 @@
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B99" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C99" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G99">
         <v>64</v>
@@ -23074,13 +23071,13 @@
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B100" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C100" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G100">
         <v>260</v>
@@ -23105,13 +23102,13 @@
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B101" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C101" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G101">
         <v>54</v>
@@ -23136,13 +23133,13 @@
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B102" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C102" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G102">
         <v>163</v>
@@ -23167,13 +23164,13 @@
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B103" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C103" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="I103" s="32"/>
       <c r="J103">
@@ -23192,13 +23189,13 @@
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B104" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C104" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="I104" s="32"/>
       <c r="J104">

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3380E90-4A21-F648-9CCD-393B26AC67E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3972F76E-CDB9-E145-81BF-4A7109678416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="11060" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="4620" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lci" sheetId="1" r:id="rId1"/>
@@ -2078,22 +2078,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2108,6 +2096,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
@@ -2115,7 +2115,7 @@
     <cellStyle name="Normal 11 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Per cent" xfId="5" builtinId="5"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2395,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T455"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15213,10 +15213,10 @@
       <c r="C4" s="39" t="s">
         <v>445</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="53" t="s">
         <v>410</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="40" t="s">
         <v>411</v>
       </c>
@@ -15231,10 +15231,10 @@
       <c r="C5" s="39">
         <v>5.5</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="55">
         <v>2.5</v>
       </c>
-      <c r="E5" s="60"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="39" t="s">
         <v>412</v>
       </c>
@@ -15246,9 +15246,9 @@
       <c r="B6" s="50" t="s">
         <v>414</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="41" t="s">
         <v>415</v>
       </c>
@@ -15263,10 +15263,10 @@
       <c r="C7" s="39">
         <v>20</v>
       </c>
-      <c r="D7" s="59">
+      <c r="D7" s="55">
         <v>20</v>
       </c>
-      <c r="E7" s="60"/>
+      <c r="E7" s="56"/>
       <c r="F7" s="39" t="s">
         <v>411</v>
       </c>
@@ -15281,10 +15281,10 @@
       <c r="C8" s="39">
         <v>3</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="55">
         <v>7</v>
       </c>
-      <c r="E8" s="60"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="39" t="s">
         <v>418</v>
       </c>
@@ -15296,9 +15296,9 @@
       <c r="B9" s="50" t="s">
         <v>446</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="41" t="s">
         <v>420</v>
       </c>
@@ -15370,7 +15370,7 @@
       <c r="D13" s="50">
         <v>23.6</v>
       </c>
-      <c r="E13" s="51"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="39" t="s">
         <v>423</v>
       </c>
@@ -15383,8 +15383,8 @@
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="C14" s="46"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="41" t="s">
         <v>428</v>
       </c>
@@ -15402,7 +15402,7 @@
       <c r="D15" s="50" t="s">
         <v>432</v>
       </c>
-      <c r="E15" s="51"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="39" t="s">
         <v>425</v>
       </c>
@@ -15420,7 +15420,7 @@
       <c r="D16" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="E16" s="51"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="39" t="s">
         <v>411</v>
       </c>
@@ -15435,27 +15435,27 @@
       <c r="C17" s="40" t="s">
         <v>439</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="59" t="s">
         <v>440</v>
       </c>
-      <c r="E17" s="55"/>
+      <c r="E17" s="60"/>
       <c r="F17" s="41" t="s">
         <v>441</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64623FF-8FA5-0648-A9A5-A4F1C9AB962B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC10CF2-108B-934D-AAA5-D4BE721146CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="4620" windowWidth="39980" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lci" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="503">
   <si>
     <t>Database</t>
   </si>
@@ -1732,6 +1732,9 @@
   </si>
   <si>
     <t>BoP, 27.5 years lifetime. Min-max: 22.5-32.5 years system lifetime, from the IndWEDe report.</t>
+  </si>
+  <si>
+    <t>Stack, 2.5 years lifetime, replaced 7 times over 20 years. Min-max: 15-25 years.</t>
   </si>
 </sst>
 </file>
@@ -2085,10 +2088,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2103,18 +2118,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
@@ -2122,7 +2125,7 @@
     <cellStyle name="Normal 11 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2402,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U455"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="C297" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S295" sqref="S295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11047,7 +11050,7 @@
       <c r="O304" s="13"/>
       <c r="P304" s="13"/>
     </row>
-    <row r="305" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="14" t="s">
         <v>11</v>
       </c>
@@ -11061,7 +11064,7 @@
       <c r="O305" s="13"/>
       <c r="P305" s="13"/>
     </row>
-    <row r="306" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="14" t="s">
         <v>4</v>
       </c>
@@ -11075,7 +11078,7 @@
       <c r="O306" s="13"/>
       <c r="P306" s="13"/>
     </row>
-    <row r="307" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="14" t="s">
         <v>2</v>
       </c>
@@ -11089,7 +11092,7 @@
       <c r="O307" s="13"/>
       <c r="P307" s="13"/>
     </row>
-    <row r="308" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="14" t="s">
         <v>6</v>
       </c>
@@ -11106,7 +11109,7 @@
       <c r="O308" s="13"/>
       <c r="P308" s="13"/>
     </row>
-    <row r="309" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="18" t="s">
         <v>7</v>
       </c>
@@ -11126,7 +11129,7 @@
       <c r="O309" s="13"/>
       <c r="P309" s="13"/>
     </row>
-    <row r="310" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="18" t="s">
         <v>8</v>
       </c>
@@ -11182,11 +11185,16 @@
         <v>489</v>
       </c>
       <c r="S310" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="T310" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="U310" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="T310" s="8"/>
-    </row>
-    <row r="311" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="311" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="17" t="s">
         <v>459</v>
       </c>
@@ -11218,7 +11226,7 @@
       <c r="P311" s="13"/>
       <c r="T311"/>
     </row>
-    <row r="312" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="17" t="s">
         <v>155</v>
       </c>
@@ -11239,9 +11247,15 @@
         <v>152</v>
       </c>
       <c r="H312" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="J312"/>
+        <v>502</v>
+      </c>
+      <c r="I312" s="12">
+        <v>5</v>
+      </c>
+      <c r="J312">
+        <f>B312</f>
+        <v>2.1186440677966101E-6</v>
+      </c>
       <c r="K312" s="20"/>
       <c r="L312" s="20"/>
       <c r="M312" s="20"/>
@@ -11250,8 +11264,16 @@
       <c r="P312" s="20"/>
       <c r="Q312"/>
       <c r="R312"/>
-    </row>
-    <row r="313" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="S312" s="12">
+        <f>(1/(25*8000*23.6))*8</f>
+        <v>1.6949152542372882E-6</v>
+      </c>
+      <c r="T312" s="12">
+        <f>(1/(15*8000*23.6))*8</f>
+        <v>2.8248587570621469E-6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="17" t="s">
         <v>181</v>
       </c>
@@ -11274,7 +11296,13 @@
       <c r="H313" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="J313"/>
+      <c r="I313" s="12">
+        <v>5</v>
+      </c>
+      <c r="J313">
+        <f>B313</f>
+        <v>2.6483050847457627E-7</v>
+      </c>
       <c r="K313" s="20"/>
       <c r="L313" s="20"/>
       <c r="M313" s="20"/>
@@ -11283,8 +11311,16 @@
       <c r="P313" s="20"/>
       <c r="Q313"/>
       <c r="R313"/>
-    </row>
-    <row r="314" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="S313" s="12">
+        <f>(1/(25*8000*23.6))</f>
+        <v>2.1186440677966102E-7</v>
+      </c>
+      <c r="T313" s="12">
+        <f>(1/(15*8000*23.6))</f>
+        <v>3.5310734463276836E-7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="17" t="s">
         <v>238</v>
       </c>
@@ -11307,7 +11343,13 @@
       <c r="H314" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="J314"/>
+      <c r="I314" s="12">
+        <v>5</v>
+      </c>
+      <c r="J314">
+        <f>B314</f>
+        <v>-2.1186440677966101E-6</v>
+      </c>
       <c r="K314" s="20"/>
       <c r="L314" s="20"/>
       <c r="M314" s="20"/>
@@ -11316,8 +11358,19 @@
       <c r="P314" s="20"/>
       <c r="Q314"/>
       <c r="R314"/>
-    </row>
-    <row r="315" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="S314" s="12">
+        <f>-1*T312</f>
+        <v>-2.8248587570621469E-6</v>
+      </c>
+      <c r="T314" s="12">
+        <f>-1*S312</f>
+        <v>-1.6949152542372882E-6</v>
+      </c>
+      <c r="U314" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="17" t="s">
         <v>240</v>
       </c>
@@ -11340,7 +11393,13 @@
       <c r="H315" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="J315"/>
+      <c r="I315" s="12">
+        <v>5</v>
+      </c>
+      <c r="J315">
+        <f>B315</f>
+        <v>-2.6483050847457627E-7</v>
+      </c>
       <c r="K315" s="20"/>
       <c r="L315" s="20"/>
       <c r="M315" s="20"/>
@@ -11349,8 +11408,19 @@
       <c r="P315" s="20"/>
       <c r="Q315"/>
       <c r="R315"/>
-    </row>
-    <row r="316" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="S315" s="12">
+        <f>-1*T313</f>
+        <v>-3.5310734463276836E-7</v>
+      </c>
+      <c r="T315" s="12">
+        <f>-1*S313</f>
+        <v>-2.1186440677966102E-7</v>
+      </c>
+      <c r="U315" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="14" t="s">
         <v>52</v>
       </c>
@@ -11383,7 +11453,7 @@
       <c r="Q316"/>
       <c r="R316"/>
     </row>
-    <row r="317" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="14" t="s">
         <v>53</v>
       </c>
@@ -11416,7 +11486,7 @@
       <c r="Q317"/>
       <c r="R317"/>
     </row>
-    <row r="318" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="14" t="s">
         <v>37</v>
       </c>
@@ -11448,7 +11518,7 @@
       <c r="Q318"/>
       <c r="R318"/>
     </row>
-    <row r="319" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="22" t="s">
         <v>40</v>
       </c>
@@ -11477,7 +11547,7 @@
       <c r="Q319" s="20"/>
       <c r="R319"/>
     </row>
-    <row r="320" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:21" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="48" t="s">
         <v>470</v>
       </c>
@@ -15332,10 +15402,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D607540C-5A98-C943-82C9-9BA357D77C9A}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15381,10 +15451,10 @@
       <c r="C4" s="39" t="s">
         <v>444</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="57" t="s">
         <v>409</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="40" t="s">
         <v>410</v>
       </c>
@@ -15399,10 +15469,10 @@
       <c r="C5" s="39">
         <v>5.5</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="59">
         <v>2.5</v>
       </c>
-      <c r="E5" s="56"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="39" t="s">
         <v>411</v>
       </c>
@@ -15414,9 +15484,9 @@
       <c r="B6" s="50" t="s">
         <v>413</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="41" t="s">
         <v>414</v>
       </c>
@@ -15431,10 +15501,10 @@
       <c r="C7" s="39">
         <v>20</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="59">
         <v>20</v>
       </c>
-      <c r="E7" s="56"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="39" t="s">
         <v>410</v>
       </c>
@@ -15449,10 +15519,10 @@
       <c r="C8" s="39">
         <v>3</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="59">
         <v>7</v>
       </c>
-      <c r="E8" s="56"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="39" t="s">
         <v>417</v>
       </c>
@@ -15464,9 +15534,9 @@
       <c r="B9" s="50" t="s">
         <v>445</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="41" t="s">
         <v>419</v>
       </c>
@@ -15538,7 +15608,7 @@
       <c r="D13" s="50">
         <v>23.6</v>
       </c>
-      <c r="E13" s="52"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="39" t="s">
         <v>422</v>
       </c>
@@ -15551,8 +15621,8 @@
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="C14" s="46"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="41" t="s">
         <v>427</v>
       </c>
@@ -15570,7 +15640,7 @@
       <c r="D15" s="50" t="s">
         <v>431</v>
       </c>
-      <c r="E15" s="52"/>
+      <c r="E15" s="51"/>
       <c r="F15" s="39" t="s">
         <v>424</v>
       </c>
@@ -15588,7 +15658,7 @@
       <c r="D16" s="50" t="s">
         <v>435</v>
       </c>
-      <c r="E16" s="52"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="39" t="s">
         <v>410</v>
       </c>
@@ -15603,37 +15673,27 @@
       <c r="C17" s="40" t="s">
         <v>438</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="54" t="s">
         <v>439</v>
       </c>
-      <c r="E17" s="60"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="41" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <f>22.5*8000*19.36</f>
-        <v>3484800</v>
-      </c>
-      <c r="C19">
-        <f>15*8000*18.52</f>
-        <v>2222400</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-electrolysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC10CF2-108B-934D-AAA5-D4BE721146CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6D8061-0271-3143-8B1A-1C84387EBD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2088,22 +2088,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2117,6 +2105,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2405,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C297" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S295" sqref="S295"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B282" sqref="B282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15451,10 +15451,10 @@
       <c r="C4" s="39" t="s">
         <v>444</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="53" t="s">
         <v>409</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="40" t="s">
         <v>410</v>
       </c>
@@ -15469,10 +15469,10 @@
       <c r="C5" s="39">
         <v>5.5</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="55">
         <v>2.5</v>
       </c>
-      <c r="E5" s="60"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="39" t="s">
         <v>411</v>
       </c>
@@ -15484,9 +15484,9 @@
       <c r="B6" s="50" t="s">
         <v>413</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="41" t="s">
         <v>414</v>
       </c>
@@ -15501,10 +15501,10 @@
       <c r="C7" s="39">
         <v>20</v>
       </c>
-      <c r="D7" s="59">
+      <c r="D7" s="55">
         <v>20</v>
       </c>
-      <c r="E7" s="60"/>
+      <c r="E7" s="56"/>
       <c r="F7" s="39" t="s">
         <v>410</v>
       </c>
@@ -15519,10 +15519,10 @@
       <c r="C8" s="39">
         <v>3</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="55">
         <v>7</v>
       </c>
-      <c r="E8" s="60"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="39" t="s">
         <v>417</v>
       </c>
@@ -15534,9 +15534,9 @@
       <c r="B9" s="50" t="s">
         <v>445</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="41" t="s">
         <v>419</v>
       </c>
@@ -15608,7 +15608,7 @@
       <c r="D13" s="50">
         <v>23.6</v>
       </c>
-      <c r="E13" s="51"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="39" t="s">
         <v>422</v>
       </c>
@@ -15621,8 +15621,8 @@
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="C14" s="46"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="41" t="s">
         <v>427</v>
       </c>
@@ -15640,7 +15640,7 @@
       <c r="D15" s="50" t="s">
         <v>431</v>
       </c>
-      <c r="E15" s="51"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="39" t="s">
         <v>424</v>
       </c>
@@ -15658,7 +15658,7 @@
       <c r="D16" s="50" t="s">
         <v>435</v>
       </c>
-      <c r="E16" s="51"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="39" t="s">
         <v>410</v>
       </c>
@@ -15673,27 +15673,27 @@
       <c r="C17" s="40" t="s">
         <v>438</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="59" t="s">
         <v>439</v>
       </c>
-      <c r="E17" s="55"/>
+      <c r="E17" s="60"/>
       <c r="F17" s="41" t="s">
         <v>440</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
